--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19920" windowHeight="8010" tabRatio="338"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19920" windowHeight="8010" tabRatio="338" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Abcissas fixas" sheetId="1" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,22 +1166,54 @@
       <c r="D4" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
+      <c r="E4" s="4">
+        <v>7.0217499999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7.67896</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7.0705</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.11092</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1.659</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.8543700000000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.75641</v>
+      </c>
+      <c r="L4" s="21">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.2221000000000002</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6.8118499999999997</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6.5476200000000002</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.14741000000000001</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>7.4272099999999996</v>
+      </c>
+      <c r="R4" s="5">
+        <v>7.6356599999999997</v>
+      </c>
+      <c r="S4" s="5">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3.8469999999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="40"/>
@@ -1189,22 +1221,54 @@
       <c r="D5" s="14">
         <v>50</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
+      <c r="E5" s="7">
+        <v>5.0242199999999997</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.0442999999999998</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5.0360300000000002</v>
+      </c>
+      <c r="H5" s="9">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.6759599999999999</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.78295</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.7721</v>
+      </c>
+      <c r="L5" s="22">
+        <v>2.8629999999999999E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4.8667600000000002</v>
+      </c>
+      <c r="N5" s="8">
+        <v>4.8671100000000003</v>
+      </c>
+      <c r="O5" s="8">
+        <v>4.8669200000000004</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>7.4568199999999996</v>
+      </c>
+      <c r="R5" s="8">
+        <v>7.5282400000000003</v>
+      </c>
+      <c r="S5" s="8">
+        <v>7.50732</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2.0330000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="40"/>
@@ -1214,22 +1278,54 @@
       <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
+      <c r="E6" s="7">
+        <v>5.1773999999999996</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.3295700000000004</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.18757</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.6420999999999999</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.64225</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.64225</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4.9325299999999999</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5.8435699999999997</v>
+      </c>
+      <c r="O6" s="8">
+        <v>4.9901499999999999</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2059</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>7.1666699999999999</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7.1884300000000003</v>
+      </c>
+      <c r="S6" s="8">
+        <v>7.1849499999999997</v>
+      </c>
+      <c r="T6" s="9">
+        <v>7.9799999999999992E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1">
       <c r="B7" s="40"/>
@@ -1237,22 +1333,54 @@
       <c r="D7" s="29">
         <v>250</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
+      <c r="E7" s="24">
+        <v>4.5209799999999998</v>
+      </c>
+      <c r="F7" s="25">
+        <v>4.5209799999999998</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4.5209799999999998</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1.22153</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1.2268300000000001</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1.22672</v>
+      </c>
+      <c r="L7" s="28">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="M7" s="24">
+        <v>4.31149</v>
+      </c>
+      <c r="N7" s="25">
+        <v>4.3115500000000004</v>
+      </c>
+      <c r="O7" s="25">
+        <v>4.3115199999999998</v>
+      </c>
+      <c r="P7" s="26">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>7.0185000000000004</v>
+      </c>
+      <c r="R7" s="25">
+        <v>7.0185000000000004</v>
+      </c>
+      <c r="S7" s="25">
+        <v>7.0185000000000004</v>
+      </c>
+      <c r="T7" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="40"/>
@@ -1260,22 +1388,54 @@
       <c r="D8" s="13">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="E8" s="4">
+        <v>5.1893399999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5.8871500000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5.4970400000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.12304</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.74505</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.0032199999999998</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.87459</v>
+      </c>
+      <c r="L8" s="21">
+        <v>4.0629999999999999E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.7875899999999998</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.5719200000000004</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5.2586899999999996</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.15315999999999999</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>7.61287</v>
+      </c>
+      <c r="R8" s="5">
+        <v>7.6792800000000003</v>
+      </c>
+      <c r="S8" s="5">
+        <v>7.6401700000000003</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1.566E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="40"/>
@@ -1283,22 +1443,54 @@
       <c r="D9" s="14">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
+      <c r="E9" s="7">
+        <v>4.6554399999999996</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.6812800000000001</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.6703900000000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1.3787499999999999</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.3817200000000001</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.3804399999999999</v>
+      </c>
+      <c r="L9" s="22">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4.4266399999999999</v>
+      </c>
+      <c r="N9" s="8">
+        <v>4.4804399999999998</v>
+      </c>
+      <c r="O9" s="8">
+        <v>4.4396300000000002</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2.2929999999999999E-2</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>7.1420599999999999</v>
+      </c>
+      <c r="R9" s="8">
+        <v>7.1450699999999996</v>
+      </c>
+      <c r="S9" s="8">
+        <v>7.1443399999999997</v>
+      </c>
+      <c r="T9" s="9">
+        <v>8.0000000000000004E-4</v>
+      </c>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="40"/>
@@ -1308,22 +1500,54 @@
       <c r="D10" s="14">
         <v>100</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
+      <c r="E10" s="7">
+        <v>3.9096500000000001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.5678000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3.9162300000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6.5490000000000007E-2</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1.5398799999999999</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.5398799999999999</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.5398799999999999</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4.3118699999999999</v>
+      </c>
+      <c r="N10" s="8">
+        <v>4.3703599999999998</v>
+      </c>
+      <c r="O10" s="8">
+        <v>4.31663</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1.584E-2</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>7.0376500000000002</v>
+      </c>
+      <c r="R10" s="8">
+        <v>7.2181600000000001</v>
+      </c>
+      <c r="S10" s="8">
+        <v>7.0456399999999997</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2.009E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1">
       <c r="B11" s="40">
@@ -1333,22 +1557,54 @@
       <c r="D11" s="29">
         <v>250</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="26"/>
+      <c r="E11" s="24">
+        <v>4.8247600000000004</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4.8266600000000004</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4.8261099999999999</v>
+      </c>
+      <c r="H11" s="26">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1.2935000000000001</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1.32605</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1.2946</v>
+      </c>
+      <c r="L11" s="28">
+        <v>3.49E-3</v>
+      </c>
+      <c r="M11" s="24">
+        <v>4.3110999999999997</v>
+      </c>
+      <c r="N11" s="25">
+        <v>4.4495800000000001</v>
+      </c>
+      <c r="O11" s="25">
+        <v>4.3149100000000002</v>
+      </c>
+      <c r="P11" s="26">
+        <v>2.0740000000000001E-2</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>7.0145900000000001</v>
+      </c>
+      <c r="R11" s="25">
+        <v>7.0145900000000001</v>
+      </c>
+      <c r="S11" s="25">
+        <v>7.0145900000000001</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="40"/>
@@ -1356,22 +1612,54 @@
       <c r="D12" s="13">
         <v>20</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+      <c r="E12" s="4">
+        <v>5.21706</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.8344899999999997</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5.6711600000000004</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.10015</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1.67645</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.74535</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.6934199999999999</v>
+      </c>
+      <c r="L12" s="21">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4.8465499999999997</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5.1000500000000004</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4.9393099999999999</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5.1670000000000001E-2</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>7.2526799999999998</v>
+      </c>
+      <c r="R12" s="5">
+        <v>7.3491799999999996</v>
+      </c>
+      <c r="S12" s="5">
+        <v>7.3292400000000004</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1.453E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="40"/>
@@ -1379,22 +1667,54 @@
       <c r="D13" s="14">
         <v>50</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
+      <c r="E13" s="7">
+        <v>5.5274299999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.5742200000000004</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5.5432699999999997</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.1429999999999999E-2</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1.2168300000000001</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.2483900000000001</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.24396</v>
+      </c>
+      <c r="L13" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4.3486399999999996</v>
+      </c>
+      <c r="N13" s="8">
+        <v>4.3614199999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>4.3595100000000002</v>
+      </c>
+      <c r="P13" s="9">
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="R13" s="8">
+        <v>7.1297100000000002</v>
+      </c>
+      <c r="S13" s="8">
+        <v>7.1264200000000004</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1.0499999999999999E-3</v>
+      </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="40"/>
@@ -1404,22 +1724,54 @@
       <c r="D14" s="14">
         <v>100</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="9"/>
+      <c r="E14" s="7">
+        <v>3.8160599999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3.8233600000000001</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3.8220999999999998</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1.1932499999999999</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.1952199999999999</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.19458</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2.9E-4</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4.3074899999999996</v>
+      </c>
+      <c r="N14" s="8">
+        <v>4.3074899999999996</v>
+      </c>
+      <c r="O14" s="8">
+        <v>4.3074899999999996</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>7.0225600000000004</v>
+      </c>
+      <c r="R14" s="8">
+        <v>7.0278999999999998</v>
+      </c>
+      <c r="S14" s="8">
+        <v>7.0277500000000002</v>
+      </c>
+      <c r="T14" s="9">
+        <v>8.3000000000000001E-4</v>
+      </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
       <c r="B15" s="40"/>
@@ -1427,22 +1779,54 @@
       <c r="D15" s="29">
         <v>250</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
+      <c r="E15" s="24">
+        <v>3.7760600000000002</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3.7765200000000001</v>
+      </c>
+      <c r="G15" s="25">
+        <v>3.77651</v>
+      </c>
+      <c r="H15" s="26">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I15" s="27">
+        <v>1.25996</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1.36253</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1.2659199999999999</v>
+      </c>
+      <c r="L15" s="28">
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="M15" s="24">
+        <v>4.3055599999999998</v>
+      </c>
+      <c r="N15" s="25">
+        <v>4.3055700000000003</v>
+      </c>
+      <c r="O15" s="25">
+        <v>4.3055700000000003</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>7.0038</v>
+      </c>
+      <c r="R15" s="25">
+        <v>7.00474</v>
+      </c>
+      <c r="S15" s="25">
+        <v>7.0042499999999999</v>
+      </c>
+      <c r="T15" s="26">
+        <v>6.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="40"/>
@@ -1450,22 +1834,54 @@
       <c r="D16" s="13">
         <v>20</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
+      <c r="E16" s="4">
+        <v>4.0557100000000004</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.3661300000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.63293</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.39608</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.72888</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1.5276000000000001</v>
+      </c>
+      <c r="L16" s="21">
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4.4506199999999998</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5.5277700000000003</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4.8948299999999998</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.14130999999999999</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>7.1368499999999999</v>
+      </c>
+      <c r="R16" s="5">
+        <v>7.2453200000000004</v>
+      </c>
+      <c r="S16" s="5">
+        <v>7.2051999999999996</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1.374E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="40"/>
@@ -1473,22 +1889,54 @@
       <c r="D17" s="14">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
+      <c r="E17" s="7">
+        <v>3.9236599999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.16073</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3.9509099999999999</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.7260000000000001E-2</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1.2404900000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.26959</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.25203</v>
+      </c>
+      <c r="L17" s="22">
+        <v>7.3699999999999998E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4.3073300000000003</v>
+      </c>
+      <c r="N17" s="8">
+        <v>4.3084899999999999</v>
+      </c>
+      <c r="O17" s="8">
+        <v>4.3078599999999998</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>7.0112699999999997</v>
+      </c>
+      <c r="R17" s="8">
+        <v>7.0221200000000001</v>
+      </c>
+      <c r="S17" s="8">
+        <v>7.0131800000000002</v>
+      </c>
+      <c r="T17" s="9">
+        <v>6.6E-4</v>
+      </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="40"/>
@@ -1498,22 +1946,54 @@
       <c r="D18" s="14">
         <v>100</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9"/>
+      <c r="E18" s="7">
+        <v>4.2616300000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.5187499999999998</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4.2636500000000002</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.5939999999999999E-2</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1.42075</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.47797</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.4214100000000001</v>
+      </c>
+      <c r="L18" s="22">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4.3069100000000002</v>
+      </c>
+      <c r="N18" s="8">
+        <v>4.31114</v>
+      </c>
+      <c r="O18" s="8">
+        <v>4.3069899999999999</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>7.0069800000000004</v>
+      </c>
+      <c r="R18" s="8">
+        <v>7.0698100000000004</v>
+      </c>
+      <c r="S18" s="8">
+        <v>7.0098799999999999</v>
+      </c>
+      <c r="T18" s="9">
+        <v>4.9699999999999996E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1">
       <c r="B19" s="41"/>
@@ -1521,22 +2001,54 @@
       <c r="D19" s="15">
         <v>250</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
+      <c r="E19" s="10">
+        <v>3.7141000000000002</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3.7358099999999999</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3.7159399999999998</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1.49E-3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1.1674500000000001</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.2197100000000001</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.16771</v>
+      </c>
+      <c r="L19" s="23">
+        <v>2.97E-3</v>
+      </c>
+      <c r="M19" s="10">
+        <v>4.3093700000000004</v>
+      </c>
+      <c r="N19" s="11">
+        <v>4.3568300000000004</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4.3096100000000002</v>
+      </c>
+      <c r="P19" s="12">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>6.9993499999999997</v>
+      </c>
+      <c r="R19" s="11">
+        <v>6.9993600000000002</v>
+      </c>
+      <c r="S19" s="11">
+        <v>6.9993600000000002</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="40"/>
@@ -1544,22 +2056,54 @@
       <c r="D20" s="13">
         <v>20</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="6"/>
+      <c r="E20" s="4">
+        <v>14.16479</v>
+      </c>
+      <c r="F20" s="5">
+        <v>15.118980000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14.842510000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.24912999999999999</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3.7420599999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3.94068</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3.8706900000000002</v>
+      </c>
+      <c r="L20" s="21">
+        <v>8.3349999999999994E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>12.44783</v>
+      </c>
+      <c r="N20" s="5">
+        <v>13.16114</v>
+      </c>
+      <c r="O20" s="5">
+        <v>12.82516</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.26674999999999999</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>8.8998600000000003</v>
+      </c>
+      <c r="R20" s="5">
+        <v>9.5131300000000003</v>
+      </c>
+      <c r="S20" s="5">
+        <v>9.0167199999999994</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0.16622999999999999</v>
+      </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="40"/>
@@ -1567,22 +2111,54 @@
       <c r="D21" s="14">
         <v>50</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="9"/>
+      <c r="E21" s="7">
+        <v>10.48251</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10.48465</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10.48418</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.2E-4</v>
+      </c>
+      <c r="I21" s="18">
+        <v>3.1495700000000002</v>
+      </c>
+      <c r="J21" s="8">
+        <v>3.3532299999999999</v>
+      </c>
+      <c r="K21" s="8">
+        <v>3.1540400000000002</v>
+      </c>
+      <c r="L21" s="22">
+        <v>2.8459999999999999E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9.5051000000000005</v>
+      </c>
+      <c r="N21" s="8">
+        <v>9.51051</v>
+      </c>
+      <c r="O21" s="8">
+        <v>9.5062599999999993</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1.15E-3</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>9.1643299999999996</v>
+      </c>
+      <c r="R21" s="8">
+        <v>9.2851900000000001</v>
+      </c>
+      <c r="S21" s="8">
+        <v>9.23095</v>
+      </c>
+      <c r="T21" s="9">
+        <v>2.554E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="40"/>
@@ -1592,22 +2168,54 @@
       <c r="D22" s="14">
         <v>100</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="9"/>
+      <c r="E22" s="7">
+        <v>9.6260999999999992</v>
+      </c>
+      <c r="F22" s="8">
+        <v>9.6323799999999995</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9.6282399999999999</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.99E-3</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2.3039499999999999</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.3521100000000001</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2.3479899999999998</v>
+      </c>
+      <c r="L22" s="22">
+        <v>6.4599999999999996E-3</v>
+      </c>
+      <c r="M22" s="7">
+        <v>8.2632399999999997</v>
+      </c>
+      <c r="N22" s="8">
+        <v>10.09168</v>
+      </c>
+      <c r="O22" s="8">
+        <v>8.4131999999999998</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.24035000000000001</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>8.3141499999999997</v>
+      </c>
+      <c r="R22" s="8">
+        <v>8.3453400000000002</v>
+      </c>
+      <c r="S22" s="8">
+        <v>8.33582</v>
+      </c>
+      <c r="T22" s="9">
+        <v>9.7199999999999995E-3</v>
+      </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1">
       <c r="B23" s="40"/>
@@ -1615,22 +2223,54 @@
       <c r="D23" s="29">
         <v>250</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
+      <c r="E23" s="24">
+        <v>7.8182700000000001</v>
+      </c>
+      <c r="F23" s="25">
+        <v>8.5290599999999994</v>
+      </c>
+      <c r="G23" s="25">
+        <v>7.8335699999999999</v>
+      </c>
+      <c r="H23" s="26">
+        <v>9.9409999999999998E-2</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2.0446800000000001</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2.0446800000000001</v>
+      </c>
+      <c r="K23" s="25">
+        <v>2.0446800000000001</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0</v>
+      </c>
+      <c r="M23" s="24">
+        <v>6.1516000000000002</v>
+      </c>
+      <c r="N23" s="25">
+        <v>6.1516200000000003</v>
+      </c>
+      <c r="O23" s="25">
+        <v>6.1516099999999998</v>
+      </c>
+      <c r="P23" s="26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>7.7038900000000003</v>
+      </c>
+      <c r="R23" s="25">
+        <v>8.3019099999999995</v>
+      </c>
+      <c r="S23" s="25">
+        <v>7.7158499999999997</v>
+      </c>
+      <c r="T23" s="26">
+        <v>8.3720000000000003E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="40"/>
@@ -1638,22 +2278,54 @@
       <c r="D24" s="13">
         <v>20</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="6"/>
+      <c r="E24" s="4">
+        <v>11.27291</v>
+      </c>
+      <c r="F24" s="5">
+        <v>12.27258</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11.913740000000001</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.20723</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3.1882799999999998</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3.5406900000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3.39628</v>
+      </c>
+      <c r="L24" s="21">
+        <v>6.7489999999999994E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <v>11.854290000000001</v>
+      </c>
+      <c r="N24" s="5">
+        <v>12.87613</v>
+      </c>
+      <c r="O24" s="5">
+        <v>12.3855</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.22832</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>9.3361000000000001</v>
+      </c>
+      <c r="R24" s="5">
+        <v>9.8754600000000003</v>
+      </c>
+      <c r="S24" s="5">
+        <v>9.6119699999999995</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.15079999999999999</v>
+      </c>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="40"/>
@@ -1661,22 +2333,54 @@
       <c r="D25" s="14">
         <v>50</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="9"/>
+      <c r="E25" s="7">
+        <v>8.16479</v>
+      </c>
+      <c r="F25" s="8">
+        <v>8.3330400000000004</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8.3261599999999998</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2.9319999999999999E-2</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2.8186800000000001</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2.9344199999999998</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2.8668399999999998</v>
+      </c>
+      <c r="L25" s="22">
+        <v>2.0060000000000001E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8.9730600000000003</v>
+      </c>
+      <c r="N25" s="8">
+        <v>9.0459800000000001</v>
+      </c>
+      <c r="O25" s="8">
+        <v>9.0165299999999995</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2.792E-2</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>7.8670799999999996</v>
+      </c>
+      <c r="R25" s="8">
+        <v>8.1242800000000006</v>
+      </c>
+      <c r="S25" s="8">
+        <v>7.8955200000000003</v>
+      </c>
+      <c r="T25" s="9">
+        <v>3.5740000000000001E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="40"/>
@@ -1686,22 +2390,54 @@
       <c r="D26" s="14">
         <v>100</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="9"/>
+      <c r="E26" s="7">
+        <v>6.4257600000000004</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6.4281600000000001</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6.4267200000000004</v>
+      </c>
+      <c r="H26" s="9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I26" s="18">
+        <v>2.1204299999999998</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2.2349000000000001</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2.1841400000000002</v>
+      </c>
+      <c r="L26" s="22">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6.9809400000000004</v>
+      </c>
+      <c r="N26" s="8">
+        <v>7.1061500000000004</v>
+      </c>
+      <c r="O26" s="8">
+        <v>6.9833600000000002</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>7.3479000000000001</v>
+      </c>
+      <c r="R26" s="8">
+        <v>7.3535500000000003</v>
+      </c>
+      <c r="S26" s="8">
+        <v>7.3508599999999999</v>
+      </c>
+      <c r="T26" s="9">
+        <v>9.6000000000000002E-4</v>
+      </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1">
       <c r="B27" s="40">
@@ -1711,22 +2447,54 @@
       <c r="D27" s="29">
         <v>250</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="26"/>
+      <c r="E27" s="24">
+        <v>5.5345700000000004</v>
+      </c>
+      <c r="F27" s="25">
+        <v>5.5364399999999998</v>
+      </c>
+      <c r="G27" s="25">
+        <v>5.5364199999999997</v>
+      </c>
+      <c r="H27" s="26">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="I27" s="27">
+        <v>1.5249200000000001</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1.5289600000000001</v>
+      </c>
+      <c r="K27" s="25">
+        <v>1.52599</v>
+      </c>
+      <c r="L27" s="28">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="M27" s="24">
+        <v>5.9854500000000002</v>
+      </c>
+      <c r="N27" s="25">
+        <v>6.8130499999999996</v>
+      </c>
+      <c r="O27" s="25">
+        <v>6.05206</v>
+      </c>
+      <c r="P27" s="26">
+        <v>8.9389999999999997E-2</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>7.3736899999999999</v>
+      </c>
+      <c r="R27" s="25">
+        <v>7.3783700000000003</v>
+      </c>
+      <c r="S27" s="25">
+        <v>7.3755699999999997</v>
+      </c>
+      <c r="T27" s="26">
+        <v>1.0399999999999999E-3</v>
+      </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="40"/>
@@ -1734,22 +2502,54 @@
       <c r="D28" s="13">
         <v>20</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="6"/>
+      <c r="E28" s="4">
+        <v>9.4624400000000009</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11.31256</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10.46608</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.37935999999999998</v>
+      </c>
+      <c r="I28" s="17">
+        <v>2.8256299999999999</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3.5810399999999998</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3.2328700000000001</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.14346999999999999</v>
+      </c>
+      <c r="M28" s="4">
+        <v>8.3663500000000006</v>
+      </c>
+      <c r="N28" s="5">
+        <v>11.413880000000001</v>
+      </c>
+      <c r="O28" s="5">
+        <v>9.9222099999999998</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.52003999999999995</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>8.8729200000000006</v>
+      </c>
+      <c r="R28" s="5">
+        <v>9.3040400000000005</v>
+      </c>
+      <c r="S28" s="5">
+        <v>9.1040200000000002</v>
+      </c>
+      <c r="T28" s="6">
+        <v>9.6909999999999996E-2</v>
+      </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="40"/>
@@ -1757,22 +2557,54 @@
       <c r="D29" s="14">
         <v>50</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="9"/>
+      <c r="E29" s="7">
+        <v>7.1971499999999997</v>
+      </c>
+      <c r="F29" s="8">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="G29" s="8">
+        <v>7.3814500000000001</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4.4769999999999997E-2</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2.31975</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2.6159599999999998</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2.3641200000000002</v>
+      </c>
+      <c r="L29" s="22">
+        <v>2.9839999999999998E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>9.1546000000000003</v>
+      </c>
+      <c r="N29" s="8">
+        <v>9.1866000000000003</v>
+      </c>
+      <c r="O29" s="8">
+        <v>9.1828599999999998</v>
+      </c>
+      <c r="P29" s="9">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>7.7617500000000001</v>
+      </c>
+      <c r="R29" s="8">
+        <v>7.8848700000000003</v>
+      </c>
+      <c r="S29" s="8">
+        <v>7.7747900000000003</v>
+      </c>
+      <c r="T29" s="9">
+        <v>1.47E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="40"/>
@@ -1782,22 +2614,54 @@
       <c r="D30" s="14">
         <v>100</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="9"/>
+      <c r="E30" s="7">
+        <v>5.87819</v>
+      </c>
+      <c r="F30" s="8">
+        <v>6.2587000000000002</v>
+      </c>
+      <c r="G30" s="8">
+        <v>6.1649099999999999</v>
+      </c>
+      <c r="H30" s="9">
+        <v>8.856E-2</v>
+      </c>
+      <c r="I30" s="18">
+        <v>2.0583</v>
+      </c>
+      <c r="J30" s="8">
+        <v>2.06609</v>
+      </c>
+      <c r="K30" s="8">
+        <v>2.0588199999999999</v>
+      </c>
+      <c r="L30" s="22">
+        <v>1.17E-3</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5.1202100000000002</v>
+      </c>
+      <c r="N30" s="8">
+        <v>5.1296400000000002</v>
+      </c>
+      <c r="O30" s="8">
+        <v>5.1295599999999997</v>
+      </c>
+      <c r="P30" s="9">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>7.2952399999999997</v>
+      </c>
+      <c r="R30" s="8">
+        <v>7.3734500000000001</v>
+      </c>
+      <c r="S30" s="8">
+        <v>7.3128299999999999</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1.0449999999999999E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1">
       <c r="B31" s="40"/>
@@ -1805,22 +2669,54 @@
       <c r="D31" s="29">
         <v>250</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="26"/>
+      <c r="E31" s="24">
+        <v>5.7364100000000002</v>
+      </c>
+      <c r="F31" s="25">
+        <v>5.7387300000000003</v>
+      </c>
+      <c r="G31" s="25">
+        <v>5.73848</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="I31" s="27">
+        <v>1.70709</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1.7083600000000001</v>
+      </c>
+      <c r="K31" s="25">
+        <v>1.7079599999999999</v>
+      </c>
+      <c r="L31" s="28">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="M31" s="24">
+        <v>5.1379000000000001</v>
+      </c>
+      <c r="N31" s="25">
+        <v>5.1675399999999998</v>
+      </c>
+      <c r="O31" s="25">
+        <v>5.1658799999999996</v>
+      </c>
+      <c r="P31" s="26">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>7.0989800000000001</v>
+      </c>
+      <c r="R31" s="25">
+        <v>7.1004800000000001</v>
+      </c>
+      <c r="S31" s="25">
+        <v>7.0994200000000003</v>
+      </c>
+      <c r="T31" s="26">
+        <v>5.6999999999999998E-4</v>
+      </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="40"/>
@@ -1828,22 +2724,54 @@
       <c r="D32" s="13">
         <v>20</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="6"/>
+      <c r="E32" s="4">
+        <v>7.7546799999999996</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10.843159999999999</v>
+      </c>
+      <c r="G32" s="5">
+        <v>9.5026700000000002</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.61887999999999999</v>
+      </c>
+      <c r="I32" s="17">
+        <v>2.5909300000000002</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3.5800800000000002</v>
+      </c>
+      <c r="K32" s="5">
+        <v>3.0800299999999998</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0.19383</v>
+      </c>
+      <c r="M32" s="4">
+        <v>8.1118500000000004</v>
+      </c>
+      <c r="N32" s="5">
+        <v>11.82802</v>
+      </c>
+      <c r="O32" s="5">
+        <v>10.042070000000001</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.80356000000000005</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>7.9769199999999998</v>
+      </c>
+      <c r="R32" s="5">
+        <v>8.7054299999999998</v>
+      </c>
+      <c r="S32" s="5">
+        <v>8.3784799999999997</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.14526</v>
+      </c>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="40"/>
@@ -1851,22 +2779,54 @@
       <c r="D33" s="14">
         <v>50</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="9"/>
+      <c r="E33" s="7">
+        <v>5.9109499999999997</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6.2038900000000003</v>
+      </c>
+      <c r="G33" s="8">
+        <v>6.0258200000000004</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3.619E-2</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1.69913</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1.74719</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1.72322</v>
+      </c>
+      <c r="L33" s="22">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5.24573</v>
+      </c>
+      <c r="N33" s="8">
+        <v>5.6530699999999996</v>
+      </c>
+      <c r="O33" s="8">
+        <v>5.3084100000000003</v>
+      </c>
+      <c r="P33" s="9">
+        <v>6.0819999999999999E-2</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>7.4146700000000001</v>
+      </c>
+      <c r="R33" s="8">
+        <v>7.4894400000000001</v>
+      </c>
+      <c r="S33" s="8">
+        <v>7.4648199999999996</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1.244E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="40"/>
@@ -1876,22 +2836,54 @@
       <c r="D34" s="14">
         <v>100</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="9"/>
+      <c r="E34" s="7">
+        <v>5.1412500000000003</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5.2931400000000002</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5.1932999999999998</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1.7809999999999999E-2</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1.8016399999999999</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1.80437</v>
+      </c>
+      <c r="L34" s="22">
+        <v>1.72E-3</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5.2156500000000001</v>
+      </c>
+      <c r="N34" s="8">
+        <v>5.2164000000000001</v>
+      </c>
+      <c r="O34" s="8">
+        <v>5.2159500000000003</v>
+      </c>
+      <c r="P34" s="9">
+        <v>3.1E-4</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>7.3427699999999998</v>
+      </c>
+      <c r="R34" s="8">
+        <v>7.3510999999999997</v>
+      </c>
+      <c r="S34" s="8">
+        <v>7.3476600000000003</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1.65E-3</v>
+      </c>
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1">
       <c r="B35" s="41"/>
@@ -1899,22 +2891,54 @@
       <c r="D35" s="15">
         <v>250</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="12"/>
+      <c r="E35" s="10">
+        <v>4.31182</v>
+      </c>
+      <c r="F35" s="11">
+        <v>4.3266200000000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4.3261799999999999</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1.5556700000000001</v>
+      </c>
+      <c r="J35" s="11">
+        <v>1.5609200000000001</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.55951</v>
+      </c>
+      <c r="L35" s="23">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="M35" s="10">
+        <v>4.7808099999999998</v>
+      </c>
+      <c r="N35" s="11">
+        <v>4.7817299999999996</v>
+      </c>
+      <c r="O35" s="11">
+        <v>4.7809799999999996</v>
+      </c>
+      <c r="P35" s="12">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>7.1435700000000004</v>
+      </c>
+      <c r="R35" s="11">
+        <v>7.1440799999999998</v>
+      </c>
+      <c r="S35" s="11">
+        <v>7.1437200000000001</v>
+      </c>
+      <c r="T35" s="12">
+        <v>2.3000000000000001E-4</v>
+      </c>
     </row>
     <row r="37" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="38" spans="2:20" ht="15.75" thickBot="1">
@@ -2875,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2991,52 +4015,52 @@
         <v>20</v>
       </c>
       <c r="E4" s="4">
-        <v>5.3469600000000002</v>
+        <v>6.2524100000000002</v>
       </c>
       <c r="F4" s="5">
-        <v>6.0959300000000001</v>
+        <v>6.8687899999999997</v>
       </c>
       <c r="G4" s="5">
-        <v>6.0384399999999996</v>
+        <v>6.5760100000000001</v>
       </c>
       <c r="H4" s="6">
-        <v>9.8979999999999999E-2</v>
+        <v>0.15429000000000001</v>
       </c>
       <c r="I4" s="17">
-        <v>1.77542</v>
+        <v>2.3530700000000002</v>
       </c>
       <c r="J4" s="5">
-        <v>1.9542600000000001</v>
+        <v>2.63612</v>
       </c>
       <c r="K4" s="5">
-        <v>1.83097</v>
+        <v>2.4989599999999998</v>
       </c>
       <c r="L4" s="21">
-        <v>3.2590000000000001E-2</v>
+        <v>9.9140000000000006E-2</v>
       </c>
       <c r="M4" s="4">
-        <v>4.9880699999999996</v>
+        <v>4.8688000000000002</v>
       </c>
       <c r="N4" s="5">
-        <v>5.3151999999999999</v>
+        <v>4.86883</v>
       </c>
       <c r="O4" s="5">
-        <v>5.1927399999999997</v>
+        <v>4.86883</v>
       </c>
       <c r="P4" s="6">
-        <v>0.10763</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q4" s="17">
-        <v>7.62723</v>
+        <v>7.4522899999999996</v>
       </c>
       <c r="R4" s="5">
-        <v>7.7290000000000001</v>
+        <v>7.7223100000000002</v>
       </c>
       <c r="S4" s="5">
-        <v>7.6502499999999998</v>
+        <v>7.6476800000000003</v>
       </c>
       <c r="T4" s="6">
-        <v>2.283E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -3046,52 +4070,52 @@
         <v>50</v>
       </c>
       <c r="E5" s="7">
-        <v>4.4558299999999997</v>
+        <v>5.4174800000000003</v>
       </c>
       <c r="F5" s="8">
-        <v>5.0983900000000002</v>
+        <v>5.4807199999999998</v>
       </c>
       <c r="G5" s="8">
-        <v>4.4987399999999997</v>
+        <v>5.4392500000000004</v>
       </c>
       <c r="H5" s="9">
-        <v>0.13300000000000001</v>
+        <v>1.694E-2</v>
       </c>
       <c r="I5" s="18">
-        <v>1.7860199999999999</v>
+        <v>1.52651</v>
       </c>
       <c r="J5" s="8">
-        <v>1.8094399999999999</v>
+        <v>1.93228</v>
       </c>
       <c r="K5" s="8">
-        <v>1.78901</v>
+        <v>1.58579</v>
       </c>
       <c r="L5" s="22">
-        <v>4.4400000000000004E-3</v>
+        <v>5.7950000000000002E-2</v>
       </c>
       <c r="M5" s="7">
-        <v>5.7182000000000004</v>
+        <v>5.7152599999999998</v>
       </c>
       <c r="N5" s="8">
-        <v>5.7187400000000004</v>
+        <v>5.7155500000000004</v>
       </c>
       <c r="O5" s="8">
-        <v>5.7187200000000002</v>
+        <v>5.7154699999999998</v>
       </c>
       <c r="P5" s="9">
-        <v>1.1E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="Q5" s="18">
-        <v>7.2088000000000001</v>
+        <v>7.41411</v>
       </c>
       <c r="R5" s="8">
-        <v>7.2938799999999997</v>
+        <v>7.4700300000000004</v>
       </c>
       <c r="S5" s="8">
-        <v>7.2119</v>
+        <v>7.4526500000000002</v>
       </c>
       <c r="T5" s="9">
-        <v>1.34E-2</v>
+        <v>1.306E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -3103,52 +4127,52 @@
         <v>100</v>
       </c>
       <c r="E6" s="7">
-        <v>5.2099700000000002</v>
+        <v>4.8801899999999998</v>
       </c>
       <c r="F6" s="8">
-        <v>5.2261300000000004</v>
+        <v>4.8801899999999998</v>
       </c>
       <c r="G6" s="8">
-        <v>5.2257999999999996</v>
+        <v>4.8801899999999998</v>
       </c>
       <c r="H6" s="9">
-        <v>2.2599999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="18">
-        <v>1.7373099999999999</v>
+        <v>1.55077</v>
       </c>
       <c r="J6" s="8">
-        <v>1.7649699999999999</v>
+        <v>1.5515399999999999</v>
       </c>
       <c r="K6" s="8">
-        <v>1.7502899999999999</v>
+        <v>1.5508200000000001</v>
       </c>
       <c r="L6" s="22">
-        <v>1.021E-2</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="M6" s="7">
-        <v>4.8492899999999999</v>
+        <v>4.3401300000000003</v>
       </c>
       <c r="N6" s="8">
-        <v>4.8492899999999999</v>
+        <v>4.3409199999999997</v>
       </c>
       <c r="O6" s="8">
-        <v>4.8492899999999999</v>
+        <v>4.3407499999999999</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="Q6" s="18">
-        <v>7.1349600000000004</v>
+        <v>7.0938400000000001</v>
       </c>
       <c r="R6" s="8">
-        <v>7.1349600000000004</v>
+        <v>7.2479699999999996</v>
       </c>
       <c r="S6" s="8">
-        <v>7.1349600000000004</v>
+        <v>7.1264000000000003</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>1.9279999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1">
@@ -3158,52 +4182,52 @@
         <v>250</v>
       </c>
       <c r="E7" s="24">
-        <v>4.8487999999999998</v>
+        <v>4.8395000000000001</v>
       </c>
       <c r="F7" s="25">
-        <v>4.8501599999999998</v>
+        <v>4.8430499999999999</v>
       </c>
       <c r="G7" s="25">
-        <v>4.84945</v>
+        <v>4.8429799999999998</v>
       </c>
       <c r="H7" s="26">
-        <v>6.8000000000000005E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I7" s="27">
-        <v>1.3675200000000001</v>
+        <v>1.53481</v>
       </c>
       <c r="J7" s="25">
-        <v>1.3780699999999999</v>
+        <v>1.53481</v>
       </c>
       <c r="K7" s="25">
-        <v>1.3720000000000001</v>
+        <v>1.53481</v>
       </c>
       <c r="L7" s="28">
-        <v>3.4099999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="24">
-        <v>4.36205</v>
+        <v>4.5890199999999997</v>
       </c>
       <c r="N7" s="25">
-        <v>4.3633499999999996</v>
+        <v>5.2868300000000001</v>
       </c>
       <c r="O7" s="25">
-        <v>4.3621299999999996</v>
+        <v>4.6371900000000004</v>
       </c>
       <c r="P7" s="26">
-        <v>1.8000000000000001E-4</v>
+        <v>0.14849999999999999</v>
       </c>
       <c r="Q7" s="27">
-        <v>7.0467899999999997</v>
+        <v>7.3557300000000003</v>
       </c>
       <c r="R7" s="25">
-        <v>7.0467899999999997</v>
+        <v>7.35649</v>
       </c>
       <c r="S7" s="25">
-        <v>7.0467899999999997</v>
+        <v>7.3564699999999998</v>
       </c>
       <c r="T7" s="26">
-        <v>0</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -3213,52 +4237,52 @@
         <v>20</v>
       </c>
       <c r="E8" s="4">
-        <v>5.4897499999999999</v>
+        <v>4.8394000000000004</v>
       </c>
       <c r="F8" s="5">
-        <v>6.3765400000000003</v>
+        <v>6.3507899999999999</v>
       </c>
       <c r="G8" s="5">
-        <v>5.7605599999999999</v>
+        <v>5.50319</v>
       </c>
       <c r="H8" s="6">
-        <v>0.16854</v>
+        <v>0.24257000000000001</v>
       </c>
       <c r="I8" s="17">
-        <v>1.81576</v>
+        <v>1.7087600000000001</v>
       </c>
       <c r="J8" s="5">
-        <v>2.0869200000000001</v>
+        <v>2.0344099999999998</v>
       </c>
       <c r="K8" s="5">
-        <v>1.8643799999999999</v>
+        <v>1.7347999999999999</v>
       </c>
       <c r="L8" s="21">
-        <v>5.7259999999999998E-2</v>
+        <v>4.3889999999999998E-2</v>
       </c>
       <c r="M8" s="4">
-        <v>4.3403099999999997</v>
+        <v>4.3484299999999996</v>
       </c>
       <c r="N8" s="5">
-        <v>5.3033999999999999</v>
+        <v>4.76898</v>
       </c>
       <c r="O8" s="5">
-        <v>4.50997</v>
+        <v>4.5388799999999998</v>
       </c>
       <c r="P8" s="6">
-        <v>0.19423000000000001</v>
+        <v>0.17635999999999999</v>
       </c>
       <c r="Q8" s="17">
-        <v>7.2232599999999998</v>
+        <v>7.3398300000000001</v>
       </c>
       <c r="R8" s="5">
-        <v>7.2979700000000003</v>
+        <v>7.6631900000000002</v>
       </c>
       <c r="S8" s="5">
-        <v>7.2588299999999997</v>
+        <v>7.4836299999999998</v>
       </c>
       <c r="T8" s="6">
-        <v>1.4290000000000001E-2</v>
+        <v>7.8119999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -3268,52 +4292,52 @@
         <v>50</v>
       </c>
       <c r="E9" s="7">
-        <v>4.8494900000000003</v>
+        <v>4.04251</v>
       </c>
       <c r="F9" s="8">
-        <v>5.6893000000000002</v>
+        <v>4.0621900000000002</v>
       </c>
       <c r="G9" s="8">
-        <v>4.8673099999999998</v>
+        <v>4.0498200000000004</v>
       </c>
       <c r="H9" s="9">
-        <v>0.10717</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="I9" s="18">
-        <v>1.6011599999999999</v>
+        <v>1.6721600000000001</v>
       </c>
       <c r="J9" s="8">
-        <v>1.6447799999999999</v>
+        <v>1.69259</v>
       </c>
       <c r="K9" s="8">
-        <v>1.6398299999999999</v>
+        <v>1.6778299999999999</v>
       </c>
       <c r="L9" s="22">
-        <v>3.9199999999999999E-3</v>
+        <v>7.9699999999999997E-3</v>
       </c>
       <c r="M9" s="7">
-        <v>4.3118100000000004</v>
+        <v>4.9040999999999997</v>
       </c>
       <c r="N9" s="8">
-        <v>4.3194400000000002</v>
+        <v>5.1459400000000004</v>
       </c>
       <c r="O9" s="8">
-        <v>4.3141100000000003</v>
+        <v>5.0134600000000002</v>
       </c>
       <c r="P9" s="9">
-        <v>9.8999999999999999E-4</v>
+        <v>7.3359999999999995E-2</v>
       </c>
       <c r="Q9" s="18">
-        <v>7.1109799999999996</v>
+        <v>7.0624799999999999</v>
       </c>
       <c r="R9" s="8">
-        <v>7.1169200000000004</v>
+        <v>7.0724299999999998</v>
       </c>
       <c r="S9" s="8">
-        <v>7.1167999999999996</v>
+        <v>7.0676800000000002</v>
       </c>
       <c r="T9" s="9">
-        <v>8.3000000000000001E-4</v>
+        <v>3.0200000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -3325,52 +4349,52 @@
         <v>100</v>
       </c>
       <c r="E10" s="7">
-        <v>5.8129400000000002</v>
+        <v>4.8343100000000003</v>
       </c>
       <c r="F10" s="8">
-        <v>5.8166500000000001</v>
+        <v>5.0566800000000001</v>
       </c>
       <c r="G10" s="8">
-        <v>5.8144499999999999</v>
+        <v>4.8366400000000001</v>
       </c>
       <c r="H10" s="9">
-        <v>5.4000000000000001E-4</v>
+        <v>2.213E-2</v>
       </c>
       <c r="I10" s="18">
-        <v>1.58602</v>
+        <v>1.3935200000000001</v>
       </c>
       <c r="J10" s="8">
-        <v>1.6061000000000001</v>
+        <v>1.3935200000000001</v>
       </c>
       <c r="K10" s="8">
-        <v>1.5911</v>
+        <v>1.3935200000000001</v>
       </c>
       <c r="L10" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>4.3299200000000004</v>
+        <v>4.31088</v>
       </c>
       <c r="N10" s="8">
-        <v>4.5723399999999996</v>
+        <v>4.3121400000000003</v>
       </c>
       <c r="O10" s="8">
-        <v>4.3330000000000002</v>
+        <v>4.3120099999999999</v>
       </c>
       <c r="P10" s="9">
-        <v>2.4910000000000002E-2</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="Q10" s="18">
-        <v>7.0818599999999998</v>
+        <v>7.1184099999999999</v>
       </c>
       <c r="R10" s="8">
-        <v>7.1231</v>
+        <v>7.6154099999999998</v>
       </c>
       <c r="S10" s="8">
-        <v>7.0865299999999998</v>
+        <v>7.1336300000000001</v>
       </c>
       <c r="T10" s="9">
-        <v>6.1999999999999998E-3</v>
+        <v>6.5420000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1">
@@ -3382,49 +4406,49 @@
         <v>250</v>
       </c>
       <c r="E11" s="24">
-        <v>3.6785899999999998</v>
+        <v>4.0576600000000003</v>
       </c>
       <c r="F11" s="25">
-        <v>3.6785899999999998</v>
+        <v>4.7495200000000004</v>
       </c>
       <c r="G11" s="25">
-        <v>3.6785899999999998</v>
+        <v>4.0721100000000003</v>
       </c>
       <c r="H11" s="26">
-        <v>0</v>
+        <v>6.9540000000000005E-2</v>
       </c>
       <c r="I11" s="27">
-        <v>1.6431100000000001</v>
+        <v>1.5241499999999999</v>
       </c>
       <c r="J11" s="25">
-        <v>1.64453</v>
+        <v>1.5242599999999999</v>
       </c>
       <c r="K11" s="25">
-        <v>1.64388</v>
+        <v>1.5242100000000001</v>
       </c>
       <c r="L11" s="28">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="M11" s="24">
-        <v>4.3828399999999998</v>
+        <v>4.4191700000000003</v>
       </c>
       <c r="N11" s="25">
-        <v>4.42</v>
+        <v>4.41927</v>
       </c>
       <c r="O11" s="25">
-        <v>4.3900499999999996</v>
+        <v>4.4192499999999999</v>
       </c>
       <c r="P11" s="26">
-        <v>1.323E-2</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="Q11" s="27">
-        <v>7.0509399999999998</v>
+        <v>7.0064200000000003</v>
       </c>
       <c r="R11" s="25">
-        <v>7.0509399999999998</v>
+        <v>7.0064200000000003</v>
       </c>
       <c r="S11" s="25">
-        <v>7.0509399999999998</v>
+        <v>7.0064200000000003</v>
       </c>
       <c r="T11" s="26">
         <v>0</v>
@@ -3437,52 +4461,52 @@
         <v>20</v>
       </c>
       <c r="E12" s="4">
-        <v>5.04528</v>
+        <v>5.3399299999999998</v>
       </c>
       <c r="F12" s="5">
-        <v>5.3475900000000003</v>
+        <v>5.6481700000000004</v>
       </c>
       <c r="G12" s="5">
-        <v>5.1490400000000003</v>
+        <v>5.55002</v>
       </c>
       <c r="H12" s="6">
-        <v>6.8239999999999995E-2</v>
+        <v>5.7119999999999997E-2</v>
       </c>
       <c r="I12" s="17">
-        <v>1.45977</v>
+        <v>1.5423</v>
       </c>
       <c r="J12" s="5">
-        <v>1.9830300000000001</v>
+        <v>1.6991799999999999</v>
       </c>
       <c r="K12" s="5">
-        <v>1.64947</v>
+        <v>1.64022</v>
       </c>
       <c r="L12" s="21">
-        <v>9.7059999999999994E-2</v>
+        <v>3.7449999999999997E-2</v>
       </c>
       <c r="M12" s="4">
-        <v>4.8218399999999999</v>
+        <v>4.5678200000000002</v>
       </c>
       <c r="N12" s="5">
-        <v>5.3771000000000004</v>
+        <v>5.3767800000000001</v>
       </c>
       <c r="O12" s="5">
-        <v>5.0471300000000001</v>
+        <v>4.6834600000000002</v>
       </c>
       <c r="P12" s="6">
-        <v>0.13400000000000001</v>
+        <v>0.13028999999999999</v>
       </c>
       <c r="Q12" s="17">
-        <v>7.1345099999999997</v>
+        <v>7.29061</v>
       </c>
       <c r="R12" s="5">
-        <v>7.2616100000000001</v>
+        <v>7.6695399999999996</v>
       </c>
       <c r="S12" s="5">
-        <v>7.2085699999999999</v>
+        <v>7.4856299999999996</v>
       </c>
       <c r="T12" s="6">
-        <v>2.5739999999999999E-2</v>
+        <v>9.5530000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -3492,52 +4516,52 @@
         <v>50</v>
       </c>
       <c r="E13" s="7">
-        <v>4.4726299999999997</v>
+        <v>4.1098600000000003</v>
       </c>
       <c r="F13" s="8">
-        <v>4.4981400000000002</v>
+        <v>4.2222400000000002</v>
       </c>
       <c r="G13" s="8">
-        <v>4.4919799999999999</v>
+        <v>4.1809099999999999</v>
       </c>
       <c r="H13" s="9">
-        <v>5.0499999999999998E-3</v>
+        <v>2.613E-2</v>
       </c>
       <c r="I13" s="18">
-        <v>1.21495</v>
+        <v>1.4998899999999999</v>
       </c>
       <c r="J13" s="8">
-        <v>1.2660899999999999</v>
+        <v>1.8000499999999999</v>
       </c>
       <c r="K13" s="8">
-        <v>1.2537400000000001</v>
+        <v>1.50166</v>
       </c>
       <c r="L13" s="22">
-        <v>6.94E-3</v>
+        <v>2.121E-2</v>
       </c>
       <c r="M13" s="7">
-        <v>4.3579400000000001</v>
+        <v>4.3820600000000001</v>
       </c>
       <c r="N13" s="8">
-        <v>4.36029</v>
+        <v>4.3820600000000001</v>
       </c>
       <c r="O13" s="8">
-        <v>4.3589099999999998</v>
+        <v>4.3820600000000001</v>
       </c>
       <c r="P13" s="9">
-        <v>9.6000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="18">
-        <v>7.0756399999999999</v>
+        <v>7.0463300000000002</v>
       </c>
       <c r="R13" s="8">
-        <v>7.0930200000000001</v>
+        <v>7.13992</v>
       </c>
       <c r="S13" s="8">
-        <v>7.0821199999999997</v>
+        <v>7.04758</v>
       </c>
       <c r="T13" s="9">
-        <v>4.3800000000000002E-3</v>
+        <v>7.2399999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -3549,52 +4573,52 @@
         <v>100</v>
       </c>
       <c r="E14" s="7">
-        <v>3.9960599999999999</v>
+        <v>5.3002700000000003</v>
       </c>
       <c r="F14" s="8">
-        <v>4.2361000000000004</v>
+        <v>5.3269799999999998</v>
       </c>
       <c r="G14" s="8">
-        <v>3.9976500000000001</v>
+        <v>5.3027300000000004</v>
       </c>
       <c r="H14" s="9">
-        <v>1.7059999999999999E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I14" s="18">
-        <v>1.3939999999999999</v>
+        <v>1.32304</v>
       </c>
       <c r="J14" s="8">
-        <v>1.39608</v>
+        <v>1.32304</v>
       </c>
       <c r="K14" s="8">
-        <v>1.3952500000000001</v>
+        <v>1.32304</v>
       </c>
       <c r="L14" s="22">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>4.3122499999999997</v>
+        <v>4.31839</v>
       </c>
       <c r="N14" s="8">
-        <v>4.3129999999999997</v>
+        <v>4.3196399999999997</v>
       </c>
       <c r="O14" s="8">
-        <v>4.3128099999999998</v>
+        <v>4.3190200000000001</v>
       </c>
       <c r="P14" s="9">
-        <v>1.1E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="Q14" s="18">
-        <v>7.1620200000000001</v>
+        <v>6.9912599999999996</v>
       </c>
       <c r="R14" s="8">
-        <v>7.1785699999999997</v>
+        <v>7.0698600000000003</v>
       </c>
       <c r="S14" s="8">
-        <v>7.1782000000000004</v>
+        <v>6.9944800000000003</v>
       </c>
       <c r="T14" s="9">
-        <v>1.65E-3</v>
+        <v>8.9700000000000005E-3</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
@@ -3604,52 +4628,52 @@
         <v>250</v>
       </c>
       <c r="E15" s="24">
-        <v>3.7057000000000002</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="F15" s="25">
-        <v>3.7167400000000002</v>
+        <v>5.2712700000000003</v>
       </c>
       <c r="G15" s="25">
-        <v>3.7160299999999999</v>
+        <v>5.2711800000000002</v>
       </c>
       <c r="H15" s="26">
-        <v>2.7200000000000002E-3</v>
+        <v>1.2E-4</v>
       </c>
       <c r="I15" s="27">
-        <v>1.31332</v>
+        <v>1.2245699999999999</v>
       </c>
       <c r="J15" s="25">
-        <v>1.31429</v>
+        <v>1.2245699999999999</v>
       </c>
       <c r="K15" s="25">
-        <v>1.3133600000000001</v>
+        <v>1.2245699999999999</v>
       </c>
       <c r="L15" s="28">
-        <v>9.0000000000000006E-5</v>
+        <v>0</v>
       </c>
       <c r="M15" s="24">
-        <v>4.3128900000000003</v>
+        <v>4.3048400000000004</v>
       </c>
       <c r="N15" s="25">
-        <v>4.3129400000000002</v>
+        <v>4.7384599999999999</v>
       </c>
       <c r="O15" s="25">
-        <v>4.3129400000000002</v>
+        <v>4.3083</v>
       </c>
       <c r="P15" s="26">
-        <v>1.0000000000000001E-5</v>
+        <v>3.3680000000000002E-2</v>
       </c>
       <c r="Q15" s="27">
-        <v>7.0358900000000002</v>
+        <v>6.9982199999999999</v>
       </c>
       <c r="R15" s="25">
-        <v>7.0358900000000002</v>
+        <v>7.1138000000000003</v>
       </c>
       <c r="S15" s="25">
-        <v>7.0358900000000002</v>
+        <v>7.0000400000000003</v>
       </c>
       <c r="T15" s="26">
-        <v>0</v>
+        <v>1.001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20">
@@ -3659,52 +4683,52 @@
         <v>20</v>
       </c>
       <c r="E16" s="4">
-        <v>4.3588399999999998</v>
+        <v>4.5548799999999998</v>
       </c>
       <c r="F16" s="5">
-        <v>5.0280899999999997</v>
+        <v>5.7711699999999997</v>
       </c>
       <c r="G16" s="5">
-        <v>4.6608599999999996</v>
+        <v>4.9250999999999996</v>
       </c>
       <c r="H16" s="6">
-        <v>0.12554000000000001</v>
+        <v>0.23702000000000001</v>
       </c>
       <c r="I16" s="17">
-        <v>1.4201299999999999</v>
+        <v>1.4138999999999999</v>
       </c>
       <c r="J16" s="5">
-        <v>1.7423999999999999</v>
+        <v>1.6192299999999999</v>
       </c>
       <c r="K16" s="5">
-        <v>1.56551</v>
+        <v>1.49352</v>
       </c>
       <c r="L16" s="21">
-        <v>5.0389999999999997E-2</v>
+        <v>3.8129999999999997E-2</v>
       </c>
       <c r="M16" s="4">
-        <v>4.3309800000000003</v>
+        <v>4.3350200000000001</v>
       </c>
       <c r="N16" s="5">
-        <v>5.7066999999999997</v>
+        <v>4.9478600000000004</v>
       </c>
       <c r="O16" s="5">
-        <v>4.8270400000000002</v>
+        <v>4.5494500000000002</v>
       </c>
       <c r="P16" s="6">
-        <v>0.29448000000000002</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="Q16" s="17">
-        <v>7.1901200000000003</v>
+        <v>7.1561000000000003</v>
       </c>
       <c r="R16" s="5">
-        <v>7.5093300000000003</v>
+        <v>7.4490299999999996</v>
       </c>
       <c r="S16" s="5">
-        <v>7.2800700000000003</v>
+        <v>7.2811500000000002</v>
       </c>
       <c r="T16" s="6">
-        <v>6.5329999999999999E-2</v>
+        <v>5.0410000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:20">
@@ -3714,52 +4738,52 @@
         <v>50</v>
       </c>
       <c r="E17" s="7">
-        <v>3.8504100000000001</v>
+        <v>3.76152</v>
       </c>
       <c r="F17" s="8">
-        <v>3.9430100000000001</v>
+        <v>3.77624</v>
       </c>
       <c r="G17" s="8">
-        <v>3.8899599999999999</v>
+        <v>3.7717000000000001</v>
       </c>
       <c r="H17" s="9">
-        <v>3.0810000000000001E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="I17" s="18">
-        <v>1.2259199999999999</v>
+        <v>1.2660800000000001</v>
       </c>
       <c r="J17" s="8">
-        <v>1.2470699999999999</v>
+        <v>1.28366</v>
       </c>
       <c r="K17" s="8">
-        <v>1.2396</v>
+        <v>1.27989</v>
       </c>
       <c r="L17" s="22">
-        <v>3.14E-3</v>
+        <v>2.6700000000000001E-3</v>
       </c>
       <c r="M17" s="7">
-        <v>4.3150399999999998</v>
+        <v>4.3115800000000002</v>
       </c>
       <c r="N17" s="8">
-        <v>4.3157399999999999</v>
+        <v>4.31271</v>
       </c>
       <c r="O17" s="8">
-        <v>4.3155200000000002</v>
+        <v>4.3123399999999998</v>
       </c>
       <c r="P17" s="9">
-        <v>1.2E-4</v>
+        <v>2.9E-4</v>
       </c>
       <c r="Q17" s="18">
-        <v>6.9926599999999999</v>
+        <v>6.9918500000000003</v>
       </c>
       <c r="R17" s="8">
-        <v>7.0074100000000001</v>
+        <v>7.0004</v>
       </c>
       <c r="S17" s="8">
-        <v>7.0008900000000001</v>
+        <v>6.9952899999999998</v>
       </c>
       <c r="T17" s="9">
-        <v>2.6700000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -3771,52 +4795,52 @@
         <v>100</v>
       </c>
       <c r="E18" s="7">
-        <v>3.6245599999999998</v>
+        <v>4.27067</v>
       </c>
       <c r="F18" s="8">
-        <v>3.62608</v>
+        <v>4.3313499999999996</v>
       </c>
       <c r="G18" s="8">
-        <v>3.62588</v>
+        <v>4.29087</v>
       </c>
       <c r="H18" s="9">
-        <v>1.6000000000000001E-4</v>
+        <v>9.0200000000000002E-3</v>
       </c>
       <c r="I18" s="18">
-        <v>1.4495800000000001</v>
+        <v>1.34781</v>
       </c>
       <c r="J18" s="8">
-        <v>1.4523200000000001</v>
+        <v>1.35429</v>
       </c>
       <c r="K18" s="8">
-        <v>1.45007</v>
+        <v>1.3523400000000001</v>
       </c>
       <c r="L18" s="22">
-        <v>3.1E-4</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="M18" s="7">
-        <v>4.3099600000000002</v>
+        <v>4.3172100000000002</v>
       </c>
       <c r="N18" s="8">
-        <v>4.3102799999999997</v>
+        <v>4.31724</v>
       </c>
       <c r="O18" s="8">
-        <v>4.3101599999999998</v>
+        <v>4.3172300000000003</v>
       </c>
       <c r="P18" s="9">
-        <v>1.6000000000000001E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q18" s="18">
-        <v>6.97682</v>
+        <v>7.0212399999999997</v>
       </c>
       <c r="R18" s="8">
-        <v>7.0294299999999996</v>
+        <v>7.0631199999999996</v>
       </c>
       <c r="S18" s="8">
-        <v>6.9791600000000003</v>
+        <v>7.0240900000000002</v>
       </c>
       <c r="T18" s="9">
-        <v>4.2500000000000003E-3</v>
+        <v>2.49E-3</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1">
@@ -3826,52 +4850,52 @@
         <v>250</v>
       </c>
       <c r="E19" s="10">
-        <v>3.7179099999999998</v>
+        <v>3.8198799999999999</v>
       </c>
       <c r="F19" s="11">
-        <v>3.7179199999999999</v>
+        <v>3.8464299999999998</v>
       </c>
       <c r="G19" s="11">
-        <v>3.7179099999999998</v>
+        <v>3.8207300000000002</v>
       </c>
       <c r="H19" s="12">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1.2429699999999999</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.36612</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.24353</v>
+      </c>
+      <c r="L19" s="23">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="M19" s="10">
+        <v>4.3050199999999998</v>
+      </c>
+      <c r="N19" s="11">
+        <v>4.3050199999999998</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4.3050199999999998</v>
+      </c>
+      <c r="P19" s="12">
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>1.1667799999999999</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1.3599000000000001</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1.1691</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1.8870000000000001E-2</v>
-      </c>
-      <c r="M19" s="10">
-        <v>4.3056799999999997</v>
-      </c>
-      <c r="N19" s="11">
-        <v>4.3072999999999997</v>
-      </c>
-      <c r="O19" s="11">
-        <v>4.3056799999999997</v>
-      </c>
-      <c r="P19" s="12">
-        <v>8.0000000000000007E-5</v>
-      </c>
       <c r="Q19" s="19">
-        <v>6.9609100000000002</v>
+        <v>6.9721900000000003</v>
       </c>
       <c r="R19" s="11">
-        <v>6.9610000000000003</v>
+        <v>6.9725999999999999</v>
       </c>
       <c r="S19" s="11">
-        <v>6.9609500000000004</v>
+        <v>6.9725900000000003</v>
       </c>
       <c r="T19" s="12">
-        <v>2.0000000000000002E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="20" spans="2:20">
@@ -3881,52 +4905,52 @@
         <v>20</v>
       </c>
       <c r="E20" s="4">
-        <v>13.11402</v>
+        <v>9.0756899999999998</v>
       </c>
       <c r="F20" s="5">
-        <v>14.225680000000001</v>
+        <v>10.454549999999999</v>
       </c>
       <c r="G20" s="5">
-        <v>13.89715</v>
+        <v>10.198370000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>0.26057000000000002</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I20" s="17">
-        <v>3.7111999999999998</v>
+        <v>2.6342599999999998</v>
       </c>
       <c r="J20" s="5">
-        <v>3.9493800000000001</v>
+        <v>2.9765600000000001</v>
       </c>
       <c r="K20" s="5">
-        <v>3.9025500000000002</v>
+        <v>2.9416199999999999</v>
       </c>
       <c r="L20" s="21">
-        <v>4.582E-2</v>
+        <v>4.8009999999999997E-2</v>
       </c>
       <c r="M20" s="4">
-        <v>13.5825</v>
+        <v>12.80359</v>
       </c>
       <c r="N20" s="5">
-        <v>15.13381</v>
+        <v>13.045529999999999</v>
       </c>
       <c r="O20" s="5">
-        <v>14.17468</v>
+        <v>12.81423</v>
       </c>
       <c r="P20" s="6">
-        <v>0.49</v>
+        <v>3.798E-2</v>
       </c>
       <c r="Q20" s="17">
-        <v>9.5425799999999992</v>
+        <v>10.79734</v>
       </c>
       <c r="R20" s="5">
-        <v>10.02932</v>
+        <v>11.26238</v>
       </c>
       <c r="S20" s="5">
-        <v>9.8751499999999997</v>
+        <v>10.98803</v>
       </c>
       <c r="T20" s="6">
-        <v>0.1545</v>
+        <v>0.11971</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -3936,52 +4960,52 @@
         <v>50</v>
       </c>
       <c r="E21" s="7">
-        <v>9.8553800000000003</v>
+        <v>9.1212199999999992</v>
       </c>
       <c r="F21" s="8">
-        <v>10.385149999999999</v>
+        <v>9.36416</v>
       </c>
       <c r="G21" s="8">
-        <v>10.2881</v>
+        <v>9.2667699999999993</v>
       </c>
       <c r="H21" s="9">
-        <v>0.14477000000000001</v>
+        <v>0.11878</v>
       </c>
       <c r="I21" s="18">
-        <v>2.6593499999999999</v>
+        <v>2.8495499999999998</v>
       </c>
       <c r="J21" s="8">
-        <v>2.8014299999999999</v>
+        <v>3.0063900000000001</v>
       </c>
       <c r="K21" s="8">
-        <v>2.7805900000000001</v>
+        <v>2.86225</v>
       </c>
       <c r="L21" s="22">
-        <v>3.6819999999999999E-2</v>
+        <v>2.3630000000000002E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>7.5010199999999996</v>
+        <v>9.1826399999999992</v>
       </c>
       <c r="N21" s="8">
-        <v>8.2893699999999999</v>
+        <v>9.1835400000000007</v>
       </c>
       <c r="O21" s="8">
-        <v>8.1006900000000002</v>
+        <v>9.1834799999999994</v>
       </c>
       <c r="P21" s="9">
-        <v>0.23411999999999999</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="Q21" s="18">
-        <v>8.3377700000000008</v>
+        <v>8.8634199999999996</v>
       </c>
       <c r="R21" s="8">
-        <v>8.5512800000000002</v>
+        <v>8.9470200000000002</v>
       </c>
       <c r="S21" s="8">
-        <v>8.4613300000000002</v>
+        <v>8.9055599999999995</v>
       </c>
       <c r="T21" s="9">
-        <v>4.9450000000000001E-2</v>
+        <v>2.4209999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="2:20">
@@ -3993,52 +5017,52 @@
         <v>100</v>
       </c>
       <c r="E22" s="7">
-        <v>7.6700200000000001</v>
+        <v>7.3029799999999998</v>
       </c>
       <c r="F22" s="8">
-        <v>7.8457499999999998</v>
+        <v>7.6247600000000002</v>
       </c>
       <c r="G22" s="8">
-        <v>7.7813499999999998</v>
+        <v>7.5655000000000001</v>
       </c>
       <c r="H22" s="9">
-        <v>5.7750000000000003E-2</v>
+        <v>0.11589000000000001</v>
       </c>
       <c r="I22" s="18">
-        <v>2.5218600000000002</v>
+        <v>2.4167299999999998</v>
       </c>
       <c r="J22" s="8">
-        <v>2.5686599999999999</v>
+        <v>2.8454899999999999</v>
       </c>
       <c r="K22" s="8">
-        <v>2.56582</v>
+        <v>2.4699499999999999</v>
       </c>
       <c r="L22" s="22">
-        <v>1.111E-2</v>
+        <v>6.565E-2</v>
       </c>
       <c r="M22" s="7">
-        <v>8.5473400000000002</v>
+        <v>7.2934000000000001</v>
       </c>
       <c r="N22" s="8">
-        <v>9.7410899999999998</v>
+        <v>7.3037099999999997</v>
       </c>
       <c r="O22" s="8">
-        <v>8.5778700000000008</v>
+        <v>7.3030900000000001</v>
       </c>
       <c r="P22" s="9">
-        <v>0.16838</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="Q22" s="18">
-        <v>8.4149399999999996</v>
+        <v>8.4125099999999993</v>
       </c>
       <c r="R22" s="8">
-        <v>8.4149399999999996</v>
+        <v>8.4358900000000006</v>
       </c>
       <c r="S22" s="8">
-        <v>8.4149399999999996</v>
+        <v>8.4162499999999998</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>8.5699999999999995E-3</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1">
@@ -4048,52 +5072,52 @@
         <v>250</v>
       </c>
       <c r="E23" s="24">
-        <v>7.4081099999999998</v>
+        <v>5.9764600000000003</v>
       </c>
       <c r="F23" s="25">
-        <v>7.4361899999999999</v>
+        <v>5.9764600000000003</v>
       </c>
       <c r="G23" s="25">
-        <v>7.4095000000000004</v>
+        <v>5.9764600000000003</v>
       </c>
       <c r="H23" s="26">
-        <v>5.5500000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="27">
-        <v>1.6568000000000001</v>
+        <v>1.9069100000000001</v>
       </c>
       <c r="J23" s="25">
-        <v>1.6607700000000001</v>
+        <v>1.91489</v>
       </c>
       <c r="K23" s="25">
-        <v>1.66045</v>
+        <v>1.91225</v>
       </c>
       <c r="L23" s="28">
-        <v>1.08E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="M23" s="24">
-        <v>5.4358700000000004</v>
+        <v>6.5014799999999999</v>
       </c>
       <c r="N23" s="25">
-        <v>5.9384699999999997</v>
+        <v>6.5014799999999999</v>
       </c>
       <c r="O23" s="25">
-        <v>5.4543999999999997</v>
+        <v>6.5014799999999999</v>
       </c>
       <c r="P23" s="26">
-        <v>7.2520000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="27">
-        <v>8.2914700000000003</v>
+        <v>7.6032700000000002</v>
       </c>
       <c r="R23" s="25">
-        <v>8.4804399999999998</v>
+        <v>7.6035899999999996</v>
       </c>
       <c r="S23" s="25">
-        <v>8.3052100000000006</v>
+        <v>7.6035500000000003</v>
       </c>
       <c r="T23" s="26">
-        <v>3.0110000000000001E-2</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="24" spans="2:20">
@@ -4103,52 +5127,52 @@
         <v>20</v>
       </c>
       <c r="E24" s="4">
-        <v>10.116009999999999</v>
+        <v>10.61992</v>
       </c>
       <c r="F24" s="5">
-        <v>11.531470000000001</v>
+        <v>12.738899999999999</v>
       </c>
       <c r="G24" s="5">
-        <v>10.92008</v>
+        <v>11.5886</v>
       </c>
       <c r="H24" s="6">
-        <v>0.26543</v>
+        <v>0.42786999999999997</v>
       </c>
       <c r="I24" s="17">
-        <v>2.72715</v>
+        <v>4.0296000000000003</v>
       </c>
       <c r="J24" s="5">
-        <v>3.2406999999999999</v>
+        <v>4.4671000000000003</v>
       </c>
       <c r="K24" s="5">
-        <v>3.0016099999999999</v>
+        <v>4.31264</v>
       </c>
       <c r="L24" s="21">
-        <v>0.12164999999999999</v>
+        <v>0.11179</v>
       </c>
       <c r="M24" s="4">
-        <v>10.555680000000001</v>
+        <v>9.78505</v>
       </c>
       <c r="N24" s="5">
-        <v>12.19007</v>
+        <v>10.729150000000001</v>
       </c>
       <c r="O24" s="5">
-        <v>11.24405</v>
+        <v>10.23593</v>
       </c>
       <c r="P24" s="6">
-        <v>0.36046</v>
+        <v>0.27393000000000001</v>
       </c>
       <c r="Q24" s="17">
-        <v>8.7826799999999992</v>
+        <v>8.9058299999999999</v>
       </c>
       <c r="R24" s="5">
-        <v>9.5688700000000004</v>
+        <v>9.5466800000000003</v>
       </c>
       <c r="S24" s="5">
-        <v>9.2835999999999999</v>
+        <v>9.2888900000000003</v>
       </c>
       <c r="T24" s="6">
-        <v>0.15135000000000001</v>
+        <v>0.13100999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -4158,52 +5182,52 @@
         <v>50</v>
       </c>
       <c r="E25" s="7">
-        <v>6.8666900000000002</v>
+        <v>7.8502299999999998</v>
       </c>
       <c r="F25" s="8">
-        <v>7.2865500000000001</v>
+        <v>8.1639499999999998</v>
       </c>
       <c r="G25" s="8">
-        <v>6.9846199999999996</v>
+        <v>8.01356</v>
       </c>
       <c r="H25" s="9">
-        <v>0.10874</v>
+        <v>5.8860000000000003E-2</v>
       </c>
       <c r="I25" s="18">
-        <v>2.6957300000000002</v>
+        <v>2.28613</v>
       </c>
       <c r="J25" s="8">
-        <v>2.9836299999999998</v>
+        <v>2.3172600000000001</v>
       </c>
       <c r="K25" s="8">
-        <v>2.7339899999999999</v>
+        <v>2.3158099999999999</v>
       </c>
       <c r="L25" s="22">
-        <v>4.5569999999999999E-2</v>
+        <v>3.5300000000000002E-3</v>
       </c>
       <c r="M25" s="7">
-        <v>6.95397</v>
+        <v>7.7179099999999998</v>
       </c>
       <c r="N25" s="8">
-        <v>7.0608199999999997</v>
+        <v>8.7057599999999997</v>
       </c>
       <c r="O25" s="8">
-        <v>7.0415299999999998</v>
+        <v>8.3021999999999991</v>
       </c>
       <c r="P25" s="9">
-        <v>2.5250000000000002E-2</v>
+        <v>0.23150999999999999</v>
       </c>
       <c r="Q25" s="18">
-        <v>8.03796</v>
+        <v>7.5380700000000003</v>
       </c>
       <c r="R25" s="8">
-        <v>8.3185699999999994</v>
+        <v>7.6432599999999997</v>
       </c>
       <c r="S25" s="8">
-        <v>8.0726099999999992</v>
+        <v>7.5819900000000002</v>
       </c>
       <c r="T25" s="9">
-        <v>4.2500000000000003E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="2:20">
@@ -4215,52 +5239,52 @@
         <v>100</v>
       </c>
       <c r="E26" s="7">
-        <v>7.5544099999999998</v>
+        <v>5.6490900000000002</v>
       </c>
       <c r="F26" s="8">
-        <v>7.5766600000000004</v>
+        <v>5.7420299999999997</v>
       </c>
       <c r="G26" s="8">
-        <v>7.5752300000000004</v>
+        <v>5.6785100000000002</v>
       </c>
       <c r="H26" s="9">
-        <v>4.7499999999999999E-3</v>
+        <v>2.0209999999999999E-2</v>
       </c>
       <c r="I26" s="18">
-        <v>2.1079599999999998</v>
+        <v>1.9473</v>
       </c>
       <c r="J26" s="8">
-        <v>2.1369500000000001</v>
+        <v>1.9612799999999999</v>
       </c>
       <c r="K26" s="8">
-        <v>2.1237499999999998</v>
+        <v>1.9565999999999999</v>
       </c>
       <c r="L26" s="22">
-        <v>1.4250000000000001E-2</v>
+        <v>6.2199999999999998E-3</v>
       </c>
       <c r="M26" s="7">
-        <v>7.4010899999999999</v>
+        <v>5.9542099999999998</v>
       </c>
       <c r="N26" s="8">
-        <v>7.5889100000000003</v>
+        <v>7.0495599999999996</v>
       </c>
       <c r="O26" s="8">
-        <v>7.5030400000000004</v>
+        <v>6.0245899999999999</v>
       </c>
       <c r="P26" s="9">
-        <v>4.7669999999999997E-2</v>
+        <v>0.12472</v>
       </c>
       <c r="Q26" s="18">
-        <v>7.5428300000000004</v>
+        <v>7.7270399999999997</v>
       </c>
       <c r="R26" s="8">
-        <v>7.5615600000000001</v>
+        <v>8.2134999999999998</v>
       </c>
       <c r="S26" s="8">
-        <v>7.55586</v>
+        <v>7.7452300000000003</v>
       </c>
       <c r="T26" s="9">
-        <v>5.9199999999999999E-3</v>
+        <v>6.4360000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1">
@@ -4272,52 +5296,52 @@
         <v>250</v>
       </c>
       <c r="E27" s="24">
-        <v>6.7403399999999998</v>
+        <v>5.8242900000000004</v>
       </c>
       <c r="F27" s="25">
-        <v>6.8346200000000001</v>
+        <v>6.1620400000000002</v>
       </c>
       <c r="G27" s="25">
-        <v>6.8335900000000001</v>
+        <v>5.8301499999999997</v>
       </c>
       <c r="H27" s="26">
-        <v>9.3699999999999999E-3</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="I27" s="27">
-        <v>1.8139700000000001</v>
+        <v>1.68953</v>
       </c>
       <c r="J27" s="25">
-        <v>1.8209200000000001</v>
+        <v>1.7785299999999999</v>
       </c>
       <c r="K27" s="25">
-        <v>1.81488</v>
+        <v>1.69157</v>
       </c>
       <c r="L27" s="28">
-        <v>2.15E-3</v>
+        <v>1.1939999999999999E-2</v>
       </c>
       <c r="M27" s="24">
-        <v>5.3483799999999997</v>
+        <v>5.3445799999999997</v>
       </c>
       <c r="N27" s="25">
-        <v>5.4207400000000003</v>
+        <v>5.3507699999999998</v>
       </c>
       <c r="O27" s="25">
-        <v>5.40916</v>
+        <v>5.3489199999999997</v>
       </c>
       <c r="P27" s="26">
-        <v>2.6530000000000001E-2</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="Q27" s="27">
-        <v>7.5435100000000004</v>
+        <v>7.32986</v>
       </c>
       <c r="R27" s="25">
-        <v>7.5871700000000004</v>
+        <v>7.3303399999999996</v>
       </c>
       <c r="S27" s="25">
-        <v>7.5456899999999996</v>
+        <v>7.33</v>
       </c>
       <c r="T27" s="26">
-        <v>6.1599999999999997E-3</v>
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="2:20">
@@ -4327,52 +5351,52 @@
         <v>20</v>
       </c>
       <c r="E28" s="4">
-        <v>8.6103799999999993</v>
+        <v>8.2211999999999996</v>
       </c>
       <c r="F28" s="5">
-        <v>11.279310000000001</v>
+        <v>10.31922</v>
       </c>
       <c r="G28" s="5">
-        <v>9.8199500000000004</v>
+        <v>9.3099299999999996</v>
       </c>
       <c r="H28" s="6">
-        <v>0.60516999999999999</v>
+        <v>0.41833999999999999</v>
       </c>
       <c r="I28" s="17">
-        <v>2.7313100000000001</v>
+        <v>2.4380199999999999</v>
       </c>
       <c r="J28" s="5">
-        <v>3.5126599999999999</v>
+        <v>3.2243400000000002</v>
       </c>
       <c r="K28" s="5">
-        <v>3.1707100000000001</v>
+        <v>2.8068399999999998</v>
       </c>
       <c r="L28" s="21">
-        <v>0.16395000000000001</v>
+        <v>0.17865</v>
       </c>
       <c r="M28" s="4">
-        <v>8.65564</v>
+        <v>8.7647899999999996</v>
       </c>
       <c r="N28" s="5">
-        <v>10.55237</v>
+        <v>11.577489999999999</v>
       </c>
       <c r="O28" s="5">
-        <v>9.8421099999999999</v>
+        <v>9.7848799999999994</v>
       </c>
       <c r="P28" s="6">
-        <v>0.32677</v>
+        <v>0.68598000000000003</v>
       </c>
       <c r="Q28" s="17">
-        <v>9.1842699999999997</v>
+        <v>8.2527000000000008</v>
       </c>
       <c r="R28" s="5">
-        <v>9.86233</v>
+        <v>9.1449099999999994</v>
       </c>
       <c r="S28" s="5">
-        <v>9.5302100000000003</v>
+        <v>8.6752000000000002</v>
       </c>
       <c r="T28" s="6">
-        <v>0.16785</v>
+        <v>0.21407999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:20">
@@ -4382,52 +5406,52 @@
         <v>50</v>
       </c>
       <c r="E29" s="7">
-        <v>6.7534000000000001</v>
+        <v>6.92971</v>
       </c>
       <c r="F29" s="8">
-        <v>6.8676899999999996</v>
+        <v>7.3562000000000003</v>
       </c>
       <c r="G29" s="8">
-        <v>6.7742000000000004</v>
+        <v>7.1185900000000002</v>
       </c>
       <c r="H29" s="9">
-        <v>2.7560000000000001E-2</v>
+        <v>7.9380000000000006E-2</v>
       </c>
       <c r="I29" s="18">
-        <v>2.0889700000000002</v>
+        <v>2.0440100000000001</v>
       </c>
       <c r="J29" s="8">
-        <v>2.4012099999999998</v>
+        <v>2.1782300000000001</v>
       </c>
       <c r="K29" s="8">
-        <v>2.29067</v>
+        <v>2.1103299999999998</v>
       </c>
       <c r="L29" s="22">
-        <v>7.1859999999999993E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="M29" s="7">
-        <v>7.2609700000000004</v>
+        <v>6.5831</v>
       </c>
       <c r="N29" s="8">
-        <v>7.5395399999999997</v>
+        <v>7.3029900000000003</v>
       </c>
       <c r="O29" s="8">
-        <v>7.3803900000000002</v>
+        <v>6.8995100000000003</v>
       </c>
       <c r="P29" s="9">
-        <v>7.4740000000000001E-2</v>
+        <v>0.12941</v>
       </c>
       <c r="Q29" s="18">
-        <v>7.4215999999999998</v>
+        <v>7.7490699999999997</v>
       </c>
       <c r="R29" s="8">
-        <v>7.50101</v>
+        <v>7.8490700000000002</v>
       </c>
       <c r="S29" s="8">
-        <v>7.4437300000000004</v>
+        <v>7.7774599999999996</v>
       </c>
       <c r="T29" s="9">
-        <v>1.8519999999999998E-2</v>
+        <v>1.7590000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="2:20">
@@ -4439,52 +5463,52 @@
         <v>100</v>
       </c>
       <c r="E30" s="7">
-        <v>6.2360300000000004</v>
+        <v>6.1019199999999998</v>
       </c>
       <c r="F30" s="8">
-        <v>6.2559899999999997</v>
+        <v>6.4554499999999999</v>
       </c>
       <c r="G30" s="8">
-        <v>6.2544199999999996</v>
+        <v>6.1226200000000004</v>
       </c>
       <c r="H30" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3.7929999999999998E-2</v>
       </c>
       <c r="I30" s="18">
-        <v>1.7819199999999999</v>
+        <v>1.8266</v>
       </c>
       <c r="J30" s="8">
-        <v>1.83507</v>
+        <v>1.8986000000000001</v>
       </c>
       <c r="K30" s="8">
-        <v>1.80559</v>
+        <v>1.83283</v>
       </c>
       <c r="L30" s="22">
-        <v>1.1509999999999999E-2</v>
+        <v>1.018E-2</v>
       </c>
       <c r="M30" s="7">
-        <v>6.5736600000000003</v>
+        <v>5.9592400000000003</v>
       </c>
       <c r="N30" s="8">
-        <v>7.1259499999999996</v>
+        <v>5.9607099999999997</v>
       </c>
       <c r="O30" s="8">
-        <v>6.6342600000000003</v>
+        <v>5.9602700000000004</v>
       </c>
       <c r="P30" s="9">
-        <v>5.5550000000000002E-2</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="Q30" s="18">
-        <v>7.4658300000000004</v>
+        <v>7.3248300000000004</v>
       </c>
       <c r="R30" s="8">
-        <v>7.5032899999999998</v>
+        <v>7.3891999999999998</v>
       </c>
       <c r="S30" s="8">
-        <v>7.4783299999999997</v>
+        <v>7.3323700000000001</v>
       </c>
       <c r="T30" s="9">
-        <v>6.6400000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1">
@@ -4494,52 +5518,52 @@
         <v>250</v>
       </c>
       <c r="E31" s="24">
-        <v>4.8987400000000001</v>
+        <v>5.2433800000000002</v>
       </c>
       <c r="F31" s="25">
-        <v>4.9245799999999997</v>
+        <v>5.2536199999999997</v>
       </c>
       <c r="G31" s="25">
-        <v>4.9000199999999996</v>
+        <v>5.2434599999999998</v>
       </c>
       <c r="H31" s="26">
-        <v>1.75E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="I31" s="27">
-        <v>1.9707399999999999</v>
+        <v>1.8105899999999999</v>
       </c>
       <c r="J31" s="25">
-        <v>2.0200999999999998</v>
+        <v>1.8225100000000001</v>
       </c>
       <c r="K31" s="25">
-        <v>1.9710099999999999</v>
+        <v>1.8220499999999999</v>
       </c>
       <c r="L31" s="28">
-        <v>3.5000000000000001E-3</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="M31" s="24">
-        <v>5.2103099999999998</v>
+        <v>6.0563700000000003</v>
       </c>
       <c r="N31" s="25">
-        <v>5.2278700000000002</v>
+        <v>6.0563700000000003</v>
       </c>
       <c r="O31" s="25">
-        <v>5.2126900000000003</v>
+        <v>6.0563700000000003</v>
       </c>
       <c r="P31" s="26">
-        <v>3.49E-3</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="27">
-        <v>7.6778500000000003</v>
+        <v>7.2400900000000004</v>
       </c>
       <c r="R31" s="25">
-        <v>7.68546</v>
+        <v>7.2403399999999998</v>
       </c>
       <c r="S31" s="25">
-        <v>7.6780999999999997</v>
+        <v>7.24017</v>
       </c>
       <c r="T31" s="26">
-        <v>7.5000000000000002E-4</v>
+        <v>1.2E-4</v>
       </c>
     </row>
     <row r="32" spans="2:20">
@@ -4549,52 +5573,52 @@
         <v>20</v>
       </c>
       <c r="E32" s="4">
-        <v>8.2036499999999997</v>
+        <v>7.4524499999999998</v>
       </c>
       <c r="F32" s="5">
-        <v>11.4236</v>
+        <v>9.7545800000000007</v>
       </c>
       <c r="G32" s="5">
-        <v>9.8218399999999999</v>
+        <v>8.7319300000000002</v>
       </c>
       <c r="H32" s="6">
-        <v>0.64415</v>
+        <v>0.43117</v>
       </c>
       <c r="I32" s="17">
-        <v>2.7564600000000001</v>
+        <v>2.6806999999999999</v>
       </c>
       <c r="J32" s="5">
-        <v>4.0212000000000003</v>
+        <v>3.9073799999999999</v>
       </c>
       <c r="K32" s="5">
-        <v>3.3329499999999999</v>
+        <v>3.2980399999999999</v>
       </c>
       <c r="L32" s="21">
-        <v>0.27100000000000002</v>
+        <v>0.25689000000000001</v>
       </c>
       <c r="M32" s="4">
-        <v>7.7775100000000004</v>
+        <v>8.1683199999999996</v>
       </c>
       <c r="N32" s="5">
-        <v>10.847020000000001</v>
+        <v>11.559150000000001</v>
       </c>
       <c r="O32" s="5">
-        <v>9.3369400000000002</v>
+        <v>9.7970199999999998</v>
       </c>
       <c r="P32" s="6">
-        <v>0.61967000000000005</v>
+        <v>0.75019000000000002</v>
       </c>
       <c r="Q32" s="17">
-        <v>7.9524400000000002</v>
+        <v>8.2269799999999993</v>
       </c>
       <c r="R32" s="5">
-        <v>9.0039499999999997</v>
+        <v>9.2728400000000004</v>
       </c>
       <c r="S32" s="5">
-        <v>8.5348400000000009</v>
+        <v>8.7838899999999995</v>
       </c>
       <c r="T32" s="6">
-        <v>0.20607</v>
+        <v>0.21057000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:20">
@@ -4604,52 +5628,52 @@
         <v>50</v>
       </c>
       <c r="E33" s="7">
-        <v>6.3113000000000001</v>
+        <v>5.6317199999999996</v>
       </c>
       <c r="F33" s="8">
-        <v>6.5526900000000001</v>
+        <v>5.7800900000000004</v>
       </c>
       <c r="G33" s="8">
-        <v>6.3933</v>
+        <v>5.7151399999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>5.4350000000000002E-2</v>
+        <v>2.9729999999999999E-2</v>
       </c>
       <c r="I33" s="18">
-        <v>2.20818</v>
+        <v>2.0636700000000001</v>
       </c>
       <c r="J33" s="8">
-        <v>2.3451499999999998</v>
+        <v>2.12642</v>
       </c>
       <c r="K33" s="8">
-        <v>2.2400199999999999</v>
+        <v>2.0792199999999998</v>
       </c>
       <c r="L33" s="22">
-        <v>1.341E-2</v>
+        <v>4.2300000000000003E-3</v>
       </c>
       <c r="M33" s="7">
-        <v>5.2359600000000004</v>
+        <v>5.9617599999999999</v>
       </c>
       <c r="N33" s="8">
-        <v>5.5154399999999999</v>
+        <v>6.1757999999999997</v>
       </c>
       <c r="O33" s="8">
-        <v>5.3890599999999997</v>
+        <v>6.0216200000000004</v>
       </c>
       <c r="P33" s="9">
-        <v>5.3699999999999998E-2</v>
+        <v>4.061E-2</v>
       </c>
       <c r="Q33" s="18">
-        <v>7.6689499999999997</v>
+        <v>7.48081</v>
       </c>
       <c r="R33" s="8">
-        <v>7.7345499999999996</v>
+        <v>7.5207100000000002</v>
       </c>
       <c r="S33" s="8">
-        <v>7.7035900000000002</v>
+        <v>7.5099299999999998</v>
       </c>
       <c r="T33" s="9">
-        <v>8.9899999999999997E-3</v>
+        <v>4.5199999999999997E-3</v>
       </c>
     </row>
     <row r="34" spans="2:20">
@@ -4661,52 +5685,52 @@
         <v>100</v>
       </c>
       <c r="E34" s="7">
-        <v>4.7403199999999996</v>
+        <v>5.8579800000000004</v>
       </c>
       <c r="F34" s="8">
-        <v>4.8021500000000001</v>
+        <v>5.9027000000000003</v>
       </c>
       <c r="G34" s="8">
-        <v>4.7831099999999998</v>
+        <v>5.8866199999999997</v>
       </c>
       <c r="H34" s="9">
-        <v>1.49E-2</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="I34" s="18">
-        <v>1.4878800000000001</v>
+        <v>1.51162</v>
       </c>
       <c r="J34" s="8">
-        <v>1.53451</v>
+        <v>1.57345</v>
       </c>
       <c r="K34" s="8">
-        <v>1.48902</v>
+        <v>1.51572</v>
       </c>
       <c r="L34" s="22">
-        <v>3.81E-3</v>
+        <v>4.3800000000000002E-3</v>
       </c>
       <c r="M34" s="7">
-        <v>4.8400499999999997</v>
+        <v>5.3660500000000004</v>
       </c>
       <c r="N34" s="8">
-        <v>5.0527600000000001</v>
+        <v>5.4727300000000003</v>
       </c>
       <c r="O34" s="8">
-        <v>4.8859599999999999</v>
+        <v>5.4108599999999996</v>
       </c>
       <c r="P34" s="9">
-        <v>1.499E-2</v>
+        <v>2.188E-2</v>
       </c>
       <c r="Q34" s="18">
-        <v>7.3379700000000003</v>
+        <v>7.4158400000000002</v>
       </c>
       <c r="R34" s="8">
-        <v>7.34565</v>
+        <v>7.4369899999999998</v>
       </c>
       <c r="S34" s="8">
-        <v>7.3425799999999999</v>
+        <v>7.4267799999999999</v>
       </c>
       <c r="T34" s="9">
-        <v>1.4400000000000001E-3</v>
+        <v>4.5100000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1">
@@ -4716,52 +5740,52 @@
         <v>250</v>
       </c>
       <c r="E35" s="10">
-        <v>4.7431999999999999</v>
+        <v>4.7567500000000003</v>
       </c>
       <c r="F35" s="11">
-        <v>4.7435</v>
+        <v>4.7960700000000003</v>
       </c>
       <c r="G35" s="11">
-        <v>4.7432299999999996</v>
+        <v>4.7769399999999997</v>
       </c>
       <c r="H35" s="12">
-        <v>1.0000000000000001E-5</v>
+        <v>1.26E-2</v>
       </c>
       <c r="I35" s="19">
-        <v>1.4693799999999999</v>
+        <v>1.43635</v>
       </c>
       <c r="J35" s="11">
-        <v>1.5639099999999999</v>
+        <v>1.44089</v>
       </c>
       <c r="K35" s="11">
-        <v>1.47383</v>
+        <v>1.44049</v>
       </c>
       <c r="L35" s="23">
-        <v>4.1999999999999997E-3</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="M35" s="10">
-        <v>4.8963700000000001</v>
+        <v>4.3248699999999998</v>
       </c>
       <c r="N35" s="11">
-        <v>5.1132799999999996</v>
+        <v>4.3359399999999999</v>
       </c>
       <c r="O35" s="11">
-        <v>4.92239</v>
+        <v>4.3254700000000001</v>
       </c>
       <c r="P35" s="12">
-        <v>1.2869999999999999E-2</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="Q35" s="19">
-        <v>7.1223700000000001</v>
+        <v>7.0894199999999996</v>
       </c>
       <c r="R35" s="11">
-        <v>7.1236300000000004</v>
+        <v>7.1201800000000004</v>
       </c>
       <c r="S35" s="11">
-        <v>7.1236100000000002</v>
+        <v>7.0918200000000002</v>
       </c>
       <c r="T35" s="12">
-        <v>1.6000000000000001E-4</v>
+        <v>1.5900000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="15.75" thickBot="1"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40:T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3043,22 +3043,54 @@
       <c r="D40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="6"/>
+      <c r="E40" s="4">
+        <v>5.0957299999999996</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5.15632</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5.1327299999999996</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2.3060000000000001E-2</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1.20211</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.21149</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1.2063600000000001</v>
+      </c>
+      <c r="L40" s="21">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M40" s="4">
+        <v>4.4374099999999999</v>
+      </c>
+      <c r="N40" s="5">
+        <v>4.5231199999999996</v>
+      </c>
+      <c r="O40" s="5">
+        <v>4.48048</v>
+      </c>
+      <c r="P40" s="6">
+        <v>3.5389999999999998E-2</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>7.2590300000000001</v>
+      </c>
+      <c r="R40" s="5">
+        <v>7.2846000000000002</v>
+      </c>
+      <c r="S40" s="5">
+        <v>7.2714400000000001</v>
+      </c>
+      <c r="T40" s="6">
+        <v>7.2500000000000004E-3</v>
+      </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="40"/>
@@ -3066,22 +3098,54 @@
       <c r="D41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="9"/>
+      <c r="E41" s="7">
+        <v>5.3639900000000003</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5.3809500000000003</v>
+      </c>
+      <c r="G41" s="8">
+        <v>5.3711000000000002</v>
+      </c>
+      <c r="H41" s="9">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1.67784</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1.7158100000000001</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1.7142299999999999</v>
+      </c>
+      <c r="L41" s="22">
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="M41" s="7">
+        <v>4.3097200000000004</v>
+      </c>
+      <c r="N41" s="8">
+        <v>4.3103600000000002</v>
+      </c>
+      <c r="O41" s="8">
+        <v>4.31006</v>
+      </c>
+      <c r="P41" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>7.0484499999999999</v>
+      </c>
+      <c r="R41" s="8">
+        <v>7.0549900000000001</v>
+      </c>
+      <c r="S41" s="8">
+        <v>7.04894</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1.72E-3</v>
+      </c>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="40"/>
@@ -3091,22 +3155,54 @@
       <c r="D42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="E42" s="7">
+        <v>4.1805399999999997</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4.20587</v>
+      </c>
+      <c r="G42" s="8">
+        <v>4.2053599999999998</v>
+      </c>
+      <c r="H42" s="9">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1.2332099999999999</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1.2438400000000001</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1.23926</v>
+      </c>
+      <c r="L42" s="22">
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4.3133800000000004</v>
+      </c>
+      <c r="N42" s="8">
+        <v>4.3133800000000004</v>
+      </c>
+      <c r="O42" s="8">
+        <v>4.3133800000000004</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>7.0688899999999997</v>
+      </c>
+      <c r="R42" s="8">
+        <v>7.0732400000000002</v>
+      </c>
+      <c r="S42" s="8">
+        <v>7.0723200000000004</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1.75E-3</v>
+      </c>
     </row>
     <row r="43" spans="2:20" ht="15.75" thickBot="1">
       <c r="B43" s="40"/>
@@ -3114,22 +3210,54 @@
       <c r="D43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
+      <c r="E43" s="24">
+        <v>4.40855</v>
+      </c>
+      <c r="F43" s="25">
+        <v>4.4198500000000003</v>
+      </c>
+      <c r="G43" s="25">
+        <v>4.4197899999999999</v>
+      </c>
+      <c r="H43" s="26">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I43" s="27">
+        <v>1.4783299999999999</v>
+      </c>
+      <c r="J43" s="25">
+        <v>1.4786999999999999</v>
+      </c>
+      <c r="K43" s="25">
+        <v>1.47847</v>
+      </c>
+      <c r="L43" s="28">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="M43" s="24">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="N43" s="25">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="O43" s="25">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="P43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>7.0994200000000003</v>
+      </c>
+      <c r="R43" s="25">
+        <v>7.0994200000000003</v>
+      </c>
+      <c r="S43" s="25">
+        <v>7.0994200000000003</v>
+      </c>
+      <c r="T43" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="40"/>
@@ -3137,22 +3265,54 @@
       <c r="D44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="E44" s="4">
+        <v>4.4471600000000002</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4.59192</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4.48773</v>
+      </c>
+      <c r="H44" s="6">
+        <v>5.7509999999999999E-2</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1.6514</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.65242</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1.65164</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1.1E-4</v>
+      </c>
+      <c r="M44" s="4">
+        <v>4.3311700000000002</v>
+      </c>
+      <c r="N44" s="5">
+        <v>4.3322599999999998</v>
+      </c>
+      <c r="O44" s="5">
+        <v>4.3319599999999996</v>
+      </c>
+      <c r="P44" s="6">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>7.0696199999999996</v>
+      </c>
+      <c r="R44" s="5">
+        <v>7.0922400000000003</v>
+      </c>
+      <c r="S44" s="5">
+        <v>7.08636</v>
+      </c>
+      <c r="T44" s="6">
+        <v>4.6899999999999997E-3</v>
+      </c>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="40"/>
@@ -3160,22 +3320,54 @@
       <c r="D45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="9"/>
+      <c r="E45" s="7">
+        <v>4.7351000000000001</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4.8647499999999999</v>
+      </c>
+      <c r="G45" s="8">
+        <v>4.8359399999999999</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1.4015</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1.4055800000000001</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1.4041600000000001</v>
+      </c>
+      <c r="L45" s="22">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M45" s="7">
+        <v>4.4625899999999996</v>
+      </c>
+      <c r="N45" s="8">
+        <v>4.47858</v>
+      </c>
+      <c r="O45" s="8">
+        <v>4.4784899999999999</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>7.1073500000000003</v>
+      </c>
+      <c r="R45" s="8">
+        <v>7.1251300000000004</v>
+      </c>
+      <c r="S45" s="8">
+        <v>7.1207599999999998</v>
+      </c>
+      <c r="T45" s="9">
+        <v>2.6199999999999999E-3</v>
+      </c>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="42">
@@ -3187,22 +3379,54 @@
       <c r="D46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="9"/>
+      <c r="E46" s="7">
+        <v>4.1089200000000003</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4.17056</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2.197E-2</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1.36941</v>
+      </c>
+      <c r="J46" s="8">
+        <v>1.36941</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1.36941</v>
+      </c>
+      <c r="L46" s="22">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>4.3147200000000003</v>
+      </c>
+      <c r="N46" s="8">
+        <v>4.3327400000000003</v>
+      </c>
+      <c r="O46" s="8">
+        <v>4.3299700000000003</v>
+      </c>
+      <c r="P46" s="9">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>7.0422399999999996</v>
+      </c>
+      <c r="R46" s="8">
+        <v>7.0422399999999996</v>
+      </c>
+      <c r="S46" s="8">
+        <v>7.0422399999999996</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:20" ht="15.75" thickBot="1">
       <c r="B47" s="40"/>
@@ -3210,22 +3434,54 @@
       <c r="D47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="26"/>
+      <c r="E47" s="24">
+        <v>5.4387600000000003</v>
+      </c>
+      <c r="F47" s="25">
+        <v>5.4904200000000003</v>
+      </c>
+      <c r="G47" s="25">
+        <v>5.4888700000000004</v>
+      </c>
+      <c r="H47" s="26">
+        <v>8.8100000000000001E-3</v>
+      </c>
+      <c r="I47" s="27">
+        <v>1.28417</v>
+      </c>
+      <c r="J47" s="25">
+        <v>1.2842499999999999</v>
+      </c>
+      <c r="K47" s="25">
+        <v>1.28424</v>
+      </c>
+      <c r="L47" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M47" s="24">
+        <v>4.3090400000000004</v>
+      </c>
+      <c r="N47" s="25">
+        <v>4.3090400000000004</v>
+      </c>
+      <c r="O47" s="25">
+        <v>4.3090400000000004</v>
+      </c>
+      <c r="P47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>7.0443800000000003</v>
+      </c>
+      <c r="R47" s="25">
+        <v>7.0479599999999998</v>
+      </c>
+      <c r="S47" s="25">
+        <v>7.0462100000000003</v>
+      </c>
+      <c r="T47" s="26">
+        <v>1.47E-3</v>
+      </c>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="40"/>
@@ -3233,22 +3489,54 @@
       <c r="D48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="6"/>
+      <c r="E48" s="4">
+        <v>4.1051099999999998</v>
+      </c>
+      <c r="F48" s="5">
+        <v>4.18682</v>
+      </c>
+      <c r="G48" s="5">
+        <v>4.1833400000000003</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1.457E-2</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1.4062399999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1.4089799999999999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1.40886</v>
+      </c>
+      <c r="L48" s="21">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4.3229899999999999</v>
+      </c>
+      <c r="N48" s="5">
+        <v>4.35989</v>
+      </c>
+      <c r="O48" s="5">
+        <v>4.3483000000000001</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1.252E-2</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>7.1102699999999999</v>
+      </c>
+      <c r="R48" s="5">
+        <v>7.1287700000000003</v>
+      </c>
+      <c r="S48" s="5">
+        <v>7.1188900000000004</v>
+      </c>
+      <c r="T48" s="6">
+        <v>5.1399999999999996E-3</v>
+      </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="40"/>
@@ -3256,22 +3544,54 @@
       <c r="D49" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="9"/>
+      <c r="E49" s="7">
+        <v>4.1473699999999996</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4.1478900000000003</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4.1478900000000003</v>
+      </c>
+      <c r="H49" s="9">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1.2470600000000001</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1.2575400000000001</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1.24969</v>
+      </c>
+      <c r="L49" s="22">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4.3140900000000002</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4.3140900000000002</v>
+      </c>
+      <c r="O49" s="8">
+        <v>4.3140900000000002</v>
+      </c>
+      <c r="P49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>7.0416600000000003</v>
+      </c>
+      <c r="R49" s="8">
+        <v>7.0416600000000003</v>
+      </c>
+      <c r="S49" s="8">
+        <v>7.0416600000000003</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="40"/>
@@ -3281,22 +3601,54 @@
       <c r="D50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="9"/>
+      <c r="E50" s="7">
+        <v>4.8425200000000004</v>
+      </c>
+      <c r="F50" s="8">
+        <v>4.8425200000000004</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4.8425200000000004</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1.2436400000000001</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1.2436400000000001</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1.2436400000000001</v>
+      </c>
+      <c r="L50" s="22">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4.3081100000000001</v>
+      </c>
+      <c r="N50" s="8">
+        <v>4.3081100000000001</v>
+      </c>
+      <c r="O50" s="8">
+        <v>4.3081100000000001</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>7.0699800000000002</v>
+      </c>
+      <c r="R50" s="8">
+        <v>7.07484</v>
+      </c>
+      <c r="S50" s="8">
+        <v>7.0738799999999999</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1.56E-3</v>
+      </c>
     </row>
     <row r="51" spans="2:20" ht="15.75" thickBot="1">
       <c r="B51" s="41"/>
@@ -3304,22 +3656,54 @@
       <c r="D51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="26"/>
+      <c r="E51" s="24">
+        <v>3.8235199999999998</v>
+      </c>
+      <c r="F51" s="25">
+        <v>3.8446099999999999</v>
+      </c>
+      <c r="G51" s="25">
+        <v>3.83649</v>
+      </c>
+      <c r="H51" s="26">
+        <v>1.026E-2</v>
+      </c>
+      <c r="I51" s="27">
+        <v>1.57494</v>
+      </c>
+      <c r="J51" s="25">
+        <v>1.57494</v>
+      </c>
+      <c r="K51" s="25">
+        <v>1.57494</v>
+      </c>
+      <c r="L51" s="28">
+        <v>0</v>
+      </c>
+      <c r="M51" s="24">
+        <v>4.3185500000000001</v>
+      </c>
+      <c r="N51" s="25">
+        <v>4.3185500000000001</v>
+      </c>
+      <c r="O51" s="25">
+        <v>4.3185500000000001</v>
+      </c>
+      <c r="P51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="27">
+        <v>7.0505599999999999</v>
+      </c>
+      <c r="R51" s="25">
+        <v>7.0505599999999999</v>
+      </c>
+      <c r="S51" s="25">
+        <v>7.0505599999999999</v>
+      </c>
+      <c r="T51" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="40"/>
@@ -3327,22 +3711,54 @@
       <c r="D52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="6"/>
+      <c r="E52" s="4">
+        <v>4.9491399999999999</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5.3188599999999999</v>
+      </c>
+      <c r="G52" s="5">
+        <v>5.0481400000000001</v>
+      </c>
+      <c r="H52" s="6">
+        <v>3.771E-2</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1.8331</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1.8498399999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1.8359300000000001</v>
+      </c>
+      <c r="L52" s="21">
+        <v>4.8399999999999997E-3</v>
+      </c>
+      <c r="M52" s="4">
+        <v>4.3865999999999996</v>
+      </c>
+      <c r="N52" s="5">
+        <v>4.5800599999999996</v>
+      </c>
+      <c r="O52" s="5">
+        <v>4.4073000000000002</v>
+      </c>
+      <c r="P52" s="6">
+        <v>2.9569999999999999E-2</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>7.0473400000000002</v>
+      </c>
+      <c r="R52" s="5">
+        <v>7.0955199999999996</v>
+      </c>
+      <c r="S52" s="5">
+        <v>7.0615399999999999</v>
+      </c>
+      <c r="T52" s="6">
+        <v>1.3129999999999999E-2</v>
+      </c>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="40"/>
@@ -3350,22 +3766,54 @@
       <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="9"/>
+      <c r="E53" s="7">
+        <v>3.77928</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3.7821899999999999</v>
+      </c>
+      <c r="G53" s="8">
+        <v>3.7819699999999998</v>
+      </c>
+      <c r="H53" s="9">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1.3281700000000001</v>
+      </c>
+      <c r="J53" s="8">
+        <v>1.37798</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1.3662099999999999</v>
+      </c>
+      <c r="L53" s="22">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>4.5540700000000003</v>
+      </c>
+      <c r="N53" s="8">
+        <v>4.5557299999999996</v>
+      </c>
+      <c r="O53" s="8">
+        <v>4.5550199999999998</v>
+      </c>
+      <c r="P53" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>7.0585199999999997</v>
+      </c>
+      <c r="R53" s="8">
+        <v>7.0657800000000002</v>
+      </c>
+      <c r="S53" s="8">
+        <v>7.0636999999999999</v>
+      </c>
+      <c r="T53" s="9">
+        <v>1.8600000000000001E-3</v>
+      </c>
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="40"/>
@@ -3375,22 +3823,54 @@
       <c r="D54" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="9"/>
+      <c r="E54" s="7">
+        <v>5.0937599999999996</v>
+      </c>
+      <c r="F54" s="8">
+        <v>5.1081700000000003</v>
+      </c>
+      <c r="G54" s="8">
+        <v>5.1057199999999998</v>
+      </c>
+      <c r="H54" s="9">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="I54" s="18">
+        <v>1.5004200000000001</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1.5004200000000001</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1.5004200000000001</v>
+      </c>
+      <c r="L54" s="22">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>4.3095999999999997</v>
+      </c>
+      <c r="N54" s="8">
+        <v>4.3234700000000004</v>
+      </c>
+      <c r="O54" s="8">
+        <v>4.3232999999999997</v>
+      </c>
+      <c r="P54" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>7.0423900000000001</v>
+      </c>
+      <c r="R54" s="8">
+        <v>7.0423900000000001</v>
+      </c>
+      <c r="S54" s="8">
+        <v>7.0423900000000001</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:20" ht="15.75" thickBot="1">
       <c r="B55" s="40"/>
@@ -3398,22 +3878,54 @@
       <c r="D55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="26"/>
+      <c r="E55" s="24">
+        <v>3.73292</v>
+      </c>
+      <c r="F55" s="25">
+        <v>3.7406100000000002</v>
+      </c>
+      <c r="G55" s="25">
+        <v>3.7329599999999998</v>
+      </c>
+      <c r="H55" s="26">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="I55" s="27">
+        <v>1.4989699999999999</v>
+      </c>
+      <c r="J55" s="25">
+        <v>1.5008600000000001</v>
+      </c>
+      <c r="K55" s="25">
+        <v>1.5006900000000001</v>
+      </c>
+      <c r="L55" s="28">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="M55" s="24">
+        <v>4.4121499999999996</v>
+      </c>
+      <c r="N55" s="25">
+        <v>4.4185100000000004</v>
+      </c>
+      <c r="O55" s="25">
+        <v>4.4181900000000001</v>
+      </c>
+      <c r="P55" s="26">
+        <v>1.39E-3</v>
+      </c>
+      <c r="Q55" s="27">
+        <v>7.0217400000000003</v>
+      </c>
+      <c r="R55" s="25">
+        <v>7.0230899999999998</v>
+      </c>
+      <c r="S55" s="25">
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="T55" s="26">
+        <v>3.5E-4</v>
+      </c>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="40"/>
@@ -3421,22 +3933,54 @@
       <c r="D56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="6"/>
+      <c r="E56" s="4">
+        <v>4.3733599999999999</v>
+      </c>
+      <c r="F56" s="5">
+        <v>4.44278</v>
+      </c>
+      <c r="G56" s="5">
+        <v>4.4071100000000003</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2.0109999999999999E-2</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1.2056100000000001</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1.2483299999999999</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1.2285200000000001</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1.413E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <v>4.3104899999999997</v>
+      </c>
+      <c r="N56" s="5">
+        <v>4.3351899999999999</v>
+      </c>
+      <c r="O56" s="5">
+        <v>4.3137400000000001</v>
+      </c>
+      <c r="P56" s="6">
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>7.0500800000000003</v>
+      </c>
+      <c r="R56" s="5">
+        <v>7.0623899999999997</v>
+      </c>
+      <c r="S56" s="5">
+        <v>7.0546600000000002</v>
+      </c>
+      <c r="T56" s="6">
+        <v>3.13E-3</v>
+      </c>
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="40"/>
@@ -3444,22 +3988,54 @@
       <c r="D57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="9"/>
+      <c r="E57" s="7">
+        <v>3.86531</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3.8677600000000001</v>
+      </c>
+      <c r="G57" s="8">
+        <v>3.8669899999999999</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1.14E-3</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1.3184499999999999</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1.3204899999999999</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1.3198000000000001</v>
+      </c>
+      <c r="L57" s="22">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="M57" s="7">
+        <v>4.30497</v>
+      </c>
+      <c r="N57" s="8">
+        <v>4.7983599999999997</v>
+      </c>
+      <c r="O57" s="8">
+        <v>4.3178200000000002</v>
+      </c>
+      <c r="P57" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>7.0928100000000001</v>
+      </c>
+      <c r="R57" s="8">
+        <v>7.0996199999999998</v>
+      </c>
+      <c r="S57" s="8">
+        <v>7.0989100000000001</v>
+      </c>
+      <c r="T57" s="9">
+        <v>1.48E-3</v>
+      </c>
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="42">
@@ -3471,22 +4047,54 @@
       <c r="D58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="9"/>
+      <c r="E58" s="7">
+        <v>4.6407600000000002</v>
+      </c>
+      <c r="F58" s="8">
+        <v>4.6842499999999996</v>
+      </c>
+      <c r="G58" s="8">
+        <v>4.66099</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1.2997700000000001</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1.47865</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1.3036399999999999</v>
+      </c>
+      <c r="L58" s="22">
+        <v>1.9869999999999999E-2</v>
+      </c>
+      <c r="M58" s="7">
+        <v>4.3224299999999998</v>
+      </c>
+      <c r="N58" s="8">
+        <v>4.3422599999999996</v>
+      </c>
+      <c r="O58" s="8">
+        <v>4.3227500000000001</v>
+      </c>
+      <c r="P58" s="9">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>7.0328099999999996</v>
+      </c>
+      <c r="R58" s="8">
+        <v>7.0392400000000004</v>
+      </c>
+      <c r="S58" s="8">
+        <v>7.0389200000000001</v>
+      </c>
+      <c r="T58" s="9">
+        <v>1.15E-3</v>
+      </c>
     </row>
     <row r="59" spans="2:20" ht="15.75" thickBot="1">
       <c r="B59" s="40"/>
@@ -3494,22 +4102,54 @@
       <c r="D59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="26"/>
+      <c r="E59" s="24">
+        <v>3.9366599999999998</v>
+      </c>
+      <c r="F59" s="25">
+        <v>4.2939800000000004</v>
+      </c>
+      <c r="G59" s="25">
+        <v>3.9434499999999999</v>
+      </c>
+      <c r="H59" s="26">
+        <v>4.2959999999999998E-2</v>
+      </c>
+      <c r="I59" s="27">
+        <v>1.1646700000000001</v>
+      </c>
+      <c r="J59" s="25">
+        <v>1.16534</v>
+      </c>
+      <c r="K59" s="25">
+        <v>1.16509</v>
+      </c>
+      <c r="L59" s="28">
+        <v>3.3E-4</v>
+      </c>
+      <c r="M59" s="24">
+        <v>4.3069699999999997</v>
+      </c>
+      <c r="N59" s="25">
+        <v>4.3069699999999997</v>
+      </c>
+      <c r="O59" s="25">
+        <v>4.3069699999999997</v>
+      </c>
+      <c r="P59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>7.0185899999999997</v>
+      </c>
+      <c r="R59" s="25">
+        <v>7.0198799999999997</v>
+      </c>
+      <c r="S59" s="25">
+        <v>7.01945</v>
+      </c>
+      <c r="T59" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="40"/>
@@ -3517,22 +4157,54 @@
       <c r="D60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="6"/>
+      <c r="E60" s="4">
+        <v>4.1821000000000002</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.3370199999999999</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4.2348800000000004</v>
+      </c>
+      <c r="H60" s="6">
+        <v>5.7389999999999997E-2</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1.5861700000000001</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1.6253899999999999</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1.59711</v>
+      </c>
+      <c r="L60" s="21">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M60" s="4">
+        <v>4.3136700000000001</v>
+      </c>
+      <c r="N60" s="5">
+        <v>4.81813</v>
+      </c>
+      <c r="O60" s="5">
+        <v>4.3232100000000004</v>
+      </c>
+      <c r="P60" s="6">
+        <v>4.5560000000000003E-2</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>7.0888499999999999</v>
+      </c>
+      <c r="R60" s="5">
+        <v>7.1612900000000002</v>
+      </c>
+      <c r="S60" s="5">
+        <v>7.1339199999999998</v>
+      </c>
+      <c r="T60" s="6">
+        <v>1.7940000000000001E-2</v>
+      </c>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="40"/>
@@ -3540,22 +4212,54 @@
       <c r="D61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="9"/>
+      <c r="E61" s="7">
+        <v>4.2677199999999997</v>
+      </c>
+      <c r="F61" s="8">
+        <v>4.3080800000000004</v>
+      </c>
+      <c r="G61" s="8">
+        <v>4.2818500000000004</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1.008E-2</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1.3910499999999999</v>
+      </c>
+      <c r="J61" s="8">
+        <v>1.42021</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1.39228</v>
+      </c>
+      <c r="L61" s="22">
+        <v>1.98E-3</v>
+      </c>
+      <c r="M61" s="7">
+        <v>4.3176600000000001</v>
+      </c>
+      <c r="N61" s="8">
+        <v>4.3208500000000001</v>
+      </c>
+      <c r="O61" s="8">
+        <v>4.3184199999999997</v>
+      </c>
+      <c r="P61" s="9">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>7.0314100000000002</v>
+      </c>
+      <c r="R61" s="8">
+        <v>7.0374400000000001</v>
+      </c>
+      <c r="S61" s="8">
+        <v>7.0344199999999999</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1.9E-3</v>
+      </c>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="40"/>
@@ -3565,22 +4269,54 @@
       <c r="D62" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="9"/>
+      <c r="E62" s="7">
+        <v>4.2120699999999998</v>
+      </c>
+      <c r="F62" s="8">
+        <v>4.2120699999999998</v>
+      </c>
+      <c r="G62" s="8">
+        <v>4.2120699999999998</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1.4111199999999999</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1.4111199999999999</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1.4111199999999999</v>
+      </c>
+      <c r="L62" s="22">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>4.3060600000000004</v>
+      </c>
+      <c r="N62" s="8">
+        <v>4.5055899999999998</v>
+      </c>
+      <c r="O62" s="8">
+        <v>4.3075000000000001</v>
+      </c>
+      <c r="P62" s="9">
+        <v>1.511E-2</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>7.0221</v>
+      </c>
+      <c r="R62" s="8">
+        <v>7.0325800000000003</v>
+      </c>
+      <c r="S62" s="8">
+        <v>7.02658</v>
+      </c>
+      <c r="T62" s="9">
+        <v>2.47E-3</v>
+      </c>
     </row>
     <row r="63" spans="2:20" ht="15.75" thickBot="1">
       <c r="B63" s="41"/>
@@ -3588,22 +4324,54 @@
       <c r="D63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="12"/>
+      <c r="E63" s="10">
+        <v>3.97282</v>
+      </c>
+      <c r="F63" s="11">
+        <v>3.97282</v>
+      </c>
+      <c r="G63" s="11">
+        <v>3.97282</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="19">
+        <v>1.4472700000000001</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1.4472700000000001</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1.4472700000000001</v>
+      </c>
+      <c r="L63" s="23">
+        <v>0</v>
+      </c>
+      <c r="M63" s="10">
+        <v>4.3094099999999997</v>
+      </c>
+      <c r="N63" s="11">
+        <v>4.3094099999999997</v>
+      </c>
+      <c r="O63" s="11">
+        <v>4.3094099999999997</v>
+      </c>
+      <c r="P63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>7.0224399999999996</v>
+      </c>
+      <c r="R63" s="11">
+        <v>7.0224399999999996</v>
+      </c>
+      <c r="S63" s="11">
+        <v>7.0224399999999996</v>
+      </c>
+      <c r="T63" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:20">
       <c r="B64" s="40"/>
@@ -3611,22 +4379,54 @@
       <c r="D64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="6"/>
+      <c r="E64" s="4">
+        <v>4.4298900000000003</v>
+      </c>
+      <c r="F64" s="5">
+        <v>5.1247199999999999</v>
+      </c>
+      <c r="G64" s="5">
+        <v>4.5447100000000002</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.16367999999999999</v>
+      </c>
+      <c r="I64" s="17">
+        <v>1.46669</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1.72506</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1.50234</v>
+      </c>
+      <c r="L64" s="21">
+        <v>5.432E-2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>4.3254400000000004</v>
+      </c>
+      <c r="N64" s="5">
+        <v>5.0791599999999999</v>
+      </c>
+      <c r="O64" s="5">
+        <v>4.4067999999999996</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0.18848999999999999</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>7.0813499999999996</v>
+      </c>
+      <c r="R64" s="5">
+        <v>7.3838900000000001</v>
+      </c>
+      <c r="S64" s="5">
+        <v>7.1401500000000002</v>
+      </c>
+      <c r="T64" s="6">
+        <v>6.4960000000000004E-2</v>
+      </c>
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="40"/>
@@ -3634,22 +4434,54 @@
       <c r="D65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="9"/>
+      <c r="E65" s="7">
+        <v>4.4344099999999997</v>
+      </c>
+      <c r="F65" s="8">
+        <v>5.5464500000000001</v>
+      </c>
+      <c r="G65" s="8">
+        <v>4.4651699999999996</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.11257</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1.5199</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1.86639</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1.5644400000000001</v>
+      </c>
+      <c r="L65" s="22">
+        <v>4.7919999999999997E-2</v>
+      </c>
+      <c r="M65" s="7">
+        <v>4.3151000000000002</v>
+      </c>
+      <c r="N65" s="8">
+        <v>4.5352399999999999</v>
+      </c>
+      <c r="O65" s="8">
+        <v>4.3173500000000002</v>
+      </c>
+      <c r="P65" s="9">
+        <v>2.06E-2</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>7.0677599999999998</v>
+      </c>
+      <c r="R65" s="8">
+        <v>7.2088000000000001</v>
+      </c>
+      <c r="S65" s="8">
+        <v>7.0765700000000002</v>
+      </c>
+      <c r="T65" s="9">
+        <v>1.4069999999999999E-2</v>
+      </c>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="40"/>
@@ -3659,22 +4491,54 @@
       <c r="D66" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="9"/>
+      <c r="E66" s="7">
+        <v>3.8263199999999999</v>
+      </c>
+      <c r="F66" s="8">
+        <v>3.8609100000000001</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3.8298399999999999</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="I66" s="18">
+        <v>1.30606</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1.6594</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1.32074</v>
+      </c>
+      <c r="L66" s="22">
+        <v>6.1089999999999998E-2</v>
+      </c>
+      <c r="M66" s="7">
+        <v>4.3168499999999996</v>
+      </c>
+      <c r="N66" s="8">
+        <v>4.3286800000000003</v>
+      </c>
+      <c r="O66" s="8">
+        <v>4.3237100000000002</v>
+      </c>
+      <c r="P66" s="9">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>7.0615500000000004</v>
+      </c>
+      <c r="R66" s="8">
+        <v>7.4151400000000001</v>
+      </c>
+      <c r="S66" s="8">
+        <v>7.06921</v>
+      </c>
+      <c r="T66" s="9">
+        <v>3.3649999999999999E-2</v>
+      </c>
     </row>
     <row r="67" spans="2:20" ht="15.75" thickBot="1">
       <c r="B67" s="40"/>
@@ -3682,22 +4546,54 @@
       <c r="D67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="26"/>
+      <c r="E67" s="24">
+        <v>4.4402499999999998</v>
+      </c>
+      <c r="F67" s="25">
+        <v>4.7149799999999997</v>
+      </c>
+      <c r="G67" s="25">
+        <v>4.44747</v>
+      </c>
+      <c r="H67" s="26">
+        <v>3.1579999999999997E-2</v>
+      </c>
+      <c r="I67" s="27">
+        <v>1.2409300000000001</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1.31914</v>
+      </c>
+      <c r="K67" s="25">
+        <v>1.24762</v>
+      </c>
+      <c r="L67" s="28">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="M67" s="24">
+        <v>4.60656</v>
+      </c>
+      <c r="N67" s="25">
+        <v>4.7575099999999999</v>
+      </c>
+      <c r="O67" s="25">
+        <v>4.63978</v>
+      </c>
+      <c r="P67" s="26">
+        <v>2.0979999999999999E-2</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>7.0049099999999997</v>
+      </c>
+      <c r="R67" s="25">
+        <v>7.0319000000000003</v>
+      </c>
+      <c r="S67" s="25">
+        <v>7.0054400000000001</v>
+      </c>
+      <c r="T67" s="26">
+        <v>3.29E-3</v>
+      </c>
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="40"/>
@@ -3705,22 +4601,54 @@
       <c r="D68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="6"/>
+      <c r="E68" s="4">
+        <v>4.2971300000000001</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5.5706600000000002</v>
+      </c>
+      <c r="G68" s="5">
+        <v>4.5186900000000003</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.30165999999999998</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1.60833</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1.8302</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1.6309100000000001</v>
+      </c>
+      <c r="L68" s="21">
+        <v>4.7289999999999999E-2</v>
+      </c>
+      <c r="M68" s="4">
+        <v>4.3301100000000003</v>
+      </c>
+      <c r="N68" s="5">
+        <v>5.8501500000000002</v>
+      </c>
+      <c r="O68" s="5">
+        <v>4.50481</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0.30397000000000002</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>7.1932799999999997</v>
+      </c>
+      <c r="R68" s="5">
+        <v>7.33256</v>
+      </c>
+      <c r="S68" s="5">
+        <v>7.2400500000000001</v>
+      </c>
+      <c r="T68" s="6">
+        <v>2.9680000000000002E-2</v>
+      </c>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="40"/>
@@ -3728,22 +4656,54 @@
       <c r="D69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="9"/>
+      <c r="E69" s="7">
+        <v>4.0087099999999998</v>
+      </c>
+      <c r="F69" s="8">
+        <v>4.7629900000000003</v>
+      </c>
+      <c r="G69" s="8">
+        <v>4.0386899999999999</v>
+      </c>
+      <c r="H69" s="9">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1.3444499999999999</v>
+      </c>
+      <c r="J69" s="8">
+        <v>1.62304</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1.35493</v>
+      </c>
+      <c r="L69" s="22">
+        <v>2.9319999999999999E-2</v>
+      </c>
+      <c r="M69" s="7">
+        <v>4.3141699999999998</v>
+      </c>
+      <c r="N69" s="8">
+        <v>4.3147099999999998</v>
+      </c>
+      <c r="O69" s="8">
+        <v>4.3145300000000004</v>
+      </c>
+      <c r="P69" s="9">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>7.0445000000000002</v>
+      </c>
+      <c r="R69" s="8">
+        <v>7.3111300000000004</v>
+      </c>
+      <c r="S69" s="8">
+        <v>7.0513399999999997</v>
+      </c>
+      <c r="T69" s="9">
+        <v>2.605E-2</v>
+      </c>
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="42">
@@ -3755,22 +4715,54 @@
       <c r="D70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="9"/>
+      <c r="E70" s="7">
+        <v>3.95119</v>
+      </c>
+      <c r="F70" s="8">
+        <v>5.4403899999999998</v>
+      </c>
+      <c r="G70" s="8">
+        <v>3.9917500000000001</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0.17621999999999999</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1.3909400000000001</v>
+      </c>
+      <c r="J70" s="8">
+        <v>1.52895</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1.3956500000000001</v>
+      </c>
+      <c r="L70" s="22">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="M70" s="7">
+        <v>4.3187199999999999</v>
+      </c>
+      <c r="N70" s="8">
+        <v>5.0645699999999998</v>
+      </c>
+      <c r="O70" s="8">
+        <v>4.3381699999999999</v>
+      </c>
+      <c r="P70" s="9">
+        <v>8.6019999999999999E-2</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>7.0084299999999997</v>
+      </c>
+      <c r="R70" s="8">
+        <v>7.2103000000000002</v>
+      </c>
+      <c r="S70" s="8">
+        <v>7.0124599999999999</v>
+      </c>
+      <c r="T70" s="9">
+        <v>2.3570000000000001E-2</v>
+      </c>
     </row>
     <row r="71" spans="2:20" ht="15.75" thickBot="1">
       <c r="B71" s="40"/>
@@ -3778,22 +4770,54 @@
       <c r="D71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="26"/>
+      <c r="E71" s="24">
+        <v>3.8969</v>
+      </c>
+      <c r="F71" s="25">
+        <v>4.6651499999999997</v>
+      </c>
+      <c r="G71" s="25">
+        <v>3.9166699999999999</v>
+      </c>
+      <c r="H71" s="26">
+        <v>8.831E-2</v>
+      </c>
+      <c r="I71" s="27">
+        <v>1.1421600000000001</v>
+      </c>
+      <c r="J71" s="25">
+        <v>1.2048300000000001</v>
+      </c>
+      <c r="K71" s="25">
+        <v>1.14331</v>
+      </c>
+      <c r="L71" s="28">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M71" s="24">
+        <v>4.3065699999999998</v>
+      </c>
+      <c r="N71" s="25">
+        <v>4.3066000000000004</v>
+      </c>
+      <c r="O71" s="25">
+        <v>4.3066000000000004</v>
+      </c>
+      <c r="P71" s="26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q71" s="27">
+        <v>7.0146199999999999</v>
+      </c>
+      <c r="R71" s="25">
+        <v>7.4028</v>
+      </c>
+      <c r="S71" s="25">
+        <v>7.0235099999999999</v>
+      </c>
+      <c r="T71" s="26">
+        <v>4.9630000000000001E-2</v>
+      </c>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="40"/>
@@ -3801,22 +4825,54 @@
       <c r="D72" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="6"/>
+      <c r="E72" s="4">
+        <v>4.0497800000000002</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5.2107299999999999</v>
+      </c>
+      <c r="G72" s="5">
+        <v>4.1667899999999998</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.26161000000000001</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1.1965399999999999</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1.58266</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1.22705</v>
+      </c>
+      <c r="L72" s="21">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="M72" s="4">
+        <v>4.3063000000000002</v>
+      </c>
+      <c r="N72" s="5">
+        <v>5.3113400000000004</v>
+      </c>
+      <c r="O72" s="5">
+        <v>4.3760199999999996</v>
+      </c>
+      <c r="P72" s="6">
+        <v>0.20321</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>7.0361000000000002</v>
+      </c>
+      <c r="R72" s="5">
+        <v>7.3007099999999996</v>
+      </c>
+      <c r="S72" s="5">
+        <v>7.0648</v>
+      </c>
+      <c r="T72" s="6">
+        <v>5.3789999999999998E-2</v>
+      </c>
     </row>
     <row r="73" spans="2:20">
       <c r="B73" s="40"/>
@@ -3824,22 +4880,54 @@
       <c r="D73" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="9"/>
+      <c r="E73" s="7">
+        <v>4.0093300000000003</v>
+      </c>
+      <c r="F73" s="8">
+        <v>4.6835399999999998</v>
+      </c>
+      <c r="G73" s="8">
+        <v>4.03498</v>
+      </c>
+      <c r="H73" s="9">
+        <v>7.4590000000000004E-2</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1.4151800000000001</v>
+      </c>
+      <c r="J73" s="8">
+        <v>1.6431100000000001</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1.42578</v>
+      </c>
+      <c r="L73" s="22">
+        <v>3.074E-2</v>
+      </c>
+      <c r="M73" s="7">
+        <v>4.5506500000000001</v>
+      </c>
+      <c r="N73" s="8">
+        <v>4.5532300000000001</v>
+      </c>
+      <c r="O73" s="8">
+        <v>4.55124</v>
+      </c>
+      <c r="P73" s="9">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>7.02658</v>
+      </c>
+      <c r="R73" s="8">
+        <v>7.4455099999999996</v>
+      </c>
+      <c r="S73" s="8">
+        <v>7.0427200000000001</v>
+      </c>
+      <c r="T73" s="9">
+        <v>6.1449999999999998E-2</v>
+      </c>
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="40"/>
@@ -3849,22 +4937,54 @@
       <c r="D74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="9"/>
+      <c r="E74" s="7">
+        <v>3.7526199999999998</v>
+      </c>
+      <c r="F74" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="G74" s="8">
+        <v>3.7893400000000002</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0.19056999999999999</v>
+      </c>
+      <c r="I74" s="18">
+        <v>1.3358300000000001</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1.3821300000000001</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1.34484</v>
+      </c>
+      <c r="L74" s="22">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="M74" s="7">
+        <v>4.3086799999999998</v>
+      </c>
+      <c r="N74" s="8">
+        <v>4.61395</v>
+      </c>
+      <c r="O74" s="8">
+        <v>4.3108199999999997</v>
+      </c>
+      <c r="P74" s="9">
+        <v>2.2630000000000001E-2</v>
+      </c>
+      <c r="Q74" s="18">
+        <v>7.0237400000000001</v>
+      </c>
+      <c r="R74" s="8">
+        <v>7.2900099999999997</v>
+      </c>
+      <c r="S74" s="8">
+        <v>7.0290100000000004</v>
+      </c>
+      <c r="T74" s="9">
+        <v>2.8969999999999999E-2</v>
+      </c>
     </row>
     <row r="75" spans="2:20" ht="15.75" thickBot="1">
       <c r="B75" s="41"/>
@@ -3872,22 +4992,54 @@
       <c r="D75" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="12"/>
+      <c r="E75" s="10">
+        <v>4.0304900000000004</v>
+      </c>
+      <c r="F75" s="11">
+        <v>4.9429299999999996</v>
+      </c>
+      <c r="G75" s="11">
+        <v>4.0666599999999997</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0.14212</v>
+      </c>
+      <c r="I75" s="19">
+        <v>1.63663</v>
+      </c>
+      <c r="J75" s="11">
+        <v>1.8697299999999999</v>
+      </c>
+      <c r="K75" s="11">
+        <v>1.6428700000000001</v>
+      </c>
+      <c r="L75" s="23">
+        <v>3.2340000000000001E-2</v>
+      </c>
+      <c r="M75" s="10">
+        <v>4.3377400000000002</v>
+      </c>
+      <c r="N75" s="11">
+        <v>4.7686099999999998</v>
+      </c>
+      <c r="O75" s="11">
+        <v>4.3429099999999998</v>
+      </c>
+      <c r="P75" s="12">
+        <v>4.2720000000000001E-2</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>7.0134800000000004</v>
+      </c>
+      <c r="R75" s="11">
+        <v>7.3987800000000004</v>
+      </c>
+      <c r="S75" s="11">
+        <v>7.0198400000000003</v>
+      </c>
+      <c r="T75" s="12">
+        <v>4.0009999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3899,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5891,22 +7043,54 @@
       <c r="D40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="6"/>
+      <c r="E40" s="4">
+        <v>5.0978899999999996</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5.1575800000000003</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5.1332800000000001</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2.4479999999999998E-2</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1.16049</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.1622399999999999</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1.16144</v>
+      </c>
+      <c r="L40" s="21">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="M40" s="4">
+        <v>4.3209499999999998</v>
+      </c>
+      <c r="N40" s="5">
+        <v>4.3233600000000001</v>
+      </c>
+      <c r="O40" s="5">
+        <v>4.3222100000000001</v>
+      </c>
+      <c r="P40" s="6">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>7.1548999999999996</v>
+      </c>
+      <c r="R40" s="5">
+        <v>7.1777699999999998</v>
+      </c>
+      <c r="S40" s="5">
+        <v>7.1641199999999996</v>
+      </c>
+      <c r="T40" s="6">
+        <v>3.8400000000000001E-3</v>
+      </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="40"/>
@@ -5914,22 +7098,54 @@
       <c r="D41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="9"/>
+      <c r="E41" s="7">
+        <v>4.4291299999999998</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4.5618999999999996</v>
+      </c>
+      <c r="G41" s="8">
+        <v>4.4405400000000004</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3.202E-2</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1.34585</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1.3535600000000001</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1.3521799999999999</v>
+      </c>
+      <c r="L41" s="22">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="M41" s="7">
+        <v>4.4078900000000001</v>
+      </c>
+      <c r="N41" s="8">
+        <v>4.4091899999999997</v>
+      </c>
+      <c r="O41" s="8">
+        <v>4.4088000000000003</v>
+      </c>
+      <c r="P41" s="9">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>7.0770299999999997</v>
+      </c>
+      <c r="R41" s="8">
+        <v>7.0884299999999998</v>
+      </c>
+      <c r="S41" s="8">
+        <v>7.08779</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1.0499999999999999E-3</v>
+      </c>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="40"/>
@@ -5939,22 +7155,54 @@
       <c r="D42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="E42" s="7">
+        <v>3.9877600000000002</v>
+      </c>
+      <c r="F42" s="8">
+        <v>3.9877600000000002</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3.9877600000000002</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1.34283</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1.34409</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1.34314</v>
+      </c>
+      <c r="L42" s="22">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4.5048000000000004</v>
+      </c>
+      <c r="N42" s="8">
+        <v>4.5061099999999996</v>
+      </c>
+      <c r="O42" s="8">
+        <v>4.5053299999999998</v>
+      </c>
+      <c r="P42" s="9">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>7.18764</v>
+      </c>
+      <c r="R42" s="8">
+        <v>7.2206900000000003</v>
+      </c>
+      <c r="S42" s="8">
+        <v>7.2159399999999998</v>
+      </c>
+      <c r="T42" s="9">
+        <v>6.3699999999999998E-3</v>
+      </c>
     </row>
     <row r="43" spans="2:20" ht="15.75" thickBot="1">
       <c r="B43" s="40"/>
@@ -5962,22 +7210,54 @@
       <c r="D43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
+      <c r="E43" s="24">
+        <v>5.5569699999999997</v>
+      </c>
+      <c r="F43" s="25">
+        <v>5.5570300000000001</v>
+      </c>
+      <c r="G43" s="25">
+        <v>5.55701</v>
+      </c>
+      <c r="H43" s="26">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I43" s="27">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="J43" s="25">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="K43" s="25">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="L43" s="28">
+        <v>0</v>
+      </c>
+      <c r="M43" s="24">
+        <v>4.4322699999999999</v>
+      </c>
+      <c r="N43" s="25">
+        <v>4.4322699999999999</v>
+      </c>
+      <c r="O43" s="25">
+        <v>4.4322699999999999</v>
+      </c>
+      <c r="P43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>7.1733500000000001</v>
+      </c>
+      <c r="R43" s="25">
+        <v>7.2004400000000004</v>
+      </c>
+      <c r="S43" s="25">
+        <v>7.1871299999999998</v>
+      </c>
+      <c r="T43" s="26">
+        <v>1.3509999999999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="40"/>
@@ -5985,22 +7265,54 @@
       <c r="D44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="E44" s="4">
+        <v>4.2268499999999998</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4.24613</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4.2350599999999998</v>
+      </c>
+      <c r="H44" s="6">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1.53132</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.53352</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1.5323500000000001</v>
+      </c>
+      <c r="L44" s="21">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="M44" s="4">
+        <v>4.3166099999999998</v>
+      </c>
+      <c r="N44" s="5">
+        <v>4.3807</v>
+      </c>
+      <c r="O44" s="5">
+        <v>4.3235799999999998</v>
+      </c>
+      <c r="P44" s="6">
+        <v>1.2829999999999999E-2</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>7.1389800000000001</v>
+      </c>
+      <c r="R44" s="5">
+        <v>7.1683599999999998</v>
+      </c>
+      <c r="S44" s="5">
+        <v>7.1504099999999999</v>
+      </c>
+      <c r="T44" s="6">
+        <v>8.5699999999999995E-3</v>
+      </c>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="40"/>
@@ -6008,22 +7320,54 @@
       <c r="D45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="9"/>
+      <c r="E45" s="7">
+        <v>4.4789099999999999</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4.57334</v>
+      </c>
+      <c r="G45" s="8">
+        <v>4.5285000000000002</v>
+      </c>
+      <c r="H45" s="9">
+        <v>4.3729999999999998E-2</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1.5541799999999999</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1.5649599999999999</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1.56426</v>
+      </c>
+      <c r="L45" s="22">
+        <v>2.66E-3</v>
+      </c>
+      <c r="M45" s="7">
+        <v>4.5490700000000004</v>
+      </c>
+      <c r="N45" s="8">
+        <v>4.55281</v>
+      </c>
+      <c r="O45" s="8">
+        <v>4.5510599999999997</v>
+      </c>
+      <c r="P45" s="9">
+        <v>9.5E-4</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>7.07186</v>
+      </c>
+      <c r="R45" s="8">
+        <v>7.0756800000000002</v>
+      </c>
+      <c r="S45" s="8">
+        <v>7.0750500000000001</v>
+      </c>
+      <c r="T45" s="9">
+        <v>7.2000000000000005E-4</v>
+      </c>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="42">
@@ -6035,22 +7379,54 @@
       <c r="D46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="9"/>
+      <c r="E46" s="7">
+        <v>4.1726299999999998</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4.1729700000000003</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4.1729599999999998</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1.2646500000000001</v>
+      </c>
+      <c r="J46" s="8">
+        <v>1.2656000000000001</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1.2655099999999999</v>
+      </c>
+      <c r="L46" s="22">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="M46" s="7">
+        <v>4.4788500000000004</v>
+      </c>
+      <c r="N46" s="8">
+        <v>4.4795499999999997</v>
+      </c>
+      <c r="O46" s="8">
+        <v>4.4790099999999997</v>
+      </c>
+      <c r="P46" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>6.9966100000000004</v>
+      </c>
+      <c r="R46" s="8">
+        <v>6.9966100000000004</v>
+      </c>
+      <c r="S46" s="8">
+        <v>6.9966100000000004</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:20" ht="15.75" thickBot="1">
       <c r="B47" s="40"/>
@@ -6058,22 +7434,54 @@
       <c r="D47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="26"/>
+      <c r="E47" s="24">
+        <v>4.2220000000000004</v>
+      </c>
+      <c r="F47" s="25">
+        <v>4.2256</v>
+      </c>
+      <c r="G47" s="25">
+        <v>4.2236900000000004</v>
+      </c>
+      <c r="H47" s="26">
+        <v>6.6E-4</v>
+      </c>
+      <c r="I47" s="27">
+        <v>1.1821699999999999</v>
+      </c>
+      <c r="J47" s="25">
+        <v>1.1914199999999999</v>
+      </c>
+      <c r="K47" s="25">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="L47" s="28">
+        <v>1.92E-3</v>
+      </c>
+      <c r="M47" s="24">
+        <v>5.0400700000000001</v>
+      </c>
+      <c r="N47" s="25">
+        <v>5.0400700000000001</v>
+      </c>
+      <c r="O47" s="25">
+        <v>5.0400700000000001</v>
+      </c>
+      <c r="P47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>7.0377099999999997</v>
+      </c>
+      <c r="R47" s="25">
+        <v>7.0377099999999997</v>
+      </c>
+      <c r="S47" s="25">
+        <v>7.0377099999999997</v>
+      </c>
+      <c r="T47" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="40"/>
@@ -6081,22 +7489,54 @@
       <c r="D48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="6"/>
+      <c r="E48" s="4">
+        <v>4.4453699999999996</v>
+      </c>
+      <c r="F48" s="5">
+        <v>4.4814100000000003</v>
+      </c>
+      <c r="G48" s="5">
+        <v>4.4739699999999996</v>
+      </c>
+      <c r="H48" s="6">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1.39045</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1.4363699999999999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1.4131</v>
+      </c>
+      <c r="L48" s="21">
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4.3905599999999998</v>
+      </c>
+      <c r="N48" s="5">
+        <v>4.4125100000000002</v>
+      </c>
+      <c r="O48" s="5">
+        <v>4.3993500000000001</v>
+      </c>
+      <c r="P48" s="6">
+        <v>9.41E-3</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>7.0475099999999999</v>
+      </c>
+      <c r="R48" s="5">
+        <v>7.0645100000000003</v>
+      </c>
+      <c r="S48" s="5">
+        <v>7.0568900000000001</v>
+      </c>
+      <c r="T48" s="6">
+        <v>8.3499999999999998E-3</v>
+      </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="40"/>
@@ -6104,22 +7544,54 @@
       <c r="D49" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="9"/>
+      <c r="E49" s="7">
+        <v>4.1850699999999996</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4.18567</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4.1854399999999998</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1.18763</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1.1885399999999999</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1.1876500000000001</v>
+      </c>
+      <c r="L49" s="22">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4.3293900000000001</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4.33209</v>
+      </c>
+      <c r="O49" s="8">
+        <v>4.3313199999999998</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>7.04589</v>
+      </c>
+      <c r="R49" s="8">
+        <v>7.04589</v>
+      </c>
+      <c r="S49" s="8">
+        <v>7.04589</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="40"/>
@@ -6129,22 +7601,54 @@
       <c r="D50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="9"/>
+      <c r="E50" s="7">
+        <v>4.3930300000000004</v>
+      </c>
+      <c r="F50" s="8">
+        <v>4.3930300000000004</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4.3930300000000004</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1.23613</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1.23613</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1.23613</v>
+      </c>
+      <c r="L50" s="22">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4.3138199999999998</v>
+      </c>
+      <c r="N50" s="8">
+        <v>4.3138199999999998</v>
+      </c>
+      <c r="O50" s="8">
+        <v>4.3138199999999998</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>6.9885400000000004</v>
+      </c>
+      <c r="R50" s="8">
+        <v>6.9885400000000004</v>
+      </c>
+      <c r="S50" s="8">
+        <v>6.9885400000000004</v>
+      </c>
+      <c r="T50" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:20" ht="15.75" thickBot="1">
       <c r="B51" s="41"/>
@@ -6152,22 +7656,54 @@
       <c r="D51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="26"/>
+      <c r="E51" s="24">
+        <v>5.1223400000000003</v>
+      </c>
+      <c r="F51" s="25">
+        <v>5.1224100000000004</v>
+      </c>
+      <c r="G51" s="25">
+        <v>5.1223700000000001</v>
+      </c>
+      <c r="H51" s="26">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I51" s="27">
+        <v>1.5346500000000001</v>
+      </c>
+      <c r="J51" s="25">
+        <v>1.5621100000000001</v>
+      </c>
+      <c r="K51" s="25">
+        <v>1.5466299999999999</v>
+      </c>
+      <c r="L51" s="28">
+        <v>1.359E-2</v>
+      </c>
+      <c r="M51" s="24">
+        <v>4.3448200000000003</v>
+      </c>
+      <c r="N51" s="25">
+        <v>4.3472499999999998</v>
+      </c>
+      <c r="O51" s="25">
+        <v>4.3471399999999996</v>
+      </c>
+      <c r="P51" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Q51" s="27">
+        <v>7.06046</v>
+      </c>
+      <c r="R51" s="25">
+        <v>7.06046</v>
+      </c>
+      <c r="S51" s="25">
+        <v>7.06046</v>
+      </c>
+      <c r="T51" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="40"/>
@@ -6175,22 +7711,54 @@
       <c r="D52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="6"/>
+      <c r="E52" s="4">
+        <v>4.0534999999999997</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4.2855100000000004</v>
+      </c>
+      <c r="G52" s="5">
+        <v>4.1012700000000004</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1.38714</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1.4216299999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1.4008400000000001</v>
+      </c>
+      <c r="L52" s="21">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M52" s="4">
+        <v>4.3268000000000004</v>
+      </c>
+      <c r="N52" s="5">
+        <v>4.6887699999999999</v>
+      </c>
+      <c r="O52" s="5">
+        <v>4.3412800000000002</v>
+      </c>
+      <c r="P52" s="6">
+        <v>4.8210000000000003E-2</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>7.1546900000000004</v>
+      </c>
+      <c r="R52" s="5">
+        <v>7.25997</v>
+      </c>
+      <c r="S52" s="5">
+        <v>7.1688099999999997</v>
+      </c>
+      <c r="T52" s="6">
+        <v>1.001E-2</v>
+      </c>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="40"/>
@@ -6198,22 +7766,54 @@
       <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="9"/>
+      <c r="E53" s="7">
+        <v>5.08934</v>
+      </c>
+      <c r="F53" s="8">
+        <v>5.1021200000000002</v>
+      </c>
+      <c r="G53" s="8">
+        <v>5.0965999999999996</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1.37334</v>
+      </c>
+      <c r="J53" s="8">
+        <v>1.37826</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1.37686</v>
+      </c>
+      <c r="L53" s="22">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>5.0230199999999998</v>
+      </c>
+      <c r="N53" s="8">
+        <v>5.0360100000000001</v>
+      </c>
+      <c r="O53" s="8">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="P53" s="9">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>7.0670299999999999</v>
+      </c>
+      <c r="R53" s="8">
+        <v>7.0826099999999999</v>
+      </c>
+      <c r="S53" s="8">
+        <v>7.0750700000000002</v>
+      </c>
+      <c r="T53" s="9">
+        <v>3.3500000000000001E-3</v>
+      </c>
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="40"/>
@@ -6223,22 +7823,54 @@
       <c r="D54" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="9"/>
+      <c r="E54" s="7">
+        <v>4.5643700000000003</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4.6580899999999996</v>
+      </c>
+      <c r="G54" s="8">
+        <v>4.5663</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1.005E-2</v>
+      </c>
+      <c r="I54" s="18">
+        <v>1.45842</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1.6800900000000001</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1.4744699999999999</v>
+      </c>
+      <c r="L54" s="22">
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="M54" s="7">
+        <v>4.5323900000000004</v>
+      </c>
+      <c r="N54" s="8">
+        <v>4.5326199999999996</v>
+      </c>
+      <c r="O54" s="8">
+        <v>4.5325499999999996</v>
+      </c>
+      <c r="P54" s="9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>7.3860400000000004</v>
+      </c>
+      <c r="R54" s="8">
+        <v>7.3955599999999997</v>
+      </c>
+      <c r="S54" s="8">
+        <v>7.3937099999999996</v>
+      </c>
+      <c r="T54" s="9">
+        <v>3.5699999999999998E-3</v>
+      </c>
     </row>
     <row r="55" spans="2:20" ht="15.75" thickBot="1">
       <c r="B55" s="40"/>
@@ -6246,22 +7878,54 @@
       <c r="D55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="26"/>
+      <c r="E55" s="24">
+        <v>4.6132</v>
+      </c>
+      <c r="F55" s="25">
+        <v>4.6132</v>
+      </c>
+      <c r="G55" s="25">
+        <v>4.6132</v>
+      </c>
+      <c r="H55" s="26">
+        <v>0</v>
+      </c>
+      <c r="I55" s="27">
+        <v>1.4760200000000001</v>
+      </c>
+      <c r="J55" s="25">
+        <v>1.65307</v>
+      </c>
+      <c r="K55" s="25">
+        <v>1.48082</v>
+      </c>
+      <c r="L55" s="28">
+        <v>2.3179999999999999E-2</v>
+      </c>
+      <c r="M55" s="24">
+        <v>4.3303799999999999</v>
+      </c>
+      <c r="N55" s="25">
+        <v>4.3303799999999999</v>
+      </c>
+      <c r="O55" s="25">
+        <v>4.3303799999999999</v>
+      </c>
+      <c r="P55" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="27">
+        <v>7.01431</v>
+      </c>
+      <c r="R55" s="25">
+        <v>7.0150800000000002</v>
+      </c>
+      <c r="S55" s="25">
+        <v>7.0150300000000003</v>
+      </c>
+      <c r="T55" s="26">
+        <v>6.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="40"/>
@@ -6269,22 +7933,54 @@
       <c r="D56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="6"/>
+      <c r="E56" s="4">
+        <v>3.7650700000000001</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3.8057300000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3.7824599999999999</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1.183E-2</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1.6157300000000001</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1.6995899999999999</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1.6333899999999999</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1.261E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <v>4.3239400000000003</v>
+      </c>
+      <c r="N56" s="5">
+        <v>4.3799099999999997</v>
+      </c>
+      <c r="O56" s="5">
+        <v>4.3334299999999999</v>
+      </c>
+      <c r="P56" s="6">
+        <v>1.32E-2</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>7.0139500000000004</v>
+      </c>
+      <c r="R56" s="5">
+        <v>7.0842999999999998</v>
+      </c>
+      <c r="S56" s="5">
+        <v>7.0262000000000002</v>
+      </c>
+      <c r="T56" s="6">
+        <v>1.025E-2</v>
+      </c>
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="40"/>
@@ -6292,22 +7988,54 @@
       <c r="D57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="9"/>
+      <c r="E57" s="7">
+        <v>4.4756400000000003</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4.5351100000000004</v>
+      </c>
+      <c r="G57" s="8">
+        <v>4.4943200000000001</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1.388E-2</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1.63022</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1.6325799999999999</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1.63178</v>
+      </c>
+      <c r="L57" s="22">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="M57" s="7">
+        <v>5.2813100000000004</v>
+      </c>
+      <c r="N57" s="8">
+        <v>5.2957799999999997</v>
+      </c>
+      <c r="O57" s="8">
+        <v>5.2929300000000001</v>
+      </c>
+      <c r="P57" s="9">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>6.9861000000000004</v>
+      </c>
+      <c r="R57" s="8">
+        <v>7.0743099999999997</v>
+      </c>
+      <c r="S57" s="8">
+        <v>6.9885999999999999</v>
+      </c>
+      <c r="T57" s="9">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="42">
@@ -6319,22 +8047,54 @@
       <c r="D58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="9"/>
+      <c r="E58" s="7">
+        <v>3.8806400000000001</v>
+      </c>
+      <c r="F58" s="8">
+        <v>3.8806400000000001</v>
+      </c>
+      <c r="G58" s="8">
+        <v>3.8806400000000001</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1.5886199999999999</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1.5911599999999999</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1.59083</v>
+      </c>
+      <c r="L58" s="22">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="M58" s="7">
+        <v>4.3123100000000001</v>
+      </c>
+      <c r="N58" s="8">
+        <v>4.3124399999999996</v>
+      </c>
+      <c r="O58" s="8">
+        <v>4.3124399999999996</v>
+      </c>
+      <c r="P58" s="9">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>7.1576599999999999</v>
+      </c>
+      <c r="R58" s="8">
+        <v>7.1593</v>
+      </c>
+      <c r="S58" s="8">
+        <v>7.1591399999999998</v>
+      </c>
+      <c r="T58" s="9">
+        <v>4.6999999999999999E-4</v>
+      </c>
     </row>
     <row r="59" spans="2:20" ht="15.75" thickBot="1">
       <c r="B59" s="40"/>
@@ -6342,22 +8102,54 @@
       <c r="D59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="26"/>
+      <c r="E59" s="24">
+        <v>4.2273699999999996</v>
+      </c>
+      <c r="F59" s="25">
+        <v>4.2273699999999996</v>
+      </c>
+      <c r="G59" s="25">
+        <v>4.2273699999999996</v>
+      </c>
+      <c r="H59" s="26">
+        <v>0</v>
+      </c>
+      <c r="I59" s="27">
+        <v>1.30261</v>
+      </c>
+      <c r="J59" s="25">
+        <v>1.3061799999999999</v>
+      </c>
+      <c r="K59" s="25">
+        <v>1.30599</v>
+      </c>
+      <c r="L59" s="28">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="M59" s="24">
+        <v>4.4101400000000002</v>
+      </c>
+      <c r="N59" s="25">
+        <v>4.4103199999999996</v>
+      </c>
+      <c r="O59" s="25">
+        <v>4.4102100000000002</v>
+      </c>
+      <c r="P59" s="26">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>7.0759600000000002</v>
+      </c>
+      <c r="R59" s="25">
+        <v>7.0764699999999996</v>
+      </c>
+      <c r="S59" s="25">
+        <v>7.0762600000000004</v>
+      </c>
+      <c r="T59" s="26">
+        <v>2.5000000000000001E-4</v>
+      </c>
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="40"/>
@@ -6365,22 +8157,54 @@
       <c r="D60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="6"/>
+      <c r="E60" s="4">
+        <v>4.7082199999999998</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.8136400000000004</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4.7415500000000002</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1.967E-2</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1.47688</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1.57311</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1.5398700000000001</v>
+      </c>
+      <c r="L60" s="21">
+        <v>3.7740000000000003E-2</v>
+      </c>
+      <c r="M60" s="4">
+        <v>4.3098299999999998</v>
+      </c>
+      <c r="N60" s="5">
+        <v>4.3413399999999998</v>
+      </c>
+      <c r="O60" s="5">
+        <v>4.3121200000000002</v>
+      </c>
+      <c r="P60" s="6">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>6.9703900000000001</v>
+      </c>
+      <c r="R60" s="5">
+        <v>7.2183400000000004</v>
+      </c>
+      <c r="S60" s="5">
+        <v>6.9784199999999998</v>
+      </c>
+      <c r="T60" s="6">
+        <v>2.5190000000000001E-2</v>
+      </c>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="40"/>
@@ -6388,22 +8212,54 @@
       <c r="D61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="9"/>
+      <c r="E61" s="7">
+        <v>3.8565700000000001</v>
+      </c>
+      <c r="F61" s="8">
+        <v>3.86259</v>
+      </c>
+      <c r="G61" s="8">
+        <v>3.8616100000000002</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1.38039</v>
+      </c>
+      <c r="J61" s="8">
+        <v>1.52352</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1.40439</v>
+      </c>
+      <c r="L61" s="22">
+        <v>1.321E-2</v>
+      </c>
+      <c r="M61" s="7">
+        <v>4.40822</v>
+      </c>
+      <c r="N61" s="8">
+        <v>4.4158900000000001</v>
+      </c>
+      <c r="O61" s="8">
+        <v>4.4154200000000001</v>
+      </c>
+      <c r="P61" s="9">
+        <v>6.2E-4</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>7.1303900000000002</v>
+      </c>
+      <c r="R61" s="8">
+        <v>7.1314399999999996</v>
+      </c>
+      <c r="S61" s="8">
+        <v>7.1308800000000003</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1.6000000000000001E-4</v>
+      </c>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="40"/>
@@ -6413,22 +8269,54 @@
       <c r="D62" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="9"/>
+      <c r="E62" s="7">
+        <v>4.5668100000000003</v>
+      </c>
+      <c r="F62" s="8">
+        <v>4.6192700000000002</v>
+      </c>
+      <c r="G62" s="8">
+        <v>4.56717</v>
+      </c>
+      <c r="H62" s="9">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1.2320500000000001</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1.2473399999999999</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1.2331799999999999</v>
+      </c>
+      <c r="L62" s="22">
+        <v>1.08E-3</v>
+      </c>
+      <c r="M62" s="7">
+        <v>4.3181500000000002</v>
+      </c>
+      <c r="N62" s="8">
+        <v>4.31839</v>
+      </c>
+      <c r="O62" s="8">
+        <v>4.3181500000000002</v>
+      </c>
+      <c r="P62" s="9">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>7.0251700000000001</v>
+      </c>
+      <c r="R62" s="8">
+        <v>7.0308700000000002</v>
+      </c>
+      <c r="S62" s="8">
+        <v>7.0286200000000001</v>
+      </c>
+      <c r="T62" s="9">
+        <v>2.7899999999999999E-3</v>
+      </c>
     </row>
     <row r="63" spans="2:20" ht="15.75" thickBot="1">
       <c r="B63" s="41"/>
@@ -6436,22 +8324,54 @@
       <c r="D63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="12"/>
+      <c r="E63" s="10">
+        <v>4.4551299999999996</v>
+      </c>
+      <c r="F63" s="11">
+        <v>4.4553000000000003</v>
+      </c>
+      <c r="G63" s="11">
+        <v>4.4551600000000002</v>
+      </c>
+      <c r="H63" s="12">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="I63" s="19">
+        <v>1.6370100000000001</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1.6370100000000001</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1.6370100000000001</v>
+      </c>
+      <c r="L63" s="23">
+        <v>0</v>
+      </c>
+      <c r="M63" s="10">
+        <v>4.51126</v>
+      </c>
+      <c r="N63" s="11">
+        <v>4.6140800000000004</v>
+      </c>
+      <c r="O63" s="11">
+        <v>4.5118200000000002</v>
+      </c>
+      <c r="P63" s="12">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>7.1156699999999997</v>
+      </c>
+      <c r="R63" s="11">
+        <v>7.1156699999999997</v>
+      </c>
+      <c r="S63" s="11">
+        <v>7.1156699999999997</v>
+      </c>
+      <c r="T63" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:20">
       <c r="B64" s="40"/>
@@ -6459,22 +8379,54 @@
       <c r="D64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="6"/>
+      <c r="E64" s="4">
+        <v>5.0449700000000002</v>
+      </c>
+      <c r="F64" s="5">
+        <v>5.8967099999999997</v>
+      </c>
+      <c r="G64" s="5">
+        <v>5.1245000000000003</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.16850999999999999</v>
+      </c>
+      <c r="I64" s="17">
+        <v>1.55165</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1.8071699999999999</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1.5791599999999999</v>
+      </c>
+      <c r="L64" s="21">
+        <v>5.4429999999999999E-2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>4.31046</v>
+      </c>
+      <c r="N64" s="5">
+        <v>4.9346399999999999</v>
+      </c>
+      <c r="O64" s="5">
+        <v>4.3331499999999998</v>
+      </c>
+      <c r="P64" s="6">
+        <v>7.034E-2</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>7.0787300000000002</v>
+      </c>
+      <c r="R64" s="5">
+        <v>7.4036600000000004</v>
+      </c>
+      <c r="S64" s="5">
+        <v>7.1306900000000004</v>
+      </c>
+      <c r="T64" s="6">
+        <v>8.77E-2</v>
+      </c>
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="40"/>
@@ -6482,22 +8434,54 @@
       <c r="D65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="9"/>
+      <c r="E65" s="7">
+        <v>4.6316899999999999</v>
+      </c>
+      <c r="F65" s="8">
+        <v>5.5697099999999997</v>
+      </c>
+      <c r="G65" s="8">
+        <v>4.6558700000000002</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.11655</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1.4584900000000001</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1.4601599999999999</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1.4594</v>
+      </c>
+      <c r="L65" s="22">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="M65" s="7">
+        <v>4.3098999999999998</v>
+      </c>
+      <c r="N65" s="8">
+        <v>4.4857199999999997</v>
+      </c>
+      <c r="O65" s="8">
+        <v>4.31196</v>
+      </c>
+      <c r="P65" s="9">
+        <v>1.2710000000000001E-2</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>7.1613499999999997</v>
+      </c>
+      <c r="R65" s="8">
+        <v>7.2786600000000004</v>
+      </c>
+      <c r="S65" s="8">
+        <v>7.1708699999999999</v>
+      </c>
+      <c r="T65" s="9">
+        <v>1.448E-2</v>
+      </c>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="40"/>
@@ -6507,22 +8491,54 @@
       <c r="D66" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="9"/>
+      <c r="E66" s="7">
+        <v>4.4726999999999997</v>
+      </c>
+      <c r="F66" s="8">
+        <v>5.08758</v>
+      </c>
+      <c r="G66" s="8">
+        <v>4.4936100000000003</v>
+      </c>
+      <c r="H66" s="9">
+        <v>9.7540000000000002E-2</v>
+      </c>
+      <c r="I66" s="18">
+        <v>1.60287</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1.6664099999999999</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1.6065700000000001</v>
+      </c>
+      <c r="L66" s="22">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="M66" s="7">
+        <v>4.3081500000000004</v>
+      </c>
+      <c r="N66" s="8">
+        <v>5.6470900000000004</v>
+      </c>
+      <c r="O66" s="8">
+        <v>4.32843</v>
+      </c>
+      <c r="P66" s="9">
+        <v>0.14782999999999999</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>7.1141500000000004</v>
+      </c>
+      <c r="R66" s="8">
+        <v>7.4417999999999997</v>
+      </c>
+      <c r="S66" s="8">
+        <v>7.1232800000000003</v>
+      </c>
+      <c r="T66" s="9">
+        <v>4.0300000000000002E-2</v>
+      </c>
     </row>
     <row r="67" spans="2:20" ht="15.75" thickBot="1">
       <c r="B67" s="40"/>
@@ -6530,22 +8546,54 @@
       <c r="D67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="26"/>
+      <c r="E67" s="24">
+        <v>5.4752799999999997</v>
+      </c>
+      <c r="F67" s="25">
+        <v>5.9519299999999999</v>
+      </c>
+      <c r="G67" s="25">
+        <v>5.48414</v>
+      </c>
+      <c r="H67" s="26">
+        <v>5.568E-2</v>
+      </c>
+      <c r="I67" s="27">
+        <v>1.50464</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="K67" s="25">
+        <v>1.5210300000000001</v>
+      </c>
+      <c r="L67" s="28">
+        <v>2.129E-2</v>
+      </c>
+      <c r="M67" s="24">
+        <v>4.82423</v>
+      </c>
+      <c r="N67" s="25">
+        <v>4.9954799999999997</v>
+      </c>
+      <c r="O67" s="25">
+        <v>4.8557300000000003</v>
+      </c>
+      <c r="P67" s="26">
+        <v>1.2279999999999999E-2</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>7.0644299999999998</v>
+      </c>
+      <c r="R67" s="25">
+        <v>7.6632800000000003</v>
+      </c>
+      <c r="S67" s="25">
+        <v>7.0883099999999999</v>
+      </c>
+      <c r="T67" s="26">
+        <v>9.2119999999999994E-2</v>
+      </c>
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="40"/>
@@ -6553,22 +8601,54 @@
       <c r="D68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="6"/>
+      <c r="E68" s="4">
+        <v>4.6451799999999999</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5.5547700000000004</v>
+      </c>
+      <c r="G68" s="5">
+        <v>4.8510499999999999</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.20335</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1.5528999999999999</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1.63798</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1.5669299999999999</v>
+      </c>
+      <c r="L68" s="21">
+        <v>1.532E-2</v>
+      </c>
+      <c r="M68" s="4">
+        <v>4.3128599999999997</v>
+      </c>
+      <c r="N68" s="5">
+        <v>5.0645100000000003</v>
+      </c>
+      <c r="O68" s="5">
+        <v>4.3475000000000001</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0.12421</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>7.1450100000000001</v>
+      </c>
+      <c r="R68" s="5">
+        <v>7.5839400000000001</v>
+      </c>
+      <c r="S68" s="5">
+        <v>7.2020200000000001</v>
+      </c>
+      <c r="T68" s="6">
+        <v>7.0279999999999995E-2</v>
+      </c>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="40"/>
@@ -6576,22 +8656,54 @@
       <c r="D69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="9"/>
+      <c r="E69" s="7">
+        <v>3.9931199999999998</v>
+      </c>
+      <c r="F69" s="8">
+        <v>4.8909900000000004</v>
+      </c>
+      <c r="G69" s="8">
+        <v>4.0182900000000004</v>
+      </c>
+      <c r="H69" s="9">
+        <v>8.2159999999999997E-2</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1.67533</v>
+      </c>
+      <c r="J69" s="8">
+        <v>1.8088200000000001</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1.6780900000000001</v>
+      </c>
+      <c r="L69" s="22">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="M69" s="7">
+        <v>4.3119100000000001</v>
+      </c>
+      <c r="N69" s="8">
+        <v>4.4977799999999997</v>
+      </c>
+      <c r="O69" s="8">
+        <v>4.3140599999999996</v>
+      </c>
+      <c r="P69" s="9">
+        <v>1.4290000000000001E-2</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>7.0711700000000004</v>
+      </c>
+      <c r="R69" s="8">
+        <v>7.18879</v>
+      </c>
+      <c r="S69" s="8">
+        <v>7.0731599999999997</v>
+      </c>
+      <c r="T69" s="9">
+        <v>1.29E-2</v>
+      </c>
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="42">
@@ -6603,22 +8715,54 @@
       <c r="D70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="9"/>
+      <c r="E70" s="7">
+        <v>4.0530400000000002</v>
+      </c>
+      <c r="F70" s="8">
+        <v>4.9887100000000002</v>
+      </c>
+      <c r="G70" s="8">
+        <v>4.0960200000000002</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0.15187</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1.1841999999999999</v>
+      </c>
+      <c r="J70" s="8">
+        <v>1.37327</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1.1875500000000001</v>
+      </c>
+      <c r="L70" s="22">
+        <v>1.7979999999999999E-2</v>
+      </c>
+      <c r="M70" s="7">
+        <v>4.3098200000000002</v>
+      </c>
+      <c r="N70" s="8">
+        <v>5.3952900000000001</v>
+      </c>
+      <c r="O70" s="8">
+        <v>4.3321399999999999</v>
+      </c>
+      <c r="P70" s="9">
+        <v>0.13388</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>7.0294499999999998</v>
+      </c>
+      <c r="R70" s="8">
+        <v>7.0430999999999999</v>
+      </c>
+      <c r="S70" s="8">
+        <v>7.0298100000000003</v>
+      </c>
+      <c r="T70" s="9">
+        <v>1.99E-3</v>
+      </c>
     </row>
     <row r="71" spans="2:20" ht="15.75" thickBot="1">
       <c r="B71" s="40"/>
@@ -6626,22 +8770,54 @@
       <c r="D71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="26"/>
+      <c r="E71" s="24">
+        <v>4.76424</v>
+      </c>
+      <c r="F71" s="25">
+        <v>4.7968200000000003</v>
+      </c>
+      <c r="G71" s="25">
+        <v>4.7825199999999999</v>
+      </c>
+      <c r="H71" s="26">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="I71" s="27">
+        <v>1.3733</v>
+      </c>
+      <c r="J71" s="25">
+        <v>1.63534</v>
+      </c>
+      <c r="K71" s="25">
+        <v>1.3807799999999999</v>
+      </c>
+      <c r="L71" s="28">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="M71" s="24">
+        <v>4.32369</v>
+      </c>
+      <c r="N71" s="25">
+        <v>4.5785200000000001</v>
+      </c>
+      <c r="O71" s="25">
+        <v>4.3266299999999998</v>
+      </c>
+      <c r="P71" s="26">
+        <v>2.383E-2</v>
+      </c>
+      <c r="Q71" s="27">
+        <v>7.1949100000000001</v>
+      </c>
+      <c r="R71" s="25">
+        <v>7.2991000000000001</v>
+      </c>
+      <c r="S71" s="25">
+        <v>7.1999599999999999</v>
+      </c>
+      <c r="T71" s="26">
+        <v>1.299E-2</v>
+      </c>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="40"/>
@@ -6649,22 +8825,54 @@
       <c r="D72" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="6"/>
+      <c r="E72" s="4">
+        <v>4.7431000000000001</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5.6831500000000004</v>
+      </c>
+      <c r="G72" s="5">
+        <v>4.8492800000000003</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.17634</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1.3065100000000001</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1.60158</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1.33847</v>
+      </c>
+      <c r="L72" s="21">
+        <v>6.1879999999999998E-2</v>
+      </c>
+      <c r="M72" s="4">
+        <v>4.32165</v>
+      </c>
+      <c r="N72" s="5">
+        <v>5.7877400000000003</v>
+      </c>
+      <c r="O72" s="5">
+        <v>4.41662</v>
+      </c>
+      <c r="P72" s="6">
+        <v>0.2389</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>7.0416800000000004</v>
+      </c>
+      <c r="R72" s="5">
+        <v>7.1953100000000001</v>
+      </c>
+      <c r="S72" s="5">
+        <v>7.0701999999999998</v>
+      </c>
+      <c r="T72" s="6">
+        <v>3.8730000000000001E-2</v>
+      </c>
     </row>
     <row r="73" spans="2:20">
       <c r="B73" s="40"/>
@@ -6672,22 +8880,54 @@
       <c r="D73" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="9"/>
+      <c r="E73" s="7">
+        <v>4.0595800000000004</v>
+      </c>
+      <c r="F73" s="8">
+        <v>4.7692899999999998</v>
+      </c>
+      <c r="G73" s="8">
+        <v>4.0850400000000002</v>
+      </c>
+      <c r="H73" s="9">
+        <v>7.6649999999999996E-2</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1.2517</v>
+      </c>
+      <c r="J73" s="8">
+        <v>1.7137199999999999</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1.2782199999999999</v>
+      </c>
+      <c r="L73" s="22">
+        <v>9.103E-2</v>
+      </c>
+      <c r="M73" s="7">
+        <v>4.3113700000000001</v>
+      </c>
+      <c r="N73" s="8">
+        <v>4.9349699999999999</v>
+      </c>
+      <c r="O73" s="8">
+        <v>4.3271100000000002</v>
+      </c>
+      <c r="P73" s="9">
+        <v>8.2189999999999999E-2</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>7.1220699999999999</v>
+      </c>
+      <c r="R73" s="8">
+        <v>7.5366099999999996</v>
+      </c>
+      <c r="S73" s="8">
+        <v>7.1321099999999999</v>
+      </c>
+      <c r="T73" s="9">
+        <v>4.9529999999999998E-2</v>
+      </c>
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="40"/>
@@ -6697,22 +8937,54 @@
       <c r="D74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="9"/>
+      <c r="E74" s="7">
+        <v>4.2118099999999998</v>
+      </c>
+      <c r="F74" s="8">
+        <v>4.2201199999999996</v>
+      </c>
+      <c r="G74" s="8">
+        <v>4.2134200000000002</v>
+      </c>
+      <c r="H74" s="9">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="I74" s="18">
+        <v>1.16733</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1.3359399999999999</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1.1710499999999999</v>
+      </c>
+      <c r="L74" s="22">
+        <v>2.0820000000000002E-2</v>
+      </c>
+      <c r="M74" s="7">
+        <v>4.3160400000000001</v>
+      </c>
+      <c r="N74" s="8">
+        <v>4.8515499999999996</v>
+      </c>
+      <c r="O74" s="8">
+        <v>4.3289299999999997</v>
+      </c>
+      <c r="P74" s="9">
+        <v>7.8030000000000002E-2</v>
+      </c>
+      <c r="Q74" s="18">
+        <v>7.0096999999999996</v>
+      </c>
+      <c r="R74" s="8">
+        <v>7.17936</v>
+      </c>
+      <c r="S74" s="8">
+        <v>7.01248</v>
+      </c>
+      <c r="T74" s="9">
+        <v>1.6809999999999999E-2</v>
+      </c>
     </row>
     <row r="75" spans="2:20" ht="15.75" thickBot="1">
       <c r="B75" s="41"/>
@@ -6720,22 +8992,54 @@
       <c r="D75" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="12"/>
+      <c r="E75" s="10">
+        <v>3.9285299999999999</v>
+      </c>
+      <c r="F75" s="11">
+        <v>4.0749700000000004</v>
+      </c>
+      <c r="G75" s="11">
+        <v>3.9296000000000002</v>
+      </c>
+      <c r="H75" s="12">
+        <v>1.074E-2</v>
+      </c>
+      <c r="I75" s="19">
+        <v>1.33683</v>
+      </c>
+      <c r="J75" s="11">
+        <v>1.5313099999999999</v>
+      </c>
+      <c r="K75" s="11">
+        <v>1.34934</v>
+      </c>
+      <c r="L75" s="23">
+        <v>2.9610000000000001E-2</v>
+      </c>
+      <c r="M75" s="10">
+        <v>4.3478399999999997</v>
+      </c>
+      <c r="N75" s="11">
+        <v>5.0343799999999996</v>
+      </c>
+      <c r="O75" s="11">
+        <v>4.3620700000000001</v>
+      </c>
+      <c r="P75" s="12">
+        <v>7.9670000000000005E-2</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>7.13185</v>
+      </c>
+      <c r="R75" s="11">
+        <v>7.2330199999999998</v>
+      </c>
+      <c r="S75" s="11">
+        <v>7.14215</v>
+      </c>
+      <c r="T75" s="12">
+        <v>1.192E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Abcissas variáveis" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="26">
   <si>
     <t>Gerações</t>
   </si>
@@ -85,6 +86,15 @@
   <si>
     <t>Prob. Mutação</t>
   </si>
+  <si>
+    <t>Com elitismo</t>
+  </si>
+  <si>
+    <t>Sem elitismo</t>
+  </si>
+  <si>
+    <t>N. Recombinação</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,6 +770,14 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T75"/>
+  <dimension ref="B1:AN97"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40:T75"/>
+    <sheetView topLeftCell="X75" workbookViewId="0">
+      <selection activeCell="V78" sqref="V78:AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,10 +1085,18 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1">
+    <row r="1" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
@@ -1100,8 +1132,47 @@
         <v>8</v>
       </c>
       <c r="T2" s="33"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="44"/>
+      <c r="X2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="33"/>
+    </row>
+    <row r="3" spans="2:40" ht="15.75" thickBot="1">
       <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
@@ -1159,8 +1230,65 @@
       <c r="T3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="V3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40">
       <c r="B4" s="40"/>
       <c r="C4" s="36"/>
       <c r="D4" s="13">
@@ -1214,8 +1342,29 @@
       <c r="T4" s="6">
         <v>3.8469999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="V4" s="40"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="5" spans="2:40">
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
       <c r="D5" s="14">
@@ -1269,8 +1418,29 @@
       <c r="T5" s="9">
         <v>2.0330000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="V5" s="40"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="9"/>
+    </row>
+    <row r="6" spans="2:40">
       <c r="B6" s="40"/>
       <c r="C6" s="37">
         <v>50</v>
@@ -1326,8 +1496,31 @@
       <c r="T6" s="9">
         <v>7.9799999999999992E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V6" s="40"/>
+      <c r="W6" s="37">
+        <v>50</v>
+      </c>
+      <c r="X6" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="9"/>
+    </row>
+    <row r="7" spans="2:40" ht="15.75" thickBot="1">
       <c r="B7" s="40"/>
       <c r="C7" s="37"/>
       <c r="D7" s="29">
@@ -1381,8 +1574,29 @@
       <c r="T7" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="V7" s="40"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+    </row>
+    <row r="8" spans="2:40">
       <c r="B8" s="40"/>
       <c r="C8" s="36"/>
       <c r="D8" s="13">
@@ -1436,8 +1650,29 @@
       <c r="T8" s="6">
         <v>1.566E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="V8" s="40"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40">
       <c r="B9" s="40"/>
       <c r="C9" s="37"/>
       <c r="D9" s="14">
@@ -1491,8 +1726,29 @@
       <c r="T9" s="9">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="V9" s="40"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="9"/>
+    </row>
+    <row r="10" spans="2:40">
       <c r="B10" s="40"/>
       <c r="C10" s="37">
         <v>100</v>
@@ -1548,8 +1804,31 @@
       <c r="T10" s="9">
         <v>2.009E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V10" s="40"/>
+      <c r="W10" s="37">
+        <v>100</v>
+      </c>
+      <c r="X10" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="2:40" ht="15.75" thickBot="1">
       <c r="B11" s="40">
         <v>15</v>
       </c>
@@ -1605,8 +1884,31 @@
       <c r="T11" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="V11" s="40">
+        <v>15</v>
+      </c>
+      <c r="W11" s="37"/>
+      <c r="X11" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="40"/>
       <c r="C12" s="36"/>
       <c r="D12" s="13">
@@ -1660,8 +1962,29 @@
       <c r="T12" s="6">
         <v>1.453E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="V12" s="40"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="6"/>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="40"/>
       <c r="C13" s="37"/>
       <c r="D13" s="14">
@@ -1715,8 +2038,29 @@
       <c r="T13" s="9">
         <v>1.0499999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="V13" s="40"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+    </row>
+    <row r="14" spans="2:40">
       <c r="B14" s="40"/>
       <c r="C14" s="37">
         <v>200</v>
@@ -1772,8 +2116,31 @@
       <c r="T14" s="9">
         <v>8.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V14" s="40"/>
+      <c r="W14" s="37">
+        <v>200</v>
+      </c>
+      <c r="X14" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="9"/>
+    </row>
+    <row r="15" spans="2:40" ht="15.75" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="37"/>
       <c r="D15" s="29">
@@ -1827,8 +2194,29 @@
       <c r="T15" s="26">
         <v>6.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="V15" s="40"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+    </row>
+    <row r="16" spans="2:40">
       <c r="B16" s="40"/>
       <c r="C16" s="36"/>
       <c r="D16" s="13">
@@ -1882,8 +2270,29 @@
       <c r="T16" s="6">
         <v>1.374E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="V16" s="40"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="6"/>
+    </row>
+    <row r="17" spans="2:40">
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
       <c r="D17" s="14">
@@ -1937,8 +2346,29 @@
       <c r="T17" s="9">
         <v>6.6E-4</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="V17" s="40"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="9"/>
+    </row>
+    <row r="18" spans="2:40">
       <c r="B18" s="40"/>
       <c r="C18" s="37">
         <v>500</v>
@@ -1994,8 +2424,31 @@
       <c r="T18" s="9">
         <v>4.9699999999999996E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V18" s="40"/>
+      <c r="W18" s="37">
+        <v>500</v>
+      </c>
+      <c r="X18" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="9"/>
+    </row>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="38"/>
       <c r="D19" s="15">
@@ -2049,8 +2502,29 @@
       <c r="T19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="V19" s="41"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="15">
+        <v>250</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="12"/>
+    </row>
+    <row r="20" spans="2:40">
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="13">
@@ -2104,8 +2578,29 @@
       <c r="T20" s="6">
         <v>0.16622999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="V20" s="40"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" spans="2:40">
       <c r="B21" s="40"/>
       <c r="C21" s="37"/>
       <c r="D21" s="14">
@@ -2159,8 +2654,29 @@
       <c r="T21" s="9">
         <v>2.554E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="V21" s="40"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="9"/>
+    </row>
+    <row r="22" spans="2:40">
       <c r="B22" s="40"/>
       <c r="C22" s="37">
         <v>50</v>
@@ -2216,8 +2732,31 @@
       <c r="T22" s="9">
         <v>9.7199999999999995E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V22" s="40"/>
+      <c r="W22" s="37">
+        <v>50</v>
+      </c>
+      <c r="X22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
+    </row>
+    <row r="23" spans="2:40" ht="15.75" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="37"/>
       <c r="D23" s="29">
@@ -2271,8 +2810,29 @@
       <c r="T23" s="26">
         <v>8.3720000000000003E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="V23" s="40"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="26"/>
+    </row>
+    <row r="24" spans="2:40">
       <c r="B24" s="40"/>
       <c r="C24" s="36"/>
       <c r="D24" s="13">
@@ -2326,8 +2886,29 @@
       <c r="T24" s="6">
         <v>0.15079999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="V24" s="40"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="6"/>
+    </row>
+    <row r="25" spans="2:40">
       <c r="B25" s="40"/>
       <c r="C25" s="37"/>
       <c r="D25" s="14">
@@ -2381,8 +2962,29 @@
       <c r="T25" s="9">
         <v>3.5740000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="V25" s="40"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="9"/>
+    </row>
+    <row r="26" spans="2:40">
       <c r="B26" s="40"/>
       <c r="C26" s="37">
         <v>100</v>
@@ -2438,8 +3040,31 @@
       <c r="T26" s="9">
         <v>9.6000000000000002E-4</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V26" s="40"/>
+      <c r="W26" s="37">
+        <v>100</v>
+      </c>
+      <c r="X26" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="9"/>
+    </row>
+    <row r="27" spans="2:40" ht="15.75" thickBot="1">
       <c r="B27" s="40">
         <v>30</v>
       </c>
@@ -2495,8 +3120,31 @@
       <c r="T27" s="26">
         <v>1.0399999999999999E-3</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="V27" s="40">
+        <v>30</v>
+      </c>
+      <c r="W27" s="37"/>
+      <c r="X27" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="26"/>
+    </row>
+    <row r="28" spans="2:40">
       <c r="B28" s="40"/>
       <c r="C28" s="36"/>
       <c r="D28" s="13">
@@ -2550,8 +3198,29 @@
       <c r="T28" s="6">
         <v>9.6909999999999996E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="V28" s="40"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="6"/>
+    </row>
+    <row r="29" spans="2:40">
       <c r="B29" s="40"/>
       <c r="C29" s="37"/>
       <c r="D29" s="14">
@@ -2605,8 +3274,29 @@
       <c r="T29" s="9">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="V29" s="40"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="9"/>
+    </row>
+    <row r="30" spans="2:40">
       <c r="B30" s="40"/>
       <c r="C30" s="37">
         <v>200</v>
@@ -2662,8 +3352,31 @@
       <c r="T30" s="9">
         <v>1.0449999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V30" s="40"/>
+      <c r="W30" s="37">
+        <v>200</v>
+      </c>
+      <c r="X30" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="9"/>
+    </row>
+    <row r="31" spans="2:40" ht="15.75" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="37"/>
       <c r="D31" s="29">
@@ -2717,8 +3430,29 @@
       <c r="T31" s="26">
         <v>5.6999999999999998E-4</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="V31" s="40"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="26"/>
+    </row>
+    <row r="32" spans="2:40">
       <c r="B32" s="40"/>
       <c r="C32" s="36"/>
       <c r="D32" s="13">
@@ -2772,8 +3506,29 @@
       <c r="T32" s="6">
         <v>0.14526</v>
       </c>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="V32" s="40"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="6"/>
+    </row>
+    <row r="33" spans="2:40">
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
       <c r="D33" s="14">
@@ -2827,8 +3582,29 @@
       <c r="T33" s="9">
         <v>1.244E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="V33" s="40"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="9"/>
+    </row>
+    <row r="34" spans="2:40">
       <c r="B34" s="40"/>
       <c r="C34" s="37">
         <v>500</v>
@@ -2884,8 +3660,31 @@
       <c r="T34" s="9">
         <v>1.65E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V34" s="40"/>
+      <c r="W34" s="37">
+        <v>500</v>
+      </c>
+      <c r="X34" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="9"/>
+    </row>
+    <row r="35" spans="2:40" ht="15.75" thickBot="1">
       <c r="B35" s="41"/>
       <c r="C35" s="38"/>
       <c r="D35" s="15">
@@ -2939,9 +3738,34 @@
       <c r="T35" s="12">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="38" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V35" s="41"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="15">
+        <v>250</v>
+      </c>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="12"/>
+    </row>
+    <row r="37" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="38" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B38" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="44"/>
       <c r="D38" s="30" t="s">
         <v>1</v>
       </c>
@@ -2977,8 +3801,47 @@
         <v>8</v>
       </c>
       <c r="T38" s="33"/>
-    </row>
-    <row r="39" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W38" s="44"/>
+      <c r="X38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN38" s="33"/>
+    </row>
+    <row r="39" spans="2:40" ht="15.75" thickBot="1">
       <c r="B39" s="39" t="s">
         <v>22</v>
       </c>
@@ -3036,8 +3899,65 @@
       <c r="T39" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="V39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40">
       <c r="B40" s="40"/>
       <c r="C40" s="36"/>
       <c r="D40" s="13" t="s">
@@ -3091,8 +4011,29 @@
       <c r="T40" s="6">
         <v>7.2500000000000004E-3</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="V40" s="40"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="6"/>
+    </row>
+    <row r="41" spans="2:40">
       <c r="B41" s="40"/>
       <c r="C41" s="37"/>
       <c r="D41" s="14" t="s">
@@ -3146,11 +4087,32 @@
       <c r="T41" s="9">
         <v>1.72E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="V41" s="40"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="9"/>
+    </row>
+    <row r="42" spans="2:40">
       <c r="B42" s="40"/>
-      <c r="C42" s="37">
-        <v>10</v>
+      <c r="C42" s="46">
+        <v>0.1</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>19</v>
@@ -3203,8 +4165,31 @@
       <c r="T42" s="9">
         <v>1.75E-3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V42" s="40"/>
+      <c r="W42" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="9"/>
+    </row>
+    <row r="43" spans="2:40" ht="15.75" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
       <c r="D43" s="29" t="s">
@@ -3258,8 +4243,29 @@
       <c r="T43" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="V43" s="40"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="26"/>
+    </row>
+    <row r="44" spans="2:40">
       <c r="B44" s="40"/>
       <c r="C44" s="36"/>
       <c r="D44" s="13" t="s">
@@ -3313,8 +4319,29 @@
       <c r="T44" s="6">
         <v>4.6899999999999997E-3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="V44" s="40"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="6"/>
+    </row>
+    <row r="45" spans="2:40">
       <c r="B45" s="40"/>
       <c r="C45" s="37"/>
       <c r="D45" s="14" t="s">
@@ -3368,13 +4395,34 @@
       <c r="T45" s="9">
         <v>2.6199999999999999E-3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="V45" s="40"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="9"/>
+    </row>
+    <row r="46" spans="2:40">
       <c r="B46" s="42">
         <v>0.05</v>
       </c>
-      <c r="C46" s="37">
-        <v>25</v>
+      <c r="C46" s="46">
+        <v>0.25</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>19</v>
@@ -3427,8 +4475,33 @@
       <c r="T46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V46" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="W46" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="9"/>
+    </row>
+    <row r="47" spans="2:40" ht="15.75" thickBot="1">
       <c r="B47" s="40"/>
       <c r="C47" s="37"/>
       <c r="D47" s="29" t="s">
@@ -3482,8 +4555,29 @@
       <c r="T47" s="26">
         <v>1.47E-3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="V47" s="40"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="26"/>
+    </row>
+    <row r="48" spans="2:40">
       <c r="B48" s="40"/>
       <c r="C48" s="36"/>
       <c r="D48" s="13" t="s">
@@ -3537,8 +4631,29 @@
       <c r="T48" s="6">
         <v>5.1399999999999996E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:20">
+      <c r="V48" s="40"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="6"/>
+    </row>
+    <row r="49" spans="2:40">
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="14" t="s">
@@ -3592,11 +4707,32 @@
       <c r="T49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="V49" s="40"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="9"/>
+    </row>
+    <row r="50" spans="2:40">
       <c r="B50" s="40"/>
-      <c r="C50" s="37">
-        <v>50</v>
+      <c r="C50" s="46">
+        <v>0.5</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>19</v>
@@ -3649,8 +4785,31 @@
       <c r="T50" s="9">
         <v>1.56E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V50" s="40"/>
+      <c r="W50" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="9"/>
+    </row>
+    <row r="51" spans="2:40" ht="15.75" thickBot="1">
       <c r="B51" s="41"/>
       <c r="C51" s="37"/>
       <c r="D51" s="29" t="s">
@@ -3704,8 +4863,29 @@
       <c r="T51" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="V51" s="41"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="26"/>
+    </row>
+    <row r="52" spans="2:40">
       <c r="B52" s="40"/>
       <c r="C52" s="36"/>
       <c r="D52" s="13" t="s">
@@ -3759,8 +4939,29 @@
       <c r="T52" s="6">
         <v>1.3129999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="V52" s="40"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="6"/>
+    </row>
+    <row r="53" spans="2:40">
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
       <c r="D53" s="14" t="s">
@@ -3814,11 +5015,32 @@
       <c r="T53" s="9">
         <v>1.8600000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="V53" s="40"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="9"/>
+    </row>
+    <row r="54" spans="2:40">
       <c r="B54" s="40"/>
-      <c r="C54" s="37">
-        <v>10</v>
+      <c r="C54" s="46">
+        <v>0.1</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>19</v>
@@ -3871,8 +5093,31 @@
       <c r="T54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V54" s="40"/>
+      <c r="W54" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="9"/>
+    </row>
+    <row r="55" spans="2:40" ht="15.75" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="37"/>
       <c r="D55" s="29" t="s">
@@ -3926,8 +5171,29 @@
       <c r="T55" s="26">
         <v>3.5E-4</v>
       </c>
-    </row>
-    <row r="56" spans="2:20">
+      <c r="V55" s="40"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="26"/>
+    </row>
+    <row r="56" spans="2:40">
       <c r="B56" s="40"/>
       <c r="C56" s="36"/>
       <c r="D56" s="13" t="s">
@@ -3981,8 +5247,29 @@
       <c r="T56" s="6">
         <v>3.13E-3</v>
       </c>
-    </row>
-    <row r="57" spans="2:20">
+      <c r="V56" s="40"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="6"/>
+    </row>
+    <row r="57" spans="2:40">
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
       <c r="D57" s="14" t="s">
@@ -4036,13 +5323,34 @@
       <c r="T57" s="9">
         <v>1.48E-3</v>
       </c>
-    </row>
-    <row r="58" spans="2:20">
+      <c r="V57" s="40"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="9"/>
+    </row>
+    <row r="58" spans="2:40">
       <c r="B58" s="42">
         <v>0.1</v>
       </c>
-      <c r="C58" s="37">
-        <v>25</v>
+      <c r="C58" s="46">
+        <v>0.25</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>19</v>
@@ -4095,8 +5403,33 @@
       <c r="T58" s="9">
         <v>1.15E-3</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V58" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="W58" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="9"/>
+    </row>
+    <row r="59" spans="2:40" ht="15.75" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="37"/>
       <c r="D59" s="29" t="s">
@@ -4150,8 +5483,29 @@
       <c r="T59" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="V59" s="40"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="26"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="25"/>
+      <c r="AM59" s="25"/>
+      <c r="AN59" s="26"/>
+    </row>
+    <row r="60" spans="2:40">
       <c r="B60" s="40"/>
       <c r="C60" s="36"/>
       <c r="D60" s="13" t="s">
@@ -4205,8 +5559,29 @@
       <c r="T60" s="6">
         <v>1.7940000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="V60" s="40"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="6"/>
+    </row>
+    <row r="61" spans="2:40">
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
       <c r="D61" s="14" t="s">
@@ -4260,11 +5635,32 @@
       <c r="T61" s="9">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="V61" s="40"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="18"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="9"/>
+    </row>
+    <row r="62" spans="2:40">
       <c r="B62" s="40"/>
-      <c r="C62" s="37">
-        <v>50</v>
+      <c r="C62" s="46">
+        <v>0.5</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>19</v>
@@ -4317,10 +5713,33 @@
       <c r="T62" s="9">
         <v>2.47E-3</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V62" s="40"/>
+      <c r="W62" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="9"/>
+    </row>
+    <row r="63" spans="2:40" ht="15.75" thickBot="1">
       <c r="B63" s="41"/>
-      <c r="C63" s="38"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="15" t="s">
         <v>20</v>
       </c>
@@ -4372,8 +5791,29 @@
       <c r="T63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="V63" s="41"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="12"/>
+    </row>
+    <row r="64" spans="2:40">
       <c r="B64" s="40"/>
       <c r="C64" s="36"/>
       <c r="D64" s="13" t="s">
@@ -4427,8 +5867,29 @@
       <c r="T64" s="6">
         <v>6.4960000000000004E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="V64" s="40"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="6"/>
+    </row>
+    <row r="65" spans="2:40">
       <c r="B65" s="40"/>
       <c r="C65" s="37"/>
       <c r="D65" s="14" t="s">
@@ -4482,11 +5943,32 @@
       <c r="T65" s="9">
         <v>1.4069999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="V65" s="40"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="9"/>
+    </row>
+    <row r="66" spans="2:40">
       <c r="B66" s="40"/>
-      <c r="C66" s="37">
-        <v>10</v>
+      <c r="C66" s="46">
+        <v>0.1</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>19</v>
@@ -4539,8 +6021,31 @@
       <c r="T66" s="9">
         <v>3.3649999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V66" s="40"/>
+      <c r="W66" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="9"/>
+    </row>
+    <row r="67" spans="2:40" ht="15.75" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
       <c r="D67" s="29" t="s">
@@ -4594,8 +6099,29 @@
       <c r="T67" s="26">
         <v>3.29E-3</v>
       </c>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="V67" s="40"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="27"/>
+      <c r="AL67" s="25"/>
+      <c r="AM67" s="25"/>
+      <c r="AN67" s="26"/>
+    </row>
+    <row r="68" spans="2:40">
       <c r="B68" s="40"/>
       <c r="C68" s="36"/>
       <c r="D68" s="13" t="s">
@@ -4649,8 +6175,29 @@
       <c r="T68" s="6">
         <v>2.9680000000000002E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="V68" s="40"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="6"/>
+    </row>
+    <row r="69" spans="2:40">
       <c r="B69" s="40"/>
       <c r="C69" s="37"/>
       <c r="D69" s="14" t="s">
@@ -4704,13 +6251,34 @@
       <c r="T69" s="9">
         <v>2.605E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="V69" s="40"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="18"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="9"/>
+    </row>
+    <row r="70" spans="2:40">
       <c r="B70" s="42">
         <v>0.15</v>
       </c>
-      <c r="C70" s="37">
-        <v>25</v>
+      <c r="C70" s="46">
+        <v>0.25</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>19</v>
@@ -4763,8 +6331,33 @@
       <c r="T70" s="9">
         <v>2.3570000000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V70" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="W70" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="9"/>
+    </row>
+    <row r="71" spans="2:40" ht="15.75" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="37"/>
       <c r="D71" s="29" t="s">
@@ -4818,8 +6411,29 @@
       <c r="T71" s="26">
         <v>4.9630000000000001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="V71" s="40"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="25"/>
+      <c r="AJ71" s="26"/>
+      <c r="AK71" s="27"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="25"/>
+      <c r="AN71" s="26"/>
+    </row>
+    <row r="72" spans="2:40">
       <c r="B72" s="40"/>
       <c r="C72" s="36"/>
       <c r="D72" s="13" t="s">
@@ -4873,8 +6487,29 @@
       <c r="T72" s="6">
         <v>5.3789999999999998E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:20">
+      <c r="V72" s="40"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="6"/>
+    </row>
+    <row r="73" spans="2:40">
       <c r="B73" s="40"/>
       <c r="C73" s="37"/>
       <c r="D73" s="14" t="s">
@@ -4928,11 +6563,32 @@
       <c r="T73" s="9">
         <v>6.1449999999999998E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:20">
+      <c r="V73" s="40"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="9"/>
+    </row>
+    <row r="74" spans="2:40">
       <c r="B74" s="40"/>
-      <c r="C74" s="37">
-        <v>50</v>
+      <c r="C74" s="46">
+        <v>0.5</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>19</v>
@@ -4985,8 +6641,31 @@
       <c r="T74" s="9">
         <v>2.8969999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V74" s="40"/>
+      <c r="W74" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="9"/>
+    </row>
+    <row r="75" spans="2:40" ht="15.75" thickBot="1">
       <c r="B75" s="41"/>
       <c r="C75" s="38"/>
       <c r="D75" s="15" t="s">
@@ -5040,6 +6719,1048 @@
       <c r="T75" s="12">
         <v>4.0009999999999997E-2</v>
       </c>
+      <c r="V75" s="41"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="23"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="19"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="12"/>
+    </row>
+    <row r="77" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="78" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B78" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="33"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O78" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S78" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T78" s="33"/>
+      <c r="V78" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W78" s="44"/>
+      <c r="X78" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA78" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE78" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="30"/>
+      <c r="AH78" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI78" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ78" s="33"/>
+      <c r="AK78" s="30"/>
+      <c r="AL78" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM78" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN78" s="33"/>
+    </row>
+    <row r="79" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B79" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V79" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W79" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="X79" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF79" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:40">
+      <c r="B80" s="40"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="6"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="17"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="6"/>
+    </row>
+    <row r="81" spans="2:40">
+      <c r="B81" s="40"/>
+      <c r="C81" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="14">
+        <v>3</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="9"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X81" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="18"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="8"/>
+      <c r="AN81" s="9"/>
+    </row>
+    <row r="82" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B82" s="40"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="29">
+        <v>5</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="26"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="25"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="25"/>
+      <c r="AE82" s="25"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="25"/>
+      <c r="AI82" s="25"/>
+      <c r="AJ82" s="26"/>
+      <c r="AK82" s="27"/>
+      <c r="AL82" s="25"/>
+      <c r="AM82" s="25"/>
+      <c r="AN82" s="26"/>
+    </row>
+    <row r="83" spans="2:40">
+      <c r="B83" s="40"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="6"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="17"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="6"/>
+    </row>
+    <row r="84" spans="2:40">
+      <c r="B84" s="45">
+        <v>15</v>
+      </c>
+      <c r="C84" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="D84" s="14">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="9"/>
+      <c r="V84" s="45">
+        <v>15</v>
+      </c>
+      <c r="W84" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X84" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="18"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="9"/>
+    </row>
+    <row r="85" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B85" s="40"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="29">
+        <v>5</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="26"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="25"/>
+      <c r="AI85" s="25"/>
+      <c r="AJ85" s="26"/>
+      <c r="AK85" s="27"/>
+      <c r="AL85" s="25"/>
+      <c r="AM85" s="25"/>
+      <c r="AN85" s="26"/>
+    </row>
+    <row r="86" spans="2:40">
+      <c r="B86" s="40"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="6"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="4"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="17"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="6"/>
+    </row>
+    <row r="87" spans="2:40">
+      <c r="B87" s="40"/>
+      <c r="C87" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="14">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="9"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="9"/>
+      <c r="AK87" s="18"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="9"/>
+    </row>
+    <row r="88" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B88" s="41"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="29">
+        <v>5</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="26"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="26"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
+      <c r="AI88" s="25"/>
+      <c r="AJ88" s="26"/>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="25"/>
+      <c r="AM88" s="25"/>
+      <c r="AN88" s="26"/>
+    </row>
+    <row r="89" spans="2:40">
+      <c r="B89" s="40"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="6"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="4"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="17"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="6"/>
+    </row>
+    <row r="90" spans="2:40">
+      <c r="B90" s="40"/>
+      <c r="C90" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D90" s="14">
+        <v>3</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="9"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X90" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="9"/>
+      <c r="AK90" s="18"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="9"/>
+    </row>
+    <row r="91" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B91" s="40"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="29">
+        <v>5</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="26"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="25"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="25"/>
+      <c r="AE91" s="25"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="25"/>
+      <c r="AI91" s="25"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="27"/>
+      <c r="AL91" s="25"/>
+      <c r="AM91" s="25"/>
+      <c r="AN91" s="26"/>
+    </row>
+    <row r="92" spans="2:40">
+      <c r="B92" s="40"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="6"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="6"/>
+    </row>
+    <row r="93" spans="2:40">
+      <c r="B93" s="45">
+        <v>30</v>
+      </c>
+      <c r="C93" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="14">
+        <v>3</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="9"/>
+      <c r="V93" s="45">
+        <v>30</v>
+      </c>
+      <c r="W93" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X93" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="22"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="9"/>
+      <c r="AK93" s="18"/>
+      <c r="AL93" s="8"/>
+      <c r="AM93" s="8"/>
+      <c r="AN93" s="9"/>
+    </row>
+    <row r="94" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B94" s="40"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="29">
+        <v>5</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="26"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="26"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="25"/>
+      <c r="AI94" s="25"/>
+      <c r="AJ94" s="26"/>
+      <c r="AK94" s="27"/>
+      <c r="AL94" s="25"/>
+      <c r="AM94" s="25"/>
+      <c r="AN94" s="26"/>
+    </row>
+    <row r="95" spans="2:40">
+      <c r="B95" s="40"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="6"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="17"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="6"/>
+    </row>
+    <row r="96" spans="2:40">
+      <c r="B96" s="40"/>
+      <c r="C96" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="14">
+        <v>3</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="9"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X96" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="9"/>
+      <c r="AK96" s="18"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="9"/>
+    </row>
+    <row r="97" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B97" s="41"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="15">
+        <v>5</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="12"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="19"/>
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+      <c r="AN97" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5049,10 +7770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T75"/>
+  <dimension ref="B1:AN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="V98" sqref="V98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5061,10 +7782,18 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1">
+    <row r="1" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
@@ -5100,8 +7829,47 @@
         <v>8</v>
       </c>
       <c r="T2" s="33"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="44"/>
+      <c r="X2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="33"/>
+    </row>
+    <row r="3" spans="2:40" ht="15.75" thickBot="1">
       <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
@@ -5159,8 +7927,65 @@
       <c r="T3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="V3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40">
       <c r="B4" s="40"/>
       <c r="C4" s="36"/>
       <c r="D4" s="13">
@@ -5214,8 +8039,29 @@
       <c r="T4" s="6">
         <v>5.3249999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="V4" s="40"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="5" spans="2:40">
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
       <c r="D5" s="14">
@@ -5269,8 +8115,29 @@
       <c r="T5" s="9">
         <v>1.306E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="V5" s="40"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="9"/>
+    </row>
+    <row r="6" spans="2:40">
       <c r="B6" s="40"/>
       <c r="C6" s="37">
         <v>50</v>
@@ -5326,8 +8193,31 @@
       <c r="T6" s="9">
         <v>1.9279999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V6" s="40"/>
+      <c r="W6" s="37">
+        <v>50</v>
+      </c>
+      <c r="X6" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="9"/>
+    </row>
+    <row r="7" spans="2:40" ht="15.75" thickBot="1">
       <c r="B7" s="40"/>
       <c r="C7" s="37"/>
       <c r="D7" s="29">
@@ -5381,8 +8271,29 @@
       <c r="T7" s="26">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="V7" s="40"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+    </row>
+    <row r="8" spans="2:40">
       <c r="B8" s="40"/>
       <c r="C8" s="36"/>
       <c r="D8" s="13">
@@ -5436,8 +8347,29 @@
       <c r="T8" s="6">
         <v>7.8119999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="V8" s="40"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40">
       <c r="B9" s="40"/>
       <c r="C9" s="37"/>
       <c r="D9" s="14">
@@ -5491,8 +8423,29 @@
       <c r="T9" s="9">
         <v>3.0200000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="V9" s="40"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="9"/>
+    </row>
+    <row r="10" spans="2:40">
       <c r="B10" s="40"/>
       <c r="C10" s="37">
         <v>100</v>
@@ -5548,8 +8501,31 @@
       <c r="T10" s="9">
         <v>6.5420000000000006E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V10" s="40"/>
+      <c r="W10" s="37">
+        <v>100</v>
+      </c>
+      <c r="X10" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="2:40" ht="15.75" thickBot="1">
       <c r="B11" s="40">
         <v>15</v>
       </c>
@@ -5605,8 +8581,31 @@
       <c r="T11" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="V11" s="40">
+        <v>15</v>
+      </c>
+      <c r="W11" s="37"/>
+      <c r="X11" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="40"/>
       <c r="C12" s="36"/>
       <c r="D12" s="13">
@@ -5660,8 +8659,29 @@
       <c r="T12" s="6">
         <v>9.5530000000000004E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="V12" s="40"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="6"/>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="40"/>
       <c r="C13" s="37"/>
       <c r="D13" s="14">
@@ -5715,8 +8735,29 @@
       <c r="T13" s="9">
         <v>7.2399999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="V13" s="40"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+    </row>
+    <row r="14" spans="2:40">
       <c r="B14" s="40"/>
       <c r="C14" s="37">
         <v>200</v>
@@ -5772,8 +8813,31 @@
       <c r="T14" s="9">
         <v>8.9700000000000005E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V14" s="40"/>
+      <c r="W14" s="37">
+        <v>200</v>
+      </c>
+      <c r="X14" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="9"/>
+    </row>
+    <row r="15" spans="2:40" ht="15.75" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="37"/>
       <c r="D15" s="29">
@@ -5827,8 +8891,29 @@
       <c r="T15" s="26">
         <v>1.001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="V15" s="40"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+    </row>
+    <row r="16" spans="2:40">
       <c r="B16" s="40"/>
       <c r="C16" s="36"/>
       <c r="D16" s="13">
@@ -5882,8 +8967,29 @@
       <c r="T16" s="6">
         <v>5.0410000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="V16" s="40"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="6"/>
+    </row>
+    <row r="17" spans="2:40">
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
       <c r="D17" s="14">
@@ -5937,8 +9043,29 @@
       <c r="T17" s="9">
         <v>2.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="V17" s="40"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="9"/>
+    </row>
+    <row r="18" spans="2:40">
       <c r="B18" s="40"/>
       <c r="C18" s="37">
         <v>500</v>
@@ -5994,8 +9121,31 @@
       <c r="T18" s="9">
         <v>2.49E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V18" s="40"/>
+      <c r="W18" s="37">
+        <v>500</v>
+      </c>
+      <c r="X18" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="9"/>
+    </row>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="38"/>
       <c r="D19" s="15">
@@ -6049,8 +9199,29 @@
       <c r="T19" s="12">
         <v>6.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="V19" s="41"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="15">
+        <v>250</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="12"/>
+    </row>
+    <row r="20" spans="2:40">
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="13">
@@ -6104,8 +9275,29 @@
       <c r="T20" s="6">
         <v>0.11971</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="V20" s="40"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" spans="2:40">
       <c r="B21" s="40"/>
       <c r="C21" s="37"/>
       <c r="D21" s="14">
@@ -6159,8 +9351,29 @@
       <c r="T21" s="9">
         <v>2.4209999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="V21" s="40"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="9"/>
+    </row>
+    <row r="22" spans="2:40">
       <c r="B22" s="40"/>
       <c r="C22" s="37">
         <v>50</v>
@@ -6216,8 +9429,31 @@
       <c r="T22" s="9">
         <v>8.5699999999999995E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V22" s="40"/>
+      <c r="W22" s="37">
+        <v>50</v>
+      </c>
+      <c r="X22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
+    </row>
+    <row r="23" spans="2:40" ht="15.75" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="37"/>
       <c r="D23" s="29">
@@ -6271,8 +9507,29 @@
       <c r="T23" s="26">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="V23" s="40"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="26"/>
+    </row>
+    <row r="24" spans="2:40">
       <c r="B24" s="40"/>
       <c r="C24" s="36"/>
       <c r="D24" s="13">
@@ -6326,8 +9583,29 @@
       <c r="T24" s="6">
         <v>0.13100999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="V24" s="40"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="6"/>
+    </row>
+    <row r="25" spans="2:40">
       <c r="B25" s="40"/>
       <c r="C25" s="37"/>
       <c r="D25" s="14">
@@ -6381,8 +9659,29 @@
       <c r="T25" s="9">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="V25" s="40"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="9"/>
+    </row>
+    <row r="26" spans="2:40">
       <c r="B26" s="40"/>
       <c r="C26" s="37">
         <v>100</v>
@@ -6438,8 +9737,31 @@
       <c r="T26" s="9">
         <v>6.4360000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V26" s="40"/>
+      <c r="W26" s="37">
+        <v>100</v>
+      </c>
+      <c r="X26" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="9"/>
+    </row>
+    <row r="27" spans="2:40" ht="15.75" thickBot="1">
       <c r="B27" s="40">
         <v>30</v>
       </c>
@@ -6495,8 +9817,31 @@
       <c r="T27" s="26">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="V27" s="40">
+        <v>30</v>
+      </c>
+      <c r="W27" s="37"/>
+      <c r="X27" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="26"/>
+    </row>
+    <row r="28" spans="2:40">
       <c r="B28" s="40"/>
       <c r="C28" s="36"/>
       <c r="D28" s="13">
@@ -6550,8 +9895,29 @@
       <c r="T28" s="6">
         <v>0.21407999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="V28" s="40"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="6"/>
+    </row>
+    <row r="29" spans="2:40">
       <c r="B29" s="40"/>
       <c r="C29" s="37"/>
       <c r="D29" s="14">
@@ -6605,8 +9971,29 @@
       <c r="T29" s="9">
         <v>1.7590000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="V29" s="40"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="9"/>
+    </row>
+    <row r="30" spans="2:40">
       <c r="B30" s="40"/>
       <c r="C30" s="37">
         <v>200</v>
@@ -6662,8 +10049,31 @@
       <c r="T30" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V30" s="40"/>
+      <c r="W30" s="37">
+        <v>200</v>
+      </c>
+      <c r="X30" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="9"/>
+    </row>
+    <row r="31" spans="2:40" ht="15.75" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="37"/>
       <c r="D31" s="29">
@@ -6717,8 +10127,29 @@
       <c r="T31" s="26">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="V31" s="40"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="29">
+        <v>250</v>
+      </c>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="26"/>
+    </row>
+    <row r="32" spans="2:40">
       <c r="B32" s="40"/>
       <c r="C32" s="36"/>
       <c r="D32" s="13">
@@ -6772,8 +10203,29 @@
       <c r="T32" s="6">
         <v>0.21057000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="V32" s="40"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="6"/>
+    </row>
+    <row r="33" spans="2:40">
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
       <c r="D33" s="14">
@@ -6827,8 +10279,29 @@
       <c r="T33" s="9">
         <v>4.5199999999999997E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="V33" s="40"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="14">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="9"/>
+    </row>
+    <row r="34" spans="2:40">
       <c r="B34" s="40"/>
       <c r="C34" s="37">
         <v>500</v>
@@ -6884,8 +10357,31 @@
       <c r="T34" s="9">
         <v>4.5100000000000001E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V34" s="40"/>
+      <c r="W34" s="37">
+        <v>500</v>
+      </c>
+      <c r="X34" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="9"/>
+    </row>
+    <row r="35" spans="2:40" ht="15.75" thickBot="1">
       <c r="B35" s="41"/>
       <c r="C35" s="38"/>
       <c r="D35" s="15">
@@ -6939,9 +10435,34 @@
       <c r="T35" s="12">
         <v>1.5900000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="38" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V35" s="41"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="15">
+        <v>250</v>
+      </c>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="12"/>
+    </row>
+    <row r="37" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="38" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B38" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="44"/>
       <c r="D38" s="30" t="s">
         <v>1</v>
       </c>
@@ -6977,8 +10498,47 @@
         <v>8</v>
       </c>
       <c r="T38" s="33"/>
-    </row>
-    <row r="39" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W38" s="44"/>
+      <c r="X38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN38" s="33"/>
+    </row>
+    <row r="39" spans="2:40" ht="15.75" thickBot="1">
       <c r="B39" s="39" t="s">
         <v>22</v>
       </c>
@@ -7036,8 +10596,65 @@
       <c r="T39" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="V39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40">
       <c r="B40" s="40"/>
       <c r="C40" s="36"/>
       <c r="D40" s="13" t="s">
@@ -7091,8 +10708,29 @@
       <c r="T40" s="6">
         <v>3.8400000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="V40" s="40"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="6"/>
+    </row>
+    <row r="41" spans="2:40">
       <c r="B41" s="40"/>
       <c r="C41" s="37"/>
       <c r="D41" s="14" t="s">
@@ -7146,11 +10784,32 @@
       <c r="T41" s="9">
         <v>1.0499999999999999E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="V41" s="40"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="9"/>
+    </row>
+    <row r="42" spans="2:40">
       <c r="B42" s="40"/>
-      <c r="C42" s="37">
-        <v>10</v>
+      <c r="C42" s="46">
+        <v>0.1</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>19</v>
@@ -7203,8 +10862,31 @@
       <c r="T42" s="9">
         <v>6.3699999999999998E-3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V42" s="40"/>
+      <c r="W42" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="9"/>
+    </row>
+    <row r="43" spans="2:40" ht="15.75" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
       <c r="D43" s="29" t="s">
@@ -7258,8 +10940,29 @@
       <c r="T43" s="26">
         <v>1.3509999999999999E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="V43" s="40"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="26"/>
+    </row>
+    <row r="44" spans="2:40">
       <c r="B44" s="40"/>
       <c r="C44" s="36"/>
       <c r="D44" s="13" t="s">
@@ -7313,8 +11016,29 @@
       <c r="T44" s="6">
         <v>8.5699999999999995E-3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="V44" s="40"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="6"/>
+    </row>
+    <row r="45" spans="2:40">
       <c r="B45" s="40"/>
       <c r="C45" s="37"/>
       <c r="D45" s="14" t="s">
@@ -7368,13 +11092,34 @@
       <c r="T45" s="9">
         <v>7.2000000000000005E-4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="V45" s="40"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="9"/>
+    </row>
+    <row r="46" spans="2:40">
       <c r="B46" s="42">
         <v>0.05</v>
       </c>
-      <c r="C46" s="37">
-        <v>25</v>
+      <c r="C46" s="46">
+        <v>0.25</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>19</v>
@@ -7427,8 +11172,33 @@
       <c r="T46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V46" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="W46" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="9"/>
+    </row>
+    <row r="47" spans="2:40" ht="15.75" thickBot="1">
       <c r="B47" s="40"/>
       <c r="C47" s="37"/>
       <c r="D47" s="29" t="s">
@@ -7482,8 +11252,29 @@
       <c r="T47" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="V47" s="40"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="26"/>
+    </row>
+    <row r="48" spans="2:40">
       <c r="B48" s="40"/>
       <c r="C48" s="36"/>
       <c r="D48" s="13" t="s">
@@ -7537,8 +11328,29 @@
       <c r="T48" s="6">
         <v>8.3499999999999998E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:20">
+      <c r="V48" s="40"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="6"/>
+    </row>
+    <row r="49" spans="2:40">
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="14" t="s">
@@ -7592,11 +11404,32 @@
       <c r="T49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="V49" s="40"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="9"/>
+    </row>
+    <row r="50" spans="2:40">
       <c r="B50" s="40"/>
-      <c r="C50" s="37">
-        <v>50</v>
+      <c r="C50" s="46">
+        <v>0.5</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>19</v>
@@ -7649,8 +11482,31 @@
       <c r="T50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V50" s="40"/>
+      <c r="W50" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="9"/>
+    </row>
+    <row r="51" spans="2:40" ht="15.75" thickBot="1">
       <c r="B51" s="41"/>
       <c r="C51" s="37"/>
       <c r="D51" s="29" t="s">
@@ -7704,8 +11560,29 @@
       <c r="T51" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="V51" s="41"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="26"/>
+    </row>
+    <row r="52" spans="2:40">
       <c r="B52" s="40"/>
       <c r="C52" s="36"/>
       <c r="D52" s="13" t="s">
@@ -7759,8 +11636,29 @@
       <c r="T52" s="6">
         <v>1.001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="V52" s="40"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="6"/>
+    </row>
+    <row r="53" spans="2:40">
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
       <c r="D53" s="14" t="s">
@@ -7814,11 +11712,32 @@
       <c r="T53" s="9">
         <v>3.3500000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="V53" s="40"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="9"/>
+    </row>
+    <row r="54" spans="2:40">
       <c r="B54" s="40"/>
-      <c r="C54" s="37">
-        <v>10</v>
+      <c r="C54" s="46">
+        <v>0.1</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>19</v>
@@ -7871,8 +11790,31 @@
       <c r="T54" s="9">
         <v>3.5699999999999998E-3</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V54" s="40"/>
+      <c r="W54" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="9"/>
+    </row>
+    <row r="55" spans="2:40" ht="15.75" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="37"/>
       <c r="D55" s="29" t="s">
@@ -7926,8 +11868,29 @@
       <c r="T55" s="26">
         <v>6.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="56" spans="2:20">
+      <c r="V55" s="40"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="26"/>
+    </row>
+    <row r="56" spans="2:40">
       <c r="B56" s="40"/>
       <c r="C56" s="36"/>
       <c r="D56" s="13" t="s">
@@ -7981,8 +11944,29 @@
       <c r="T56" s="6">
         <v>1.025E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:20">
+      <c r="V56" s="40"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="6"/>
+    </row>
+    <row r="57" spans="2:40">
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
       <c r="D57" s="14" t="s">
@@ -8036,13 +12020,34 @@
       <c r="T57" s="9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="58" spans="2:20">
+      <c r="V57" s="40"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="9"/>
+    </row>
+    <row r="58" spans="2:40">
       <c r="B58" s="42">
         <v>0.1</v>
       </c>
-      <c r="C58" s="37">
-        <v>25</v>
+      <c r="C58" s="46">
+        <v>0.25</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>19</v>
@@ -8095,8 +12100,33 @@
       <c r="T58" s="9">
         <v>4.6999999999999999E-4</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V58" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="W58" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="9"/>
+    </row>
+    <row r="59" spans="2:40" ht="15.75" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="37"/>
       <c r="D59" s="29" t="s">
@@ -8150,8 +12180,29 @@
       <c r="T59" s="26">
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="V59" s="40"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="26"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="25"/>
+      <c r="AM59" s="25"/>
+      <c r="AN59" s="26"/>
+    </row>
+    <row r="60" spans="2:40">
       <c r="B60" s="40"/>
       <c r="C60" s="36"/>
       <c r="D60" s="13" t="s">
@@ -8205,8 +12256,29 @@
       <c r="T60" s="6">
         <v>2.5190000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="V60" s="40"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="6"/>
+    </row>
+    <row r="61" spans="2:40">
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
       <c r="D61" s="14" t="s">
@@ -8260,11 +12332,32 @@
       <c r="T61" s="9">
         <v>1.6000000000000001E-4</v>
       </c>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="V61" s="40"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="18"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="9"/>
+    </row>
+    <row r="62" spans="2:40">
       <c r="B62" s="40"/>
-      <c r="C62" s="37">
-        <v>50</v>
+      <c r="C62" s="46">
+        <v>0.5</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>19</v>
@@ -8317,10 +12410,33 @@
       <c r="T62" s="9">
         <v>2.7899999999999999E-3</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V62" s="40"/>
+      <c r="W62" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="9"/>
+    </row>
+    <row r="63" spans="2:40" ht="15.75" thickBot="1">
       <c r="B63" s="41"/>
-      <c r="C63" s="38"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="15" t="s">
         <v>20</v>
       </c>
@@ -8372,8 +12488,29 @@
       <c r="T63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="V63" s="41"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="12"/>
+    </row>
+    <row r="64" spans="2:40">
       <c r="B64" s="40"/>
       <c r="C64" s="36"/>
       <c r="D64" s="13" t="s">
@@ -8427,8 +12564,29 @@
       <c r="T64" s="6">
         <v>8.77E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="V64" s="40"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="6"/>
+    </row>
+    <row r="65" spans="2:40">
       <c r="B65" s="40"/>
       <c r="C65" s="37"/>
       <c r="D65" s="14" t="s">
@@ -8482,11 +12640,32 @@
       <c r="T65" s="9">
         <v>1.448E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="V65" s="40"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="9"/>
+    </row>
+    <row r="66" spans="2:40">
       <c r="B66" s="40"/>
-      <c r="C66" s="37">
-        <v>10</v>
+      <c r="C66" s="46">
+        <v>0.1</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>19</v>
@@ -8539,8 +12718,31 @@
       <c r="T66" s="9">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V66" s="40"/>
+      <c r="W66" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="9"/>
+    </row>
+    <row r="67" spans="2:40" ht="15.75" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
       <c r="D67" s="29" t="s">
@@ -8594,8 +12796,29 @@
       <c r="T67" s="26">
         <v>9.2119999999999994E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="V67" s="40"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="27"/>
+      <c r="AL67" s="25"/>
+      <c r="AM67" s="25"/>
+      <c r="AN67" s="26"/>
+    </row>
+    <row r="68" spans="2:40">
       <c r="B68" s="40"/>
       <c r="C68" s="36"/>
       <c r="D68" s="13" t="s">
@@ -8649,8 +12872,29 @@
       <c r="T68" s="6">
         <v>7.0279999999999995E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="V68" s="40"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="6"/>
+    </row>
+    <row r="69" spans="2:40">
       <c r="B69" s="40"/>
       <c r="C69" s="37"/>
       <c r="D69" s="14" t="s">
@@ -8704,13 +12948,34 @@
       <c r="T69" s="9">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="V69" s="40"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="18"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="9"/>
+    </row>
+    <row r="70" spans="2:40">
       <c r="B70" s="42">
         <v>0.15</v>
       </c>
-      <c r="C70" s="37">
-        <v>25</v>
+      <c r="C70" s="46">
+        <v>0.25</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>19</v>
@@ -8763,8 +13028,33 @@
       <c r="T70" s="9">
         <v>1.99E-3</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V70" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="W70" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="9"/>
+    </row>
+    <row r="71" spans="2:40" ht="15.75" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="37"/>
       <c r="D71" s="29" t="s">
@@ -8818,8 +13108,29 @@
       <c r="T71" s="26">
         <v>1.299E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="V71" s="40"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="25"/>
+      <c r="AJ71" s="26"/>
+      <c r="AK71" s="27"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="25"/>
+      <c r="AN71" s="26"/>
+    </row>
+    <row r="72" spans="2:40">
       <c r="B72" s="40"/>
       <c r="C72" s="36"/>
       <c r="D72" s="13" t="s">
@@ -8873,8 +13184,29 @@
       <c r="T72" s="6">
         <v>3.8730000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:20">
+      <c r="V72" s="40"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="6"/>
+    </row>
+    <row r="73" spans="2:40">
       <c r="B73" s="40"/>
       <c r="C73" s="37"/>
       <c r="D73" s="14" t="s">
@@ -8928,11 +13260,32 @@
       <c r="T73" s="9">
         <v>4.9529999999999998E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:20">
+      <c r="V73" s="40"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="9"/>
+    </row>
+    <row r="74" spans="2:40">
       <c r="B74" s="40"/>
-      <c r="C74" s="37">
-        <v>50</v>
+      <c r="C74" s="46">
+        <v>0.5</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>19</v>
@@ -8985,8 +13338,31 @@
       <c r="T74" s="9">
         <v>1.6809999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" thickBot="1">
+      <c r="V74" s="40"/>
+      <c r="W74" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="9"/>
+    </row>
+    <row r="75" spans="2:40" ht="15.75" thickBot="1">
       <c r="B75" s="41"/>
       <c r="C75" s="38"/>
       <c r="D75" s="15" t="s">
@@ -9040,6 +13416,1048 @@
       <c r="T75" s="12">
         <v>1.192E-2</v>
       </c>
+      <c r="V75" s="41"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="23"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="19"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="12"/>
+    </row>
+    <row r="77" spans="2:40" ht="15.75" thickBot="1"/>
+    <row r="78" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B78" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="33"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O78" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S78" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T78" s="33"/>
+      <c r="V78" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W78" s="44"/>
+      <c r="X78" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA78" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE78" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="30"/>
+      <c r="AH78" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI78" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ78" s="33"/>
+      <c r="AK78" s="30"/>
+      <c r="AL78" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM78" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN78" s="33"/>
+    </row>
+    <row r="79" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B79" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V79" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W79" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="X79" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF79" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:40">
+      <c r="B80" s="40"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="6"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="17"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="6"/>
+    </row>
+    <row r="81" spans="2:40">
+      <c r="B81" s="40"/>
+      <c r="C81" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="14">
+        <v>3</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="9"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X81" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="18"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="8"/>
+      <c r="AN81" s="9"/>
+    </row>
+    <row r="82" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B82" s="40"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="29">
+        <v>5</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="26"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="25"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="25"/>
+      <c r="AE82" s="25"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="25"/>
+      <c r="AI82" s="25"/>
+      <c r="AJ82" s="26"/>
+      <c r="AK82" s="27"/>
+      <c r="AL82" s="25"/>
+      <c r="AM82" s="25"/>
+      <c r="AN82" s="26"/>
+    </row>
+    <row r="83" spans="2:40">
+      <c r="B83" s="40"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="6"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="17"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="6"/>
+    </row>
+    <row r="84" spans="2:40">
+      <c r="B84" s="45">
+        <v>15</v>
+      </c>
+      <c r="C84" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="D84" s="14">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="9"/>
+      <c r="V84" s="45">
+        <v>15</v>
+      </c>
+      <c r="W84" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X84" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="18"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="9"/>
+    </row>
+    <row r="85" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B85" s="40"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="29">
+        <v>5</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="26"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="25"/>
+      <c r="AI85" s="25"/>
+      <c r="AJ85" s="26"/>
+      <c r="AK85" s="27"/>
+      <c r="AL85" s="25"/>
+      <c r="AM85" s="25"/>
+      <c r="AN85" s="26"/>
+    </row>
+    <row r="86" spans="2:40">
+      <c r="B86" s="40"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="6"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="4"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="17"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="6"/>
+    </row>
+    <row r="87" spans="2:40">
+      <c r="B87" s="40"/>
+      <c r="C87" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="14">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="9"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="9"/>
+      <c r="AK87" s="18"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="9"/>
+    </row>
+    <row r="88" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B88" s="41"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="29">
+        <v>5</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="26"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="26"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
+      <c r="AI88" s="25"/>
+      <c r="AJ88" s="26"/>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="25"/>
+      <c r="AM88" s="25"/>
+      <c r="AN88" s="26"/>
+    </row>
+    <row r="89" spans="2:40">
+      <c r="B89" s="40"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="6"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="4"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="17"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="6"/>
+    </row>
+    <row r="90" spans="2:40">
+      <c r="B90" s="40"/>
+      <c r="C90" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D90" s="14">
+        <v>3</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="9"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="X90" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="9"/>
+      <c r="AK90" s="18"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="9"/>
+    </row>
+    <row r="91" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B91" s="40"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="29">
+        <v>5</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="26"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="25"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="25"/>
+      <c r="AE91" s="25"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="25"/>
+      <c r="AI91" s="25"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="27"/>
+      <c r="AL91" s="25"/>
+      <c r="AM91" s="25"/>
+      <c r="AN91" s="26"/>
+    </row>
+    <row r="92" spans="2:40">
+      <c r="B92" s="40"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="6"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="6"/>
+    </row>
+    <row r="93" spans="2:40">
+      <c r="B93" s="45">
+        <v>30</v>
+      </c>
+      <c r="C93" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="14">
+        <v>3</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="9"/>
+      <c r="V93" s="45">
+        <v>30</v>
+      </c>
+      <c r="W93" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="X93" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="22"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="9"/>
+      <c r="AK93" s="18"/>
+      <c r="AL93" s="8"/>
+      <c r="AM93" s="8"/>
+      <c r="AN93" s="9"/>
+    </row>
+    <row r="94" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B94" s="40"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="29">
+        <v>5</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="26"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="26"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="25"/>
+      <c r="AI94" s="25"/>
+      <c r="AJ94" s="26"/>
+      <c r="AK94" s="27"/>
+      <c r="AL94" s="25"/>
+      <c r="AM94" s="25"/>
+      <c r="AN94" s="26"/>
+    </row>
+    <row r="95" spans="2:40">
+      <c r="B95" s="40"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="6"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="17"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="6"/>
+    </row>
+    <row r="96" spans="2:40">
+      <c r="B96" s="40"/>
+      <c r="C96" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="14">
+        <v>3</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="9"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="X96" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="9"/>
+      <c r="AK96" s="18"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="9"/>
+    </row>
+    <row r="97" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B97" s="41"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="15">
+        <v>5</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="12"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="19"/>
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+      <c r="AN97" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1111">
   <si>
     <t>Com elitismo</t>
   </si>
@@ -72,6 +72,1542 @@
     <t>DP</t>
   </si>
   <si>
+    <t>6.59539</t>
+  </si>
+  <si>
+    <t>8.48061</t>
+  </si>
+  <si>
+    <t>7.52831</t>
+  </si>
+  <si>
+    <t>0.28750</t>
+  </si>
+  <si>
+    <t>2.00553</t>
+  </si>
+  <si>
+    <t>3.39808</t>
+  </si>
+  <si>
+    <t>2.18844</t>
+  </si>
+  <si>
+    <t>0.24448</t>
+  </si>
+  <si>
+    <t>5.09224</t>
+  </si>
+  <si>
+    <t>6.23910</t>
+  </si>
+  <si>
+    <t>5.42450</t>
+  </si>
+  <si>
+    <t>0.16902</t>
+  </si>
+  <si>
+    <t>7.57780</t>
+  </si>
+  <si>
+    <t>9.67990</t>
+  </si>
+  <si>
+    <t>7.86078</t>
+  </si>
+  <si>
+    <t>0.29477</t>
+  </si>
+  <si>
+    <t>4.49329</t>
+  </si>
+  <si>
+    <t>6.15592</t>
+  </si>
+  <si>
+    <t>4.64559</t>
+  </si>
+  <si>
+    <t>0.35212</t>
+  </si>
+  <si>
+    <t>1.54007</t>
+  </si>
+  <si>
+    <t>2.97958</t>
+  </si>
+  <si>
+    <t>1.63324</t>
+  </si>
+  <si>
+    <t>0.23090</t>
+  </si>
+  <si>
+    <t>5.29206</t>
+  </si>
+  <si>
+    <t>7.31723</t>
+  </si>
+  <si>
+    <t>5.61669</t>
+  </si>
+  <si>
+    <t>0.28413</t>
+  </si>
+  <si>
+    <t>7.49021</t>
+  </si>
+  <si>
+    <t>7.63253</t>
+  </si>
+  <si>
+    <t>7.50690</t>
+  </si>
+  <si>
+    <t>0.02084</t>
+  </si>
+  <si>
+    <t>4.69203</t>
+  </si>
+  <si>
+    <t>7.69791</t>
+  </si>
+  <si>
+    <t>4.83306</t>
+  </si>
+  <si>
+    <t>0.56498</t>
+  </si>
+  <si>
+    <t>1.29885</t>
+  </si>
+  <si>
+    <t>2.80030</t>
+  </si>
+  <si>
+    <t>1.35647</t>
+  </si>
+  <si>
+    <t>0.23907</t>
+  </si>
+  <si>
+    <t>4.50489</t>
+  </si>
+  <si>
+    <t>8.79046</t>
+  </si>
+  <si>
+    <t>4.66332</t>
+  </si>
+  <si>
+    <t>0.65955</t>
+  </si>
+  <si>
+    <t>7.22894</t>
+  </si>
+  <si>
+    <t>8.58163</t>
+  </si>
+  <si>
+    <t>7.27443</t>
+  </si>
+  <si>
+    <t>0.20817</t>
+  </si>
+  <si>
+    <t>4.84605</t>
+  </si>
+  <si>
+    <t>10.32567</t>
+  </si>
+  <si>
+    <t>5.06274</t>
+  </si>
+  <si>
+    <t>0.90689</t>
+  </si>
+  <si>
+    <t>1.30042</t>
+  </si>
+  <si>
+    <t>2.86640</t>
+  </si>
+  <si>
+    <t>1.37502</t>
+  </si>
+  <si>
+    <t>0.25112</t>
+  </si>
+  <si>
+    <t>4.33703</t>
+  </si>
+  <si>
+    <t>5.15110</t>
+  </si>
+  <si>
+    <t>4.37045</t>
+  </si>
+  <si>
+    <t>0.15860</t>
+  </si>
+  <si>
+    <t>7.05413</t>
+  </si>
+  <si>
+    <t>10.25190</t>
+  </si>
+  <si>
+    <t>7.25754</t>
+  </si>
+  <si>
+    <t>0.64378</t>
+  </si>
+  <si>
+    <t>5.74079</t>
+  </si>
+  <si>
+    <t>11.33525</t>
+  </si>
+  <si>
+    <t>6.57226</t>
+  </si>
+  <si>
+    <t>0.61538</t>
+  </si>
+  <si>
+    <t>1.74086</t>
+  </si>
+  <si>
+    <t>2.81234</t>
+  </si>
+  <si>
+    <t>1.96680</t>
+  </si>
+  <si>
+    <t>0.21304</t>
+  </si>
+  <si>
+    <t>5.78523</t>
+  </si>
+  <si>
+    <t>11.06311</t>
+  </si>
+  <si>
+    <t>6.26759</t>
+  </si>
+  <si>
+    <t>0.74274</t>
+  </si>
+  <si>
+    <t>7.44408</t>
+  </si>
+  <si>
+    <t>8.96322</t>
+  </si>
+  <si>
+    <t>7.65553</t>
+  </si>
+  <si>
+    <t>0.16260</t>
+  </si>
+  <si>
+    <t>5.48427</t>
+  </si>
+  <si>
+    <t>9.45417</t>
+  </si>
+  <si>
+    <t>5.79046</t>
+  </si>
+  <si>
+    <t>0.71511</t>
+  </si>
+  <si>
+    <t>1.62687</t>
+  </si>
+  <si>
+    <t>2.94980</t>
+  </si>
+  <si>
+    <t>1.74808</t>
+  </si>
+  <si>
+    <t>0.21408</t>
+  </si>
+  <si>
+    <t>4.32014</t>
+  </si>
+  <si>
+    <t>8.17164</t>
+  </si>
+  <si>
+    <t>4.48016</t>
+  </si>
+  <si>
+    <t>0.61800</t>
+  </si>
+  <si>
+    <t>7.17345</t>
+  </si>
+  <si>
+    <t>9.19798</t>
+  </si>
+  <si>
+    <t>7.27296</t>
+  </si>
+  <si>
+    <t>0.30617</t>
+  </si>
+  <si>
+    <t>4.31131</t>
+  </si>
+  <si>
+    <t>6.10359</t>
+  </si>
+  <si>
+    <t>4.43644</t>
+  </si>
+  <si>
+    <t>0.34011</t>
+  </si>
+  <si>
+    <t>1.50215</t>
+  </si>
+  <si>
+    <t>2.79381</t>
+  </si>
+  <si>
+    <t>1.55823</t>
+  </si>
+  <si>
+    <t>0.20207</t>
+  </si>
+  <si>
+    <t>5.34901</t>
+  </si>
+  <si>
+    <t>10.61094</t>
+  </si>
+  <si>
+    <t>5.47169</t>
+  </si>
+  <si>
+    <t>0.60105</t>
+  </si>
+  <si>
+    <t>7.01932</t>
+  </si>
+  <si>
+    <t>8.47158</t>
+  </si>
+  <si>
+    <t>7.06910</t>
+  </si>
+  <si>
+    <t>0.18740</t>
+  </si>
+  <si>
+    <t>4.00420</t>
+  </si>
+  <si>
+    <t>6.31316</t>
+  </si>
+  <si>
+    <t>4.15690</t>
+  </si>
+  <si>
+    <t>0.42354</t>
+  </si>
+  <si>
+    <t>1.34732</t>
+  </si>
+  <si>
+    <t>2.44611</t>
+  </si>
+  <si>
+    <t>1.40292</t>
+  </si>
+  <si>
+    <t>0.20182</t>
+  </si>
+  <si>
+    <t>4.31506</t>
+  </si>
+  <si>
+    <t>7.22895</t>
+  </si>
+  <si>
+    <t>4.46116</t>
+  </si>
+  <si>
+    <t>0.55119</t>
+  </si>
+  <si>
+    <t>7.02070</t>
+  </si>
+  <si>
+    <t>9.26458</t>
+  </si>
+  <si>
+    <t>7.05382</t>
+  </si>
+  <si>
+    <t>0.23444</t>
+  </si>
+  <si>
+    <t>5.04691</t>
+  </si>
+  <si>
+    <t>11.35911</t>
+  </si>
+  <si>
+    <t>6.24613</t>
+  </si>
+  <si>
+    <t>0.80505</t>
+  </si>
+  <si>
+    <t>1.65419</t>
+  </si>
+  <si>
+    <t>2.96512</t>
+  </si>
+  <si>
+    <t>1.90339</t>
+  </si>
+  <si>
+    <t>0.19007</t>
+  </si>
+  <si>
+    <t>4.36692</t>
+  </si>
+  <si>
+    <t>9.82514</t>
+  </si>
+  <si>
+    <t>5.52211</t>
+  </si>
+  <si>
+    <t>0.74136</t>
+  </si>
+  <si>
+    <t>7.25487</t>
+  </si>
+  <si>
+    <t>9.56697</t>
+  </si>
+  <si>
+    <t>7.59341</t>
+  </si>
+  <si>
+    <t>0.31279</t>
+  </si>
+  <si>
+    <t>3.76325</t>
+  </si>
+  <si>
+    <t>7.89722</t>
+  </si>
+  <si>
+    <t>3.98145</t>
+  </si>
+  <si>
+    <t>0.67126</t>
+  </si>
+  <si>
+    <t>1.36232</t>
+  </si>
+  <si>
+    <t>3.11702</t>
+  </si>
+  <si>
+    <t>1.45257</t>
+  </si>
+  <si>
+    <t>0.25027</t>
+  </si>
+  <si>
+    <t>4.31892</t>
+  </si>
+  <si>
+    <t>7.98010</t>
+  </si>
+  <si>
+    <t>4.44671</t>
+  </si>
+  <si>
+    <t>0.53881</t>
+  </si>
+  <si>
+    <t>7.20324</t>
+  </si>
+  <si>
+    <t>10.01753</t>
+  </si>
+  <si>
+    <t>7.28372</t>
+  </si>
+  <si>
+    <t>0.28068</t>
+  </si>
+  <si>
+    <t>5.11198</t>
+  </si>
+  <si>
+    <t>10.88014</t>
+  </si>
+  <si>
+    <t>5.33174</t>
+  </si>
+  <si>
+    <t>0.70442</t>
+  </si>
+  <si>
+    <t>1.30298</t>
+  </si>
+  <si>
+    <t>2.08201</t>
+  </si>
+  <si>
+    <t>1.38268</t>
+  </si>
+  <si>
+    <t>0.13837</t>
+  </si>
+  <si>
+    <t>4.31090</t>
+  </si>
+  <si>
+    <t>9.98887</t>
+  </si>
+  <si>
+    <t>4.55039</t>
+  </si>
+  <si>
+    <t>0.83583</t>
+  </si>
+  <si>
+    <t>7.04294</t>
+  </si>
+  <si>
+    <t>9.64692</t>
+  </si>
+  <si>
+    <t>7.13514</t>
+  </si>
+  <si>
+    <t>0.33125</t>
+  </si>
+  <si>
+    <t>3.74571</t>
+  </si>
+  <si>
+    <t>8.24152</t>
+  </si>
+  <si>
+    <t>3.91310</t>
+  </si>
+  <si>
+    <t>0.66798</t>
+  </si>
+  <si>
+    <t>1.24988</t>
+  </si>
+  <si>
+    <t>2.39366</t>
+  </si>
+  <si>
+    <t>1.30155</t>
+  </si>
+  <si>
+    <t>0.17957</t>
+  </si>
+  <si>
+    <t>4.30521</t>
+  </si>
+  <si>
+    <t>10.24168</t>
+  </si>
+  <si>
+    <t>4.43315</t>
+  </si>
+  <si>
+    <t>0.63879</t>
+  </si>
+  <si>
+    <t>7.00434</t>
+  </si>
+  <si>
+    <t>9.10177</t>
+  </si>
+  <si>
+    <t>7.11297</t>
+  </si>
+  <si>
+    <t>0.37265</t>
+  </si>
+  <si>
+    <t>4.41321</t>
+  </si>
+  <si>
+    <t>9.72308</t>
+  </si>
+  <si>
+    <t>5.39266</t>
+  </si>
+  <si>
+    <t>0.68289</t>
+  </si>
+  <si>
+    <t>1.46442</t>
+  </si>
+  <si>
+    <t>3.64811</t>
+  </si>
+  <si>
+    <t>1.91892</t>
+  </si>
+  <si>
+    <t>0.28091</t>
+  </si>
+  <si>
+    <t>4.50103</t>
+  </si>
+  <si>
+    <t>11.23261</t>
+  </si>
+  <si>
+    <t>5.78321</t>
+  </si>
+  <si>
+    <t>0.90666</t>
+  </si>
+  <si>
+    <t>7.23276</t>
+  </si>
+  <si>
+    <t>9.59255</t>
+  </si>
+  <si>
+    <t>7.54200</t>
+  </si>
+  <si>
+    <t>0.24572</t>
+  </si>
+  <si>
+    <t>4.33494</t>
+  </si>
+  <si>
+    <t>9.27203</t>
+  </si>
+  <si>
+    <t>4.51820</t>
+  </si>
+  <si>
+    <t>0.52093</t>
+  </si>
+  <si>
+    <t>1.32848</t>
+  </si>
+  <si>
+    <t>3.23867</t>
+  </si>
+  <si>
+    <t>1.39844</t>
+  </si>
+  <si>
+    <t>0.20295</t>
+  </si>
+  <si>
+    <t>4.31927</t>
+  </si>
+  <si>
+    <t>10.99012</t>
+  </si>
+  <si>
+    <t>4.53661</t>
+  </si>
+  <si>
+    <t>0.76035</t>
+  </si>
+  <si>
+    <t>7.04686</t>
+  </si>
+  <si>
+    <t>16.52538</t>
+  </si>
+  <si>
+    <t>7.18633</t>
+  </si>
+  <si>
+    <t>0.57253</t>
+  </si>
+  <si>
+    <t>4.10896</t>
+  </si>
+  <si>
+    <t>8.77675</t>
+  </si>
+  <si>
+    <t>4.26159</t>
+  </si>
+  <si>
+    <t>0.56277</t>
+  </si>
+  <si>
+    <t>1.22687</t>
+  </si>
+  <si>
+    <t>2.68926</t>
+  </si>
+  <si>
+    <t>1.28954</t>
+  </si>
+  <si>
+    <t>0.20346</t>
+  </si>
+  <si>
+    <t>4.31701</t>
+  </si>
+  <si>
+    <t>9.57272</t>
+  </si>
+  <si>
+    <t>4.53890</t>
+  </si>
+  <si>
+    <t>0.76751</t>
+  </si>
+  <si>
+    <t>7.01768</t>
+  </si>
+  <si>
+    <t>9.95025</t>
+  </si>
+  <si>
+    <t>7.08537</t>
+  </si>
+  <si>
+    <t>0.30740</t>
+  </si>
+  <si>
+    <t>3.85829</t>
+  </si>
+  <si>
+    <t>7.86784</t>
+  </si>
+  <si>
+    <t>4.05909</t>
+  </si>
+  <si>
+    <t>0.65786</t>
+  </si>
+  <si>
+    <t>1.21172</t>
+  </si>
+  <si>
+    <t>2.65453</t>
+  </si>
+  <si>
+    <t>1.26653</t>
+  </si>
+  <si>
+    <t>0.20108</t>
+  </si>
+  <si>
+    <t>4.30686</t>
+  </si>
+  <si>
+    <t>10.12538</t>
+  </si>
+  <si>
+    <t>4.48776</t>
+  </si>
+  <si>
+    <t>0.72075</t>
+  </si>
+  <si>
+    <t>7.00104</t>
+  </si>
+  <si>
+    <t>10.16668</t>
+  </si>
+  <si>
+    <t>7.10029</t>
+  </si>
+  <si>
+    <t>0.39727</t>
+  </si>
+  <si>
+    <t>12.90693</t>
+  </si>
+  <si>
+    <t>20.08476</t>
+  </si>
+  <si>
+    <t>15.01586</t>
+  </si>
+  <si>
+    <t>1.34664</t>
+  </si>
+  <si>
+    <t>4.05867</t>
+  </si>
+  <si>
+    <t>5.24575</t>
+  </si>
+  <si>
+    <t>4.52058</t>
+  </si>
+  <si>
+    <t>0.21867</t>
+  </si>
+  <si>
+    <t>14.42929</t>
+  </si>
+  <si>
+    <t>17.62422</t>
+  </si>
+  <si>
+    <t>14.86995</t>
+  </si>
+  <si>
+    <t>0.47475</t>
+  </si>
+  <si>
+    <t>9.94227</t>
+  </si>
+  <si>
+    <t>12.33658</t>
+  </si>
+  <si>
+    <t>11.10562</t>
+  </si>
+  <si>
+    <t>0.46019</t>
+  </si>
+  <si>
+    <t>9.17331</t>
+  </si>
+  <si>
+    <t>10.21486</t>
+  </si>
+  <si>
+    <t>9.19707</t>
+  </si>
+  <si>
+    <t>0.14620</t>
+  </si>
+  <si>
+    <t>3.61297</t>
+  </si>
+  <si>
+    <t>4.19288</t>
+  </si>
+  <si>
+    <t>3.63371</t>
+  </si>
+  <si>
+    <t>0.09859</t>
+  </si>
+  <si>
+    <t>11.47094</t>
+  </si>
+  <si>
+    <t>16.46263</t>
+  </si>
+  <si>
+    <t>11.98332</t>
+  </si>
+  <si>
+    <t>0.90386</t>
+  </si>
+  <si>
+    <t>8.73643</t>
+  </si>
+  <si>
+    <t>10.94801</t>
+  </si>
+  <si>
+    <t>8.95142</t>
+  </si>
+  <si>
+    <t>0.30312</t>
+  </si>
+  <si>
+    <t>8.10341</t>
+  </si>
+  <si>
+    <t>13.43546</t>
+  </si>
+  <si>
+    <t>8.45510</t>
+  </si>
+  <si>
+    <t>0.77374</t>
+  </si>
+  <si>
+    <t>2.55652</t>
+  </si>
+  <si>
+    <t>3.68249</t>
+  </si>
+  <si>
+    <t>2.68706</t>
+  </si>
+  <si>
+    <t>0.16996</t>
+  </si>
+  <si>
+    <t>6.55914</t>
+  </si>
+  <si>
+    <t>10.60569</t>
+  </si>
+  <si>
+    <t>6.91266</t>
+  </si>
+  <si>
+    <t>0.67964</t>
+  </si>
+  <si>
+    <t>7.85381</t>
+  </si>
+  <si>
+    <t>9.55791</t>
+  </si>
+  <si>
+    <t>7.95953</t>
+  </si>
+  <si>
+    <t>0.30113</t>
+  </si>
+  <si>
+    <t>6.32563</t>
+  </si>
+  <si>
+    <t>11.78466</t>
+  </si>
+  <si>
+    <t>6.67471</t>
+  </si>
+  <si>
+    <t>1.08118</t>
+  </si>
+  <si>
+    <t>2.27936</t>
+  </si>
+  <si>
+    <t>3.74997</t>
+  </si>
+  <si>
+    <t>2.37598</t>
+  </si>
+  <si>
+    <t>0.28939</t>
+  </si>
+  <si>
+    <t>6.96930</t>
+  </si>
+  <si>
+    <t>9.63908</t>
+  </si>
+  <si>
+    <t>7.14264</t>
+  </si>
+  <si>
+    <t>0.55869</t>
+  </si>
+  <si>
+    <t>7.95951</t>
+  </si>
+  <si>
+    <t>8.96463</t>
+  </si>
+  <si>
+    <t>7.98833</t>
+  </si>
+  <si>
+    <t>0.14003</t>
+  </si>
+  <si>
+    <t>12.66137</t>
+  </si>
+  <si>
+    <t>17.82593</t>
+  </si>
+  <si>
+    <t>14.91838</t>
+  </si>
+  <si>
+    <t>0.95465</t>
+  </si>
+  <si>
+    <t>3.97354</t>
+  </si>
+  <si>
+    <t>6.71582</t>
+  </si>
+  <si>
+    <t>4.84416</t>
+  </si>
+  <si>
+    <t>0.43011</t>
+  </si>
+  <si>
+    <t>12.05451</t>
+  </si>
+  <si>
+    <t>17.90766</t>
+  </si>
+  <si>
+    <t>13.85531</t>
+  </si>
+  <si>
+    <t>0.99071</t>
+  </si>
+  <si>
+    <t>8.64138</t>
+  </si>
+  <si>
+    <t>10.59283</t>
+  </si>
+  <si>
+    <t>9.24981</t>
+  </si>
+  <si>
+    <t>0.28373</t>
+  </si>
+  <si>
+    <t>8.83773</t>
+  </si>
+  <si>
+    <t>14.59829</t>
+  </si>
+  <si>
+    <t>9.21086</t>
+  </si>
+  <si>
+    <t>0.63697</t>
+  </si>
+  <si>
+    <t>2.43532</t>
+  </si>
+  <si>
+    <t>3.70390</t>
+  </si>
+  <si>
+    <t>2.62167</t>
+  </si>
+  <si>
+    <t>0.21958</t>
+  </si>
+  <si>
+    <t>8.04824</t>
+  </si>
+  <si>
+    <t>11.55186</t>
+  </si>
+  <si>
+    <t>8.68233</t>
+  </si>
+  <si>
+    <t>0.46160</t>
+  </si>
+  <si>
+    <t>8.00420</t>
+  </si>
+  <si>
+    <t>10.46317</t>
+  </si>
+  <si>
+    <t>8.20663</t>
+  </si>
+  <si>
+    <t>0.36863</t>
+  </si>
+  <si>
+    <t>8.26468</t>
+  </si>
+  <si>
+    <t>12.55910</t>
+  </si>
+  <si>
+    <t>8.58629</t>
+  </si>
+  <si>
+    <t>0.72147</t>
+  </si>
+  <si>
+    <t>2.09225</t>
+  </si>
+  <si>
+    <t>4.05070</t>
+  </si>
+  <si>
+    <t>2.22194</t>
+  </si>
+  <si>
+    <t>0.31649</t>
+  </si>
+  <si>
+    <t>5.89152</t>
+  </si>
+  <si>
+    <t>11.72534</t>
+  </si>
+  <si>
+    <t>6.26147</t>
+  </si>
+  <si>
+    <t>1.04562</t>
+  </si>
+  <si>
+    <t>8.05080</t>
+  </si>
+  <si>
+    <t>10.00644</t>
+  </si>
+  <si>
+    <t>8.11794</t>
+  </si>
+  <si>
+    <t>0.28151</t>
+  </si>
+  <si>
+    <t>7.21476</t>
+  </si>
+  <si>
+    <t>11.54873</t>
+  </si>
+  <si>
+    <t>7.44739</t>
+  </si>
+  <si>
+    <t>0.67641</t>
+  </si>
+  <si>
+    <t>1.77006</t>
+  </si>
+  <si>
+    <t>3.36528</t>
+  </si>
+  <si>
+    <t>1.80471</t>
+  </si>
+  <si>
+    <t>0.17928</t>
+  </si>
+  <si>
+    <t>5.39291</t>
+  </si>
+  <si>
+    <t>9.46084</t>
+  </si>
+  <si>
+    <t>5.64346</t>
+  </si>
+  <si>
+    <t>0.74110</t>
+  </si>
+  <si>
+    <t>7.44365</t>
+  </si>
+  <si>
+    <t>9.26087</t>
+  </si>
+  <si>
+    <t>7.49262</t>
+  </si>
+  <si>
+    <t>0.24710</t>
+  </si>
+  <si>
+    <t>10.83883</t>
+  </si>
+  <si>
+    <t>19.66463</t>
+  </si>
+  <si>
+    <t>13.78420</t>
+  </si>
+  <si>
+    <t>1.19529</t>
+  </si>
+  <si>
+    <t>2.91021</t>
+  </si>
+  <si>
+    <t>5.84867</t>
+  </si>
+  <si>
+    <t>4.06671</t>
+  </si>
+  <si>
+    <t>0.43458</t>
+  </si>
+  <si>
+    <t>11.23924</t>
+  </si>
+  <si>
+    <t>19.55787</t>
+  </si>
+  <si>
+    <t>14.32098</t>
+  </si>
+  <si>
+    <t>1.13616</t>
+  </si>
+  <si>
+    <t>8.85769</t>
+  </si>
+  <si>
+    <t>12.01692</t>
+  </si>
+  <si>
+    <t>9.41245</t>
+  </si>
+  <si>
+    <t>0.38341</t>
+  </si>
+  <si>
+    <t>7.12642</t>
+  </si>
+  <si>
+    <t>15.31685</t>
+  </si>
+  <si>
+    <t>7.67515</t>
+  </si>
+  <si>
+    <t>1.03877</t>
+  </si>
+  <si>
+    <t>2.35743</t>
+  </si>
+  <si>
+    <t>3.89378</t>
+  </si>
+  <si>
+    <t>2.52325</t>
+  </si>
+  <si>
+    <t>0.20855</t>
+  </si>
+  <si>
+    <t>7.06924</t>
+  </si>
+  <si>
+    <t>12.26078</t>
+  </si>
+  <si>
+    <t>7.50717</t>
+  </si>
+  <si>
+    <t>0.52996</t>
+  </si>
+  <si>
+    <t>7.50406</t>
+  </si>
+  <si>
+    <t>9.81135</t>
+  </si>
+  <si>
+    <t>7.60753</t>
+  </si>
+  <si>
+    <t>0.29850</t>
+  </si>
+  <si>
+    <t>5.62541</t>
+  </si>
+  <si>
+    <t>11.99121</t>
+  </si>
+  <si>
+    <t>5.87486</t>
+  </si>
+  <si>
+    <t>0.79744</t>
+  </si>
+  <si>
+    <t>1.84696</t>
+  </si>
+  <si>
+    <t>3.64202</t>
+  </si>
+  <si>
+    <t>1.91328</t>
+  </si>
+  <si>
+    <t>0.24627</t>
+  </si>
+  <si>
+    <t>5.28665</t>
+  </si>
+  <si>
+    <t>10.85597</t>
+  </si>
+  <si>
+    <t>5.54310</t>
+  </si>
+  <si>
+    <t>0.86081</t>
+  </si>
+  <si>
+    <t>7.67321</t>
+  </si>
+  <si>
+    <t>8.54848</t>
+  </si>
+  <si>
+    <t>7.70701</t>
+  </si>
+  <si>
+    <t>0.10453</t>
+  </si>
+  <si>
+    <t>4.77595</t>
+  </si>
+  <si>
+    <t>10.66848</t>
+  </si>
+  <si>
+    <t>5.01742</t>
+  </si>
+  <si>
+    <t>0.93246</t>
+  </si>
+  <si>
+    <t>1.76419</t>
+  </si>
+  <si>
+    <t>3.74335</t>
+  </si>
+  <si>
+    <t>1.82507</t>
+  </si>
+  <si>
+    <t>0.25423</t>
+  </si>
+  <si>
+    <t>5.36624</t>
+  </si>
+  <si>
+    <t>9.99742</t>
+  </si>
+  <si>
+    <t>5.51595</t>
+  </si>
+  <si>
+    <t>0.56523</t>
+  </si>
+  <si>
+    <t>7.21965</t>
+  </si>
+  <si>
+    <t>10.28454</t>
+  </si>
+  <si>
+    <t>7.30891</t>
+  </si>
+  <si>
+    <t>0.40664</t>
+  </si>
+  <si>
+    <t>9.05271</t>
+  </si>
+  <si>
+    <t>19.12098</t>
+  </si>
+  <si>
+    <t>12.78059</t>
+  </si>
+  <si>
+    <t>1.58281</t>
+  </si>
+  <si>
+    <t>2.83796</t>
+  </si>
+  <si>
+    <t>5.52904</t>
+  </si>
+  <si>
+    <t>3.87895</t>
+  </si>
+  <si>
+    <t>0.42558</t>
+  </si>
+  <si>
+    <t>8.93404</t>
+  </si>
+  <si>
+    <t>19.92724</t>
+  </si>
+  <si>
+    <t>12.57185</t>
+  </si>
+  <si>
+    <t>1.50993</t>
+  </si>
+  <si>
+    <t>8.43258</t>
+  </si>
+  <si>
+    <t>12.23735</t>
+  </si>
+  <si>
+    <t>9.78476</t>
+  </si>
+  <si>
+    <t>0.55649</t>
+  </si>
+  <si>
+    <t>5.61489</t>
+  </si>
+  <si>
+    <t>10.54828</t>
+  </si>
+  <si>
+    <t>6.12961</t>
+  </si>
+  <si>
+    <t>0.59546</t>
+  </si>
+  <si>
+    <t>1.83995</t>
+  </si>
+  <si>
+    <t>3.98252</t>
+  </si>
+  <si>
+    <t>2.05424</t>
+  </si>
+  <si>
+    <t>0.23952</t>
+  </si>
+  <si>
+    <t>5.15171</t>
+  </si>
+  <si>
+    <t>10.13759</t>
+  </si>
+  <si>
+    <t>5.64045</t>
+  </si>
+  <si>
+    <t>0.54843</t>
+  </si>
+  <si>
+    <t>7.46647</t>
+  </si>
+  <si>
+    <t>10.27909</t>
+  </si>
+  <si>
+    <t>7.61109</t>
+  </si>
+  <si>
+    <t>0.32670</t>
+  </si>
+  <si>
+    <t>5.13593</t>
+  </si>
+  <si>
+    <t>10.15436</t>
+  </si>
+  <si>
+    <t>5.30437</t>
+  </si>
+  <si>
+    <t>0.55570</t>
+  </si>
+  <si>
+    <t>1.65921</t>
+  </si>
+  <si>
+    <t>3.83512</t>
+  </si>
+  <si>
+    <t>1.74843</t>
+  </si>
+  <si>
+    <t>0.24110</t>
+  </si>
+  <si>
+    <t>4.96658</t>
+  </si>
+  <si>
+    <t>9.74641</t>
+  </si>
+  <si>
+    <t>5.15429</t>
+  </si>
+  <si>
+    <t>0.60083</t>
+  </si>
+  <si>
+    <t>7.21208</t>
+  </si>
+  <si>
+    <t>10.03348</t>
+  </si>
+  <si>
+    <t>7.30390</t>
+  </si>
+  <si>
+    <t>0.33890</t>
+  </si>
+  <si>
+    <t>5.05520</t>
+  </si>
+  <si>
+    <t>11.94884</t>
+  </si>
+  <si>
+    <t>5.23869</t>
+  </si>
+  <si>
+    <t>0.75076</t>
+  </si>
+  <si>
+    <t>1.51804</t>
+  </si>
+  <si>
+    <t>3.26266</t>
+  </si>
+  <si>
+    <t>1.58343</t>
+  </si>
+  <si>
+    <t>0.24147</t>
+  </si>
+  <si>
+    <t>4.34627</t>
+  </si>
+  <si>
+    <t>10.32022</t>
+  </si>
+  <si>
+    <t>4.51603</t>
+  </si>
+  <si>
+    <t>0.68716</t>
+  </si>
+  <si>
+    <t>7.19389</t>
+  </si>
+  <si>
+    <t>10.01160</t>
+  </si>
+  <si>
+    <t>7.29055</t>
+  </si>
+  <si>
+    <t>0.37706</t>
+  </si>
+  <si>
     <t>Prob. Mutação</t>
   </si>
   <si>
@@ -84,13 +1620,877 @@
     <t>Roleta</t>
   </si>
   <si>
+    <t>6.68039</t>
+  </si>
+  <si>
+    <t>0.68343</t>
+  </si>
+  <si>
+    <t>2.05197</t>
+  </si>
+  <si>
+    <t>0.36717</t>
+  </si>
+  <si>
+    <t>6.91467</t>
+  </si>
+  <si>
+    <t>1.25434</t>
+  </si>
+  <si>
+    <t>8.44181</t>
+  </si>
+  <si>
+    <t>0.48244</t>
+  </si>
+  <si>
     <t>Torneio (tam. 2)</t>
   </si>
   <si>
+    <t>4.27114</t>
+  </si>
+  <si>
+    <t>0.31896</t>
+  </si>
+  <si>
+    <t>1.43930</t>
+  </si>
+  <si>
+    <t>0.12750</t>
+  </si>
+  <si>
+    <t>4.52251</t>
+  </si>
+  <si>
+    <t>0.45303</t>
+  </si>
+  <si>
+    <t>7.15066</t>
+  </si>
+  <si>
+    <t>0.31553</t>
+  </si>
+  <si>
     <t>Torneio (tam. 5)</t>
   </si>
   <si>
+    <t>4.04773</t>
+  </si>
+  <si>
+    <t>0.58973</t>
+  </si>
+  <si>
+    <t>1.63236</t>
+  </si>
+  <si>
+    <t>0.07889</t>
+  </si>
+  <si>
+    <t>4.59144</t>
+  </si>
+  <si>
+    <t>0.43277</t>
+  </si>
+  <si>
+    <t>7.08642</t>
+  </si>
+  <si>
+    <t>0.22288</t>
+  </si>
+  <si>
     <t>Torneio (tam. 10)</t>
+  </si>
+  <si>
+    <t>4.12586</t>
+  </si>
+  <si>
+    <t>0.32323</t>
+  </si>
+  <si>
+    <t>1.54117</t>
+  </si>
+  <si>
+    <t>0.18913</t>
+  </si>
+  <si>
+    <t>4.40893</t>
+  </si>
+  <si>
+    <t>0.39955</t>
+  </si>
+  <si>
+    <t>7.10289</t>
+  </si>
+  <si>
+    <t>0.18388</t>
+  </si>
+  <si>
+    <t>4.66140</t>
+  </si>
+  <si>
+    <t>0.58790</t>
+  </si>
+  <si>
+    <t>2.18888</t>
+  </si>
+  <si>
+    <t>0.23265</t>
+  </si>
+  <si>
+    <t>5.88633</t>
+  </si>
+  <si>
+    <t>0.61889</t>
+  </si>
+  <si>
+    <t>8.40378</t>
+  </si>
+  <si>
+    <t>0.56347</t>
+  </si>
+  <si>
+    <t>4.28144</t>
+  </si>
+  <si>
+    <t>0.50091</t>
+  </si>
+  <si>
+    <t>1.43960</t>
+  </si>
+  <si>
+    <t>0.12799</t>
+  </si>
+  <si>
+    <t>4.36276</t>
+  </si>
+  <si>
+    <t>0.27901</t>
+  </si>
+  <si>
+    <t>7.17559</t>
+  </si>
+  <si>
+    <t>0.27587</t>
+  </si>
+  <si>
+    <t>5.28343</t>
+  </si>
+  <si>
+    <t>0.43068</t>
+  </si>
+  <si>
+    <t>1.20894</t>
+  </si>
+  <si>
+    <t>0.11787</t>
+  </si>
+  <si>
+    <t>4.72214</t>
+  </si>
+  <si>
+    <t>0.52227</t>
+  </si>
+  <si>
+    <t>7.11892</t>
+  </si>
+  <si>
+    <t>0.23536</t>
+  </si>
+  <si>
+    <t>4.59535</t>
+  </si>
+  <si>
+    <t>0.34797</t>
+  </si>
+  <si>
+    <t>1.31852</t>
+  </si>
+  <si>
+    <t>0.09603</t>
+  </si>
+  <si>
+    <t>4.35497</t>
+  </si>
+  <si>
+    <t>0.25568</t>
+  </si>
+  <si>
+    <t>7.05987</t>
+  </si>
+  <si>
+    <t>0.12863</t>
+  </si>
+  <si>
+    <t>5.84771</t>
+  </si>
+  <si>
+    <t>0.64446</t>
+  </si>
+  <si>
+    <t>1.53837</t>
+  </si>
+  <si>
+    <t>0.18036</t>
+  </si>
+  <si>
+    <t>5.03998</t>
+  </si>
+  <si>
+    <t>0.89779</t>
+  </si>
+  <si>
+    <t>8.46302</t>
+  </si>
+  <si>
+    <t>0.52981</t>
+  </si>
+  <si>
+    <t>4.95266</t>
+  </si>
+  <si>
+    <t>0.56187</t>
+  </si>
+  <si>
+    <t>1.28043</t>
+  </si>
+  <si>
+    <t>0.12398</t>
+  </si>
+  <si>
+    <t>4.37051</t>
+  </si>
+  <si>
+    <t>0.22328</t>
+  </si>
+  <si>
+    <t>7.13618</t>
+  </si>
+  <si>
+    <t>0.17404</t>
+  </si>
+  <si>
+    <t>4.06296</t>
+  </si>
+  <si>
+    <t>0.42150</t>
+  </si>
+  <si>
+    <t>1.32659</t>
+  </si>
+  <si>
+    <t>0.12063</t>
+  </si>
+  <si>
+    <t>4.46822</t>
+  </si>
+  <si>
+    <t>0.69465</t>
+  </si>
+  <si>
+    <t>7.05755</t>
+  </si>
+  <si>
+    <t>0.21733</t>
+  </si>
+  <si>
+    <t>3.97339</t>
+  </si>
+  <si>
+    <t>0.40844</t>
+  </si>
+  <si>
+    <t>1.44970</t>
+  </si>
+  <si>
+    <t>0.18767</t>
+  </si>
+  <si>
+    <t>4.35632</t>
+  </si>
+  <si>
+    <t>0.32410</t>
+  </si>
+  <si>
+    <t>7.04414</t>
+  </si>
+  <si>
+    <t>0.03765</t>
+  </si>
+  <si>
+    <t>5.46700</t>
+  </si>
+  <si>
+    <t>1.15242</t>
+  </si>
+  <si>
+    <t>1.93370</t>
+  </si>
+  <si>
+    <t>0.44981</t>
+  </si>
+  <si>
+    <t>5.29317</t>
+  </si>
+  <si>
+    <t>1.12829</t>
+  </si>
+  <si>
+    <t>8.30837</t>
+  </si>
+  <si>
+    <t>0.65050</t>
+  </si>
+  <si>
+    <t>4.70121</t>
+  </si>
+  <si>
+    <t>0.73679</t>
+  </si>
+  <si>
+    <t>1.64209</t>
+  </si>
+  <si>
+    <t>0.18963</t>
+  </si>
+  <si>
+    <t>4.60372</t>
+  </si>
+  <si>
+    <t>0.69932</t>
+  </si>
+  <si>
+    <t>7.19657</t>
+  </si>
+  <si>
+    <t>0.25854</t>
+  </si>
+  <si>
+    <t>4.54890</t>
+  </si>
+  <si>
+    <t>0.52516</t>
+  </si>
+  <si>
+    <t>1.47695</t>
+  </si>
+  <si>
+    <t>0.13263</t>
+  </si>
+  <si>
+    <t>4.52892</t>
+  </si>
+  <si>
+    <t>0.63478</t>
+  </si>
+  <si>
+    <t>7.10532</t>
+  </si>
+  <si>
+    <t>0.31462</t>
+  </si>
+  <si>
+    <t>4.62920</t>
+  </si>
+  <si>
+    <t>0.63380</t>
+  </si>
+  <si>
+    <t>1.30013</t>
+  </si>
+  <si>
+    <t>0.18766</t>
+  </si>
+  <si>
+    <t>4.56562</t>
+  </si>
+  <si>
+    <t>0.44956</t>
+  </si>
+  <si>
+    <t>7.13281</t>
+  </si>
+  <si>
+    <t>0.36448</t>
+  </si>
+  <si>
+    <t>6.48320</t>
+  </si>
+  <si>
+    <t>1.10962</t>
+  </si>
+  <si>
+    <t>2.08009</t>
+  </si>
+  <si>
+    <t>0.37945</t>
+  </si>
+  <si>
+    <t>5.77106</t>
+  </si>
+  <si>
+    <t>1.05667</t>
+  </si>
+  <si>
+    <t>8.26404</t>
+  </si>
+  <si>
+    <t>0.72117</t>
+  </si>
+  <si>
+    <t>4.78615</t>
+  </si>
+  <si>
+    <t>0.61919</t>
+  </si>
+  <si>
+    <t>1.85061</t>
+  </si>
+  <si>
+    <t>0.23789</t>
+  </si>
+  <si>
+    <t>4.62061</t>
+  </si>
+  <si>
+    <t>0.81047</t>
+  </si>
+  <si>
+    <t>7.10172</t>
+  </si>
+  <si>
+    <t>0.26676</t>
+  </si>
+  <si>
+    <t>5.46798</t>
+  </si>
+  <si>
+    <t>0.45753</t>
+  </si>
+  <si>
+    <t>1.59126</t>
+  </si>
+  <si>
+    <t>0.25436</t>
+  </si>
+  <si>
+    <t>4.48308</t>
+  </si>
+  <si>
+    <t>0.73457</t>
+  </si>
+  <si>
+    <t>7.07485</t>
+  </si>
+  <si>
+    <t>0.25703</t>
+  </si>
+  <si>
+    <t>4.29601</t>
+  </si>
+  <si>
+    <t>0.48507</t>
+  </si>
+  <si>
+    <t>1.37074</t>
+  </si>
+  <si>
+    <t>0.17350</t>
+  </si>
+  <si>
+    <t>4.48937</t>
+  </si>
+  <si>
+    <t>0.70993</t>
+  </si>
+  <si>
+    <t>7.10058</t>
+  </si>
+  <si>
+    <t>0.33372</t>
+  </si>
+  <si>
+    <t>5.33024</t>
+  </si>
+  <si>
+    <t>1.27658</t>
+  </si>
+  <si>
+    <t>2.14304</t>
+  </si>
+  <si>
+    <t>0.48172</t>
+  </si>
+  <si>
+    <t>5.06301</t>
+  </si>
+  <si>
+    <t>1.11341</t>
+  </si>
+  <si>
+    <t>8.49825</t>
+  </si>
+  <si>
+    <t>0.62370</t>
+  </si>
+  <si>
+    <t>4.35625</t>
+  </si>
+  <si>
+    <t>0.66893</t>
+  </si>
+  <si>
+    <t>1.48012</t>
+  </si>
+  <si>
+    <t>0.20613</t>
+  </si>
+  <si>
+    <t>4.63192</t>
+  </si>
+  <si>
+    <t>0.85175</t>
+  </si>
+  <si>
+    <t>7.15881</t>
+  </si>
+  <si>
+    <t>0.32632</t>
+  </si>
+  <si>
+    <t>4.39065</t>
+  </si>
+  <si>
+    <t>0.57650</t>
+  </si>
+  <si>
+    <t>1.39777</t>
+  </si>
+  <si>
+    <t>0.13382</t>
+  </si>
+  <si>
+    <t>4.43214</t>
+  </si>
+  <si>
+    <t>0.61356</t>
+  </si>
+  <si>
+    <t>7.14057</t>
+  </si>
+  <si>
+    <t>0.39190</t>
+  </si>
+  <si>
+    <t>4.25606</t>
+  </si>
+  <si>
+    <t>0.51818</t>
+  </si>
+  <si>
+    <t>1.26324</t>
+  </si>
+  <si>
+    <t>0.18261</t>
+  </si>
+  <si>
+    <t>4.49248</t>
+  </si>
+  <si>
+    <t>0.77642</t>
+  </si>
+  <si>
+    <t>7.09934</t>
+  </si>
+  <si>
+    <t>0.32889</t>
+  </si>
+  <si>
+    <t>7.86924</t>
+  </si>
+  <si>
+    <t>1.60796</t>
+  </si>
+  <si>
+    <t>2.22424</t>
+  </si>
+  <si>
+    <t>0.48241</t>
+  </si>
+  <si>
+    <t>6.00166</t>
+  </si>
+  <si>
+    <t>1.20421</t>
+  </si>
+  <si>
+    <t>9.42538</t>
+  </si>
+  <si>
+    <t>0.99978</t>
+  </si>
+  <si>
+    <t>4.15059</t>
+  </si>
+  <si>
+    <t>0.79370</t>
+  </si>
+  <si>
+    <t>1.56944</t>
+  </si>
+  <si>
+    <t>0.27876</t>
+  </si>
+  <si>
+    <t>4.62439</t>
+  </si>
+  <si>
+    <t>0.99836</t>
+  </si>
+  <si>
+    <t>7.21041</t>
+  </si>
+  <si>
+    <t>0.43195</t>
+  </si>
+  <si>
+    <t>5.03384</t>
+  </si>
+  <si>
+    <t>0.73326</t>
+  </si>
+  <si>
+    <t>1.63462</t>
+  </si>
+  <si>
+    <t>0.19765</t>
+  </si>
+  <si>
+    <t>4.49014</t>
+  </si>
+  <si>
+    <t>0.68886</t>
+  </si>
+  <si>
+    <t>7.11027</t>
+  </si>
+  <si>
+    <t>0.34748</t>
+  </si>
+  <si>
+    <t>4.07465</t>
+  </si>
+  <si>
+    <t>0.79606</t>
+  </si>
+  <si>
+    <t>1.42793</t>
+  </si>
+  <si>
+    <t>0.26548</t>
+  </si>
+  <si>
+    <t>4.54102</t>
+  </si>
+  <si>
+    <t>0.81923</t>
+  </si>
+  <si>
+    <t>7.16674</t>
+  </si>
+  <si>
+    <t>0.45696</t>
+  </si>
+  <si>
+    <t>6.23495</t>
+  </si>
+  <si>
+    <t>1.35817</t>
+  </si>
+  <si>
+    <t>1.71561</t>
+  </si>
+  <si>
+    <t>0.38599</t>
+  </si>
+  <si>
+    <t>6.35272</t>
+  </si>
+  <si>
+    <t>1.49493</t>
+  </si>
+  <si>
+    <t>8.83343</t>
+  </si>
+  <si>
+    <t>0.80464</t>
+  </si>
+  <si>
+    <t>5.12958</t>
+  </si>
+  <si>
+    <t>0.99588</t>
+  </si>
+  <si>
+    <t>1.81409</t>
+  </si>
+  <si>
+    <t>0.26593</t>
+  </si>
+  <si>
+    <t>4.65108</t>
+  </si>
+  <si>
+    <t>0.51272</t>
+  </si>
+  <si>
+    <t>7.16846</t>
+  </si>
+  <si>
+    <t>0.44688</t>
+  </si>
+  <si>
+    <t>4.89017</t>
+  </si>
+  <si>
+    <t>0.75079</t>
+  </si>
+  <si>
+    <t>1.41953</t>
+  </si>
+  <si>
+    <t>0.26102</t>
+  </si>
+  <si>
+    <t>4.63049</t>
+  </si>
+  <si>
+    <t>0.87667</t>
+  </si>
+  <si>
+    <t>7.12664</t>
+  </si>
+  <si>
+    <t>0.40761</t>
+  </si>
+  <si>
+    <t>3.88232</t>
+  </si>
+  <si>
+    <t>0.80652</t>
+  </si>
+  <si>
+    <t>1.52437</t>
+  </si>
+  <si>
+    <t>0.24609</t>
+  </si>
+  <si>
+    <t>4.56211</t>
+  </si>
+  <si>
+    <t>0.83454</t>
+  </si>
+  <si>
+    <t>7.11130</t>
+  </si>
+  <si>
+    <t>0.36199</t>
+  </si>
+  <si>
+    <t>5.95065</t>
+  </si>
+  <si>
+    <t>1.37588</t>
+  </si>
+  <si>
+    <t>2.08449</t>
+  </si>
+  <si>
+    <t>0.41174</t>
+  </si>
+  <si>
+    <t>5.74720</t>
+  </si>
+  <si>
+    <t>1.50009</t>
+  </si>
+  <si>
+    <t>8.87104</t>
+  </si>
+  <si>
+    <t>1.02805</t>
+  </si>
+  <si>
+    <t>4.33884</t>
+  </si>
+  <si>
+    <t>0.70109</t>
+  </si>
+  <si>
+    <t>1.35133</t>
+  </si>
+  <si>
+    <t>0.27218</t>
+  </si>
+  <si>
+    <t>4.62316</t>
+  </si>
+  <si>
+    <t>1.02838</t>
+  </si>
+  <si>
+    <t>7.18805</t>
+  </si>
+  <si>
+    <t>0.42431</t>
+  </si>
+  <si>
+    <t>4.72907</t>
+  </si>
+  <si>
+    <t>0.98330</t>
+  </si>
+  <si>
+    <t>1.50207</t>
+  </si>
+  <si>
+    <t>0.24469</t>
+  </si>
+  <si>
+    <t>4.51840</t>
+  </si>
+  <si>
+    <t>0.71312</t>
+  </si>
+  <si>
+    <t>7.12913</t>
+  </si>
+  <si>
+    <t>0.39537</t>
+  </si>
+  <si>
+    <t>4.58563</t>
+  </si>
+  <si>
+    <t>0.94267</t>
+  </si>
+  <si>
+    <t>1.47910</t>
+  </si>
+  <si>
+    <t>0.27825</t>
+  </si>
+  <si>
+    <t>4.55750</t>
+  </si>
+  <si>
+    <t>0.85694</t>
+  </si>
+  <si>
+    <t>7.16106</t>
+  </si>
+  <si>
+    <t>0.53973</t>
   </si>
   <si>
     <t>N. Recombinação</t>
@@ -1307,7 +3707,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
@@ -1440,9 +3840,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -1527,14 +3924,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.86666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.72941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.5098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.4941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="20" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.8392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.5960784313725"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
@@ -1792,22 +4191,54 @@
       <c r="X4" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="Y4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
       <c r="B5" s="15"/>
@@ -1868,22 +4299,54 @@
       <c r="X5" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="27"/>
+      <c r="Y5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN5" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
       <c r="B6" s="15"/>
@@ -1948,22 +4411,54 @@
       <c r="X6" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="27"/>
+      <c r="Y6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN6" s="27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="B7" s="15"/>
@@ -2024,22 +4519,54 @@
       <c r="X7" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33"/>
+      <c r="Y7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7" s="33" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="B8" s="15"/>
@@ -2100,22 +4627,54 @@
       <c r="X8" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="20"/>
+      <c r="Y8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN8" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
       <c r="B9" s="15"/>
@@ -2176,22 +4735,54 @@
       <c r="X9" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="27"/>
+      <c r="Y9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF9" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI9" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="27" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="B10" s="15"/>
@@ -2256,22 +4847,54 @@
       <c r="X10" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="27"/>
+      <c r="Y10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD10" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH10" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI10" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN10" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
       <c r="B11" s="15" t="n">
@@ -2336,22 +4959,54 @@
       <c r="X11" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="33"/>
+      <c r="Y11" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF11" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN11" s="33" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
       <c r="B12" s="15"/>
@@ -2412,22 +5067,54 @@
       <c r="X12" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20"/>
+      <c r="Y12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF12" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM12" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN12" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
       <c r="B13" s="15"/>
@@ -2488,22 +5175,54 @@
       <c r="X13" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="27"/>
+      <c r="Y13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC13" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF13" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI13" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ13" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK13" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM13" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN13" s="27" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="B14" s="15"/>
@@ -2568,22 +5287,54 @@
       <c r="X14" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="27"/>
+      <c r="Y14" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE14" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF14" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH14" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI14" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ14" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL14" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM14" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN14" s="27" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
       <c r="B15" s="15"/>
@@ -2644,22 +5395,54 @@
       <c r="X15" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="33"/>
+      <c r="Y15" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD15" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE15" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF15" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ15" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK15" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM15" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN15" s="33" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="B16" s="15"/>
@@ -2720,22 +5503,54 @@
       <c r="X16" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="20"/>
+      <c r="Y16" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB16" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC16" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG16" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK16" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM16" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN16" s="20" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="B17" s="15"/>
@@ -2796,22 +5611,54 @@
       <c r="X17" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="27"/>
+      <c r="Y17" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z17" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA17" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC17" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD17" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE17" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF17" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG17" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ17" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK17" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL17" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM17" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN17" s="27" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
       <c r="B18" s="15"/>
@@ -2876,22 +5723,54 @@
       <c r="X18" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="27"/>
+      <c r="Y18" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z18" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA18" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD18" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE18" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF18" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG18" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH18" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI18" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ18" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK18" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL18" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM18" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN18" s="27" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
       <c r="B19" s="36"/>
@@ -2952,22 +5831,54 @@
       <c r="X19" s="38" t="n">
         <v>250</v>
       </c>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="41"/>
+      <c r="Y19" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z19" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA19" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB19" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC19" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD19" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE19" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF19" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG19" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH19" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI19" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ19" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK19" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL19" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM19" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN19" s="41" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
       <c r="B20" s="15"/>
@@ -3028,22 +5939,54 @@
       <c r="X20" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="20"/>
+      <c r="Y20" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF20" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH20" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI20" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ20" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK20" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL20" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM20" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN20" s="20" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
       <c r="B21" s="15"/>
@@ -3104,22 +6047,54 @@
       <c r="X21" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="27"/>
+      <c r="Y21" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z21" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA21" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB21" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC21" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD21" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE21" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF21" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG21" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ21" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK21" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL21" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM21" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN21" s="27" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="B22" s="15"/>
@@ -3184,22 +6159,54 @@
       <c r="X22" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="27"/>
+      <c r="Y22" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z22" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA22" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC22" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD22" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE22" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF22" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG22" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH22" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI22" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ22" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK22" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL22" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM22" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN22" s="27" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="B23" s="15"/>
@@ -3260,22 +6267,54 @@
       <c r="X23" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="33"/>
+      <c r="Y23" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z23" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA23" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC23" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD23" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE23" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF23" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG23" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH23" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI23" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AJ23" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK23" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL23" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM23" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN23" s="33" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
       <c r="B24" s="15"/>
@@ -3336,22 +6375,54 @@
       <c r="X24" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="20"/>
+      <c r="Y24" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z24" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA24" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC24" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE24" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF24" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG24" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH24" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI24" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK24" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL24" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM24" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN24" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
       <c r="B25" s="15"/>
@@ -3412,22 +6483,54 @@
       <c r="X25" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="27"/>
+      <c r="Y25" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA25" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC25" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD25" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE25" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF25" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG25" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI25" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ25" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK25" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL25" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM25" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN25" s="27" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
       <c r="B26" s="15"/>
@@ -3492,22 +6595,54 @@
       <c r="X26" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="27"/>
+      <c r="Y26" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z26" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA26" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB26" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD26" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE26" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF26" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG26" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH26" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI26" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ26" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK26" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL26" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM26" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN26" s="27" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="B27" s="15" t="n">
@@ -3572,22 +6707,54 @@
       <c r="X27" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="33"/>
+      <c r="Y27" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z27" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA27" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB27" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC27" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD27" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE27" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF27" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG27" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH27" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI27" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ27" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK27" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL27" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM27" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN27" s="33" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="B28" s="15"/>
@@ -3648,22 +6815,54 @@
       <c r="X28" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="20"/>
+      <c r="Y28" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z28" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA28" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB28" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC28" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD28" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE28" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="AF28" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG28" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH28" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI28" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ28" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK28" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL28" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM28" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN28" s="20" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="B29" s="15"/>
@@ -3724,22 +6923,54 @@
       <c r="X29" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="27"/>
+      <c r="Y29" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z29" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA29" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB29" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC29" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD29" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE29" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF29" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG29" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH29" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI29" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ29" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK29" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL29" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM29" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN29" s="27" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="B30" s="15"/>
@@ -3804,22 +7035,54 @@
       <c r="X30" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="27"/>
+      <c r="Y30" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA30" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB30" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC30" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD30" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE30" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF30" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG30" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH30" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI30" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ30" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK30" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="AL30" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM30" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN30" s="27" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="B31" s="15"/>
@@ -3880,22 +7143,54 @@
       <c r="X31" s="30" t="n">
         <v>250</v>
       </c>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="33"/>
+      <c r="Y31" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z31" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA31" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC31" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD31" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE31" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF31" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG31" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH31" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI31" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ31" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK31" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL31" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM31" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN31" s="33" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="B32" s="15"/>
@@ -3956,22 +7251,54 @@
       <c r="X32" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="20"/>
+      <c r="Y32" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z32" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA32" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB32" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC32" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD32" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE32" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF32" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG32" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH32" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI32" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ32" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK32" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL32" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM32" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="AN32" s="20" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="B33" s="15"/>
@@ -4032,22 +7359,54 @@
       <c r="X33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="27"/>
+      <c r="Y33" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z33" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB33" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC33" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD33" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE33" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF33" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG33" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="AH33" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI33" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ33" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK33" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL33" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM33" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN33" s="27" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="B34" s="15"/>
@@ -4112,22 +7471,54 @@
       <c r="X34" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="27"/>
+      <c r="Y34" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z34" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA34" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC34" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD34" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE34" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF34" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG34" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="AH34" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="AI34" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ34" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK34" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL34" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM34" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AN34" s="27" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="B35" s="36"/>
@@ -4188,22 +7579,54 @@
       <c r="X35" s="38" t="n">
         <v>250</v>
       </c>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="40"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="41"/>
+      <c r="Y35" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z35" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA35" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB35" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC35" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD35" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE35" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF35" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG35" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH35" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI35" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="AJ35" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK35" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL35" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM35" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="AN35" s="41" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="B38" s="1" t="s">
@@ -4287,13 +7710,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>530</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>14</v>
@@ -4344,13 +7767,13 @@
         <v>17</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>18</v>
+        <v>530</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="Y39" s="10" t="s">
         <v>14</v>
@@ -4405,7 +7828,7 @@
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E40" s="18" t="n">
         <v>5.09573</v>
@@ -4458,30 +7881,46 @@
       <c r="V40" s="15"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y40" s="18"/>
       <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="20"/>
+      <c r="AA40" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>535</v>
+      </c>
       <c r="AC40" s="21"/>
       <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="22"/>
+      <c r="AE40" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF40" s="22" t="s">
+        <v>537</v>
+      </c>
       <c r="AG40" s="18"/>
       <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="20"/>
+      <c r="AI40" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="AJ40" s="20" t="s">
+        <v>539</v>
+      </c>
       <c r="AK40" s="21"/>
       <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="20"/>
+      <c r="AM40" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="AN40" s="20" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
       <c r="B41" s="15"/>
       <c r="C41" s="23"/>
       <c r="D41" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E41" s="25" t="n">
         <v>5.36399</v>
@@ -4534,24 +7973,40 @@
       <c r="V41" s="15"/>
       <c r="W41" s="23"/>
       <c r="X41" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y41" s="25"/>
       <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="27"/>
+      <c r="AA41" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB41" s="27" t="s">
+        <v>544</v>
+      </c>
       <c r="AC41" s="28"/>
       <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="29"/>
+      <c r="AE41" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF41" s="29" t="s">
+        <v>546</v>
+      </c>
       <c r="AG41" s="25"/>
       <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="27"/>
+      <c r="AI41" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="AJ41" s="27" t="s">
+        <v>548</v>
+      </c>
       <c r="AK41" s="28"/>
       <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="27"/>
+      <c r="AM41" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN41" s="27" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="B42" s="15"/>
@@ -4559,7 +8014,7 @@
         <v>0.1</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E42" s="25" t="n">
         <v>4.18054</v>
@@ -4614,30 +8069,46 @@
         <v>0.1</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="27"/>
+      <c r="AA42" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB42" s="27" t="s">
+        <v>553</v>
+      </c>
       <c r="AC42" s="28"/>
       <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="29"/>
+      <c r="AE42" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF42" s="29" t="s">
+        <v>555</v>
+      </c>
       <c r="AG42" s="25"/>
       <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="27"/>
+      <c r="AI42" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ42" s="27" t="s">
+        <v>557</v>
+      </c>
       <c r="AK42" s="28"/>
       <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="27"/>
+      <c r="AM42" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN42" s="27" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="B43" s="15"/>
       <c r="C43" s="23"/>
       <c r="D43" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E43" s="31" t="n">
         <v>4.40855</v>
@@ -4690,30 +8161,46 @@
       <c r="V43" s="15"/>
       <c r="W43" s="23"/>
       <c r="X43" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y43" s="31"/>
       <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="33"/>
+      <c r="AA43" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB43" s="33" t="s">
+        <v>562</v>
+      </c>
       <c r="AC43" s="34"/>
       <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="35"/>
+      <c r="AE43" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF43" s="35" t="s">
+        <v>564</v>
+      </c>
       <c r="AG43" s="31"/>
       <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="33"/>
+      <c r="AI43" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ43" s="33" t="s">
+        <v>566</v>
+      </c>
       <c r="AK43" s="34"/>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="33"/>
+      <c r="AM43" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="AN43" s="33" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E44" s="18" t="n">
         <v>4.44716</v>
@@ -4766,30 +8253,46 @@
       <c r="V44" s="15"/>
       <c r="W44" s="16"/>
       <c r="X44" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y44" s="18"/>
       <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="20"/>
+      <c r="AA44" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB44" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="AC44" s="21"/>
       <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="22"/>
+      <c r="AE44" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF44" s="22" t="s">
+        <v>572</v>
+      </c>
       <c r="AG44" s="18"/>
       <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="20"/>
+      <c r="AI44" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="AJ44" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="AK44" s="21"/>
       <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="20"/>
+      <c r="AM44" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AN44" s="20" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="B45" s="15"/>
       <c r="C45" s="23"/>
       <c r="D45" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E45" s="25" t="n">
         <v>4.7351</v>
@@ -4842,24 +8345,40 @@
       <c r="V45" s="15"/>
       <c r="W45" s="23"/>
       <c r="X45" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y45" s="25"/>
       <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="27"/>
+      <c r="AA45" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB45" s="27" t="s">
+        <v>578</v>
+      </c>
       <c r="AC45" s="28"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="29"/>
+      <c r="AE45" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="AF45" s="29" t="s">
+        <v>580</v>
+      </c>
       <c r="AG45" s="25"/>
       <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="27"/>
+      <c r="AI45" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ45" s="27" t="s">
+        <v>582</v>
+      </c>
       <c r="AK45" s="28"/>
       <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="27"/>
+      <c r="AM45" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN45" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="B46" s="45" t="n">
@@ -4869,7 +8388,7 @@
         <v>0.25</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E46" s="25" t="n">
         <v>4.10892</v>
@@ -4926,30 +8445,46 @@
         <v>0.25</v>
       </c>
       <c r="X46" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="27"/>
+      <c r="AA46" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB46" s="27" t="s">
+        <v>586</v>
+      </c>
       <c r="AC46" s="28"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="29"/>
+      <c r="AE46" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF46" s="29" t="s">
+        <v>588</v>
+      </c>
       <c r="AG46" s="25"/>
       <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="27"/>
+      <c r="AI46" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="AJ46" s="27" t="s">
+        <v>590</v>
+      </c>
       <c r="AK46" s="28"/>
       <c r="AL46" s="26"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="27"/>
+      <c r="AM46" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="AN46" s="27" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="B47" s="15"/>
       <c r="C47" s="23"/>
       <c r="D47" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E47" s="31" t="n">
         <v>5.43876</v>
@@ -5002,30 +8537,46 @@
       <c r="V47" s="15"/>
       <c r="W47" s="23"/>
       <c r="X47" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y47" s="31"/>
       <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="33"/>
+      <c r="AA47" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB47" s="33" t="s">
+        <v>594</v>
+      </c>
       <c r="AC47" s="34"/>
       <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="35"/>
+      <c r="AE47" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF47" s="35" t="s">
+        <v>596</v>
+      </c>
       <c r="AG47" s="31"/>
       <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="33"/>
+      <c r="AI47" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ47" s="33" t="s">
+        <v>598</v>
+      </c>
       <c r="AK47" s="34"/>
       <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="33"/>
+      <c r="AM47" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN47" s="33" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E48" s="18" t="n">
         <v>4.10511</v>
@@ -5078,30 +8629,46 @@
       <c r="V48" s="15"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y48" s="18"/>
       <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="20"/>
+      <c r="AA48" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB48" s="20" t="s">
+        <v>602</v>
+      </c>
       <c r="AC48" s="21"/>
       <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="22"/>
+      <c r="AE48" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF48" s="22" t="s">
+        <v>604</v>
+      </c>
       <c r="AG48" s="18"/>
       <c r="AH48" s="19"/>
-      <c r="AI48" s="19"/>
-      <c r="AJ48" s="20"/>
+      <c r="AI48" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ48" s="20" t="s">
+        <v>606</v>
+      </c>
       <c r="AK48" s="21"/>
       <c r="AL48" s="19"/>
-      <c r="AM48" s="19"/>
-      <c r="AN48" s="20"/>
+      <c r="AM48" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="AN48" s="20" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
       <c r="B49" s="15"/>
       <c r="C49" s="23"/>
       <c r="D49" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E49" s="25" t="n">
         <v>4.14737</v>
@@ -5154,24 +8721,40 @@
       <c r="V49" s="15"/>
       <c r="W49" s="23"/>
       <c r="X49" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y49" s="25"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="27"/>
+      <c r="AA49" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>610</v>
+      </c>
       <c r="AC49" s="28"/>
       <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="29"/>
+      <c r="AE49" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF49" s="29" t="s">
+        <v>612</v>
+      </c>
       <c r="AG49" s="25"/>
       <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="27"/>
+      <c r="AI49" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="AJ49" s="27" t="s">
+        <v>614</v>
+      </c>
       <c r="AK49" s="28"/>
       <c r="AL49" s="26"/>
-      <c r="AM49" s="26"/>
-      <c r="AN49" s="27"/>
+      <c r="AM49" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN49" s="27" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
       <c r="B50" s="15"/>
@@ -5179,7 +8762,7 @@
         <v>0.5</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E50" s="25" t="n">
         <v>4.84252</v>
@@ -5234,30 +8817,46 @@
         <v>0.5</v>
       </c>
       <c r="X50" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="27"/>
+      <c r="AA50" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB50" s="27" t="s">
+        <v>618</v>
+      </c>
       <c r="AC50" s="28"/>
       <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="29"/>
+      <c r="AE50" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF50" s="29" t="s">
+        <v>620</v>
+      </c>
       <c r="AG50" s="25"/>
       <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="27"/>
+      <c r="AI50" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="AJ50" s="27" t="s">
+        <v>622</v>
+      </c>
       <c r="AK50" s="28"/>
       <c r="AL50" s="26"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="27"/>
+      <c r="AM50" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN50" s="27" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
       <c r="B51" s="36"/>
       <c r="C51" s="23"/>
       <c r="D51" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E51" s="31" t="n">
         <v>3.82352</v>
@@ -5310,30 +8909,46 @@
       <c r="V51" s="36"/>
       <c r="W51" s="23"/>
       <c r="X51" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y51" s="31"/>
       <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="33"/>
+      <c r="AA51" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB51" s="33" t="s">
+        <v>626</v>
+      </c>
       <c r="AC51" s="34"/>
       <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="35"/>
+      <c r="AE51" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="AF51" s="35" t="s">
+        <v>628</v>
+      </c>
       <c r="AG51" s="31"/>
       <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-      <c r="AJ51" s="33"/>
+      <c r="AI51" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ51" s="33" t="s">
+        <v>630</v>
+      </c>
       <c r="AK51" s="34"/>
       <c r="AL51" s="32"/>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="33"/>
+      <c r="AM51" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN51" s="33" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>4.94914</v>
@@ -5386,30 +9001,46 @@
       <c r="V52" s="15"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y52" s="18"/>
       <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="20"/>
+      <c r="AA52" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB52" s="20" t="s">
+        <v>634</v>
+      </c>
       <c r="AC52" s="21"/>
       <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="22"/>
+      <c r="AE52" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF52" s="22" t="s">
+        <v>636</v>
+      </c>
       <c r="AG52" s="18"/>
       <c r="AH52" s="19"/>
-      <c r="AI52" s="19"/>
-      <c r="AJ52" s="20"/>
+      <c r="AI52" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="AJ52" s="20" t="s">
+        <v>638</v>
+      </c>
       <c r="AK52" s="21"/>
       <c r="AL52" s="19"/>
-      <c r="AM52" s="19"/>
-      <c r="AN52" s="20"/>
+      <c r="AM52" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN52" s="20" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
       <c r="B53" s="15"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E53" s="25" t="n">
         <v>3.77928</v>
@@ -5462,24 +9093,40 @@
       <c r="V53" s="15"/>
       <c r="W53" s="23"/>
       <c r="X53" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y53" s="25"/>
       <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="27"/>
+      <c r="AA53" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB53" s="27" t="s">
+        <v>642</v>
+      </c>
       <c r="AC53" s="28"/>
       <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="29"/>
+      <c r="AE53" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="AF53" s="29" t="s">
+        <v>644</v>
+      </c>
       <c r="AG53" s="25"/>
       <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="27"/>
+      <c r="AI53" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ53" s="27" t="s">
+        <v>646</v>
+      </c>
       <c r="AK53" s="28"/>
       <c r="AL53" s="26"/>
-      <c r="AM53" s="26"/>
-      <c r="AN53" s="27"/>
+      <c r="AM53" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="AN53" s="27" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="B54" s="15"/>
@@ -5487,7 +9134,7 @@
         <v>0.1</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E54" s="25" t="n">
         <v>5.09376</v>
@@ -5542,30 +9189,46 @@
         <v>0.1</v>
       </c>
       <c r="X54" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="27"/>
+      <c r="AA54" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB54" s="27" t="s">
+        <v>650</v>
+      </c>
       <c r="AC54" s="28"/>
       <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="29"/>
+      <c r="AE54" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF54" s="29" t="s">
+        <v>652</v>
+      </c>
       <c r="AG54" s="25"/>
       <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="27"/>
+      <c r="AI54" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="AJ54" s="27" t="s">
+        <v>654</v>
+      </c>
       <c r="AK54" s="28"/>
       <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="27"/>
+      <c r="AM54" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="AN54" s="27" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="B55" s="15"/>
       <c r="C55" s="23"/>
       <c r="D55" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E55" s="31" t="n">
         <v>3.73292</v>
@@ -5618,30 +9281,46 @@
       <c r="V55" s="15"/>
       <c r="W55" s="23"/>
       <c r="X55" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y55" s="31"/>
       <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="33"/>
+      <c r="AA55" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB55" s="33" t="s">
+        <v>658</v>
+      </c>
       <c r="AC55" s="34"/>
       <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="35"/>
+      <c r="AE55" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF55" s="35" t="s">
+        <v>660</v>
+      </c>
       <c r="AG55" s="31"/>
       <c r="AH55" s="32"/>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="33"/>
+      <c r="AI55" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="AJ55" s="33" t="s">
+        <v>662</v>
+      </c>
       <c r="AK55" s="34"/>
       <c r="AL55" s="32"/>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="33"/>
+      <c r="AM55" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="AN55" s="33" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E56" s="18" t="n">
         <v>4.37336</v>
@@ -5694,30 +9373,46 @@
       <c r="V56" s="15"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y56" s="18"/>
       <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="20"/>
+      <c r="AA56" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB56" s="20" t="s">
+        <v>666</v>
+      </c>
       <c r="AC56" s="21"/>
       <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="22"/>
+      <c r="AE56" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF56" s="22" t="s">
+        <v>668</v>
+      </c>
       <c r="AG56" s="18"/>
       <c r="AH56" s="19"/>
-      <c r="AI56" s="19"/>
-      <c r="AJ56" s="20"/>
+      <c r="AI56" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="AJ56" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="AK56" s="21"/>
       <c r="AL56" s="19"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="20"/>
+      <c r="AM56" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="AN56" s="20" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
       <c r="B57" s="15"/>
       <c r="C57" s="23"/>
       <c r="D57" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E57" s="25" t="n">
         <v>3.86531</v>
@@ -5770,24 +9465,40 @@
       <c r="V57" s="15"/>
       <c r="W57" s="23"/>
       <c r="X57" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y57" s="25"/>
       <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="27"/>
+      <c r="AA57" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB57" s="27" t="s">
+        <v>674</v>
+      </c>
       <c r="AC57" s="28"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="29"/>
+      <c r="AE57" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="AF57" s="29" t="s">
+        <v>676</v>
+      </c>
       <c r="AG57" s="25"/>
       <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="27"/>
+      <c r="AI57" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ57" s="27" t="s">
+        <v>678</v>
+      </c>
       <c r="AK57" s="28"/>
       <c r="AL57" s="26"/>
-      <c r="AM57" s="26"/>
-      <c r="AN57" s="27"/>
+      <c r="AM57" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="AN57" s="27" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="B58" s="45" t="n">
@@ -5797,7 +9508,7 @@
         <v>0.25</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E58" s="25" t="n">
         <v>4.64076</v>
@@ -5854,30 +9565,46 @@
         <v>0.25</v>
       </c>
       <c r="X58" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="27"/>
+      <c r="AA58" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB58" s="27" t="s">
+        <v>682</v>
+      </c>
       <c r="AC58" s="28"/>
       <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="29"/>
+      <c r="AE58" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF58" s="29" t="s">
+        <v>684</v>
+      </c>
       <c r="AG58" s="25"/>
       <c r="AH58" s="26"/>
-      <c r="AI58" s="26"/>
-      <c r="AJ58" s="27"/>
+      <c r="AI58" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ58" s="27" t="s">
+        <v>686</v>
+      </c>
       <c r="AK58" s="28"/>
       <c r="AL58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AN58" s="27"/>
+      <c r="AM58" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="AN58" s="27" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
       <c r="B59" s="15"/>
       <c r="C59" s="23"/>
       <c r="D59" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E59" s="31" t="n">
         <v>3.93666</v>
@@ -5930,30 +9657,46 @@
       <c r="V59" s="15"/>
       <c r="W59" s="23"/>
       <c r="X59" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y59" s="31"/>
       <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="33"/>
+      <c r="AA59" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB59" s="33" t="s">
+        <v>690</v>
+      </c>
       <c r="AC59" s="34"/>
       <c r="AD59" s="32"/>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="35"/>
+      <c r="AE59" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF59" s="35" t="s">
+        <v>692</v>
+      </c>
       <c r="AG59" s="31"/>
       <c r="AH59" s="32"/>
-      <c r="AI59" s="32"/>
-      <c r="AJ59" s="33"/>
+      <c r="AI59" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="AJ59" s="33" t="s">
+        <v>694</v>
+      </c>
       <c r="AK59" s="34"/>
       <c r="AL59" s="32"/>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="33"/>
+      <c r="AM59" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="AN59" s="33" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E60" s="18" t="n">
         <v>4.1821</v>
@@ -6006,30 +9749,46 @@
       <c r="V60" s="15"/>
       <c r="W60" s="16"/>
       <c r="X60" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y60" s="18"/>
       <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="20"/>
+      <c r="AA60" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB60" s="20" t="s">
+        <v>698</v>
+      </c>
       <c r="AC60" s="21"/>
       <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="22"/>
+      <c r="AE60" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF60" s="22" t="s">
+        <v>700</v>
+      </c>
       <c r="AG60" s="18"/>
       <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="20"/>
+      <c r="AI60" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="AJ60" s="20" t="s">
+        <v>702</v>
+      </c>
       <c r="AK60" s="21"/>
       <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="20"/>
+      <c r="AM60" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN60" s="20" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="B61" s="15"/>
       <c r="C61" s="23"/>
       <c r="D61" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E61" s="25" t="n">
         <v>4.26772</v>
@@ -6082,24 +9841,40 @@
       <c r="V61" s="15"/>
       <c r="W61" s="23"/>
       <c r="X61" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y61" s="25"/>
       <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="27"/>
+      <c r="AA61" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB61" s="27" t="s">
+        <v>706</v>
+      </c>
       <c r="AC61" s="28"/>
       <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="29"/>
+      <c r="AE61" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF61" s="29" t="s">
+        <v>708</v>
+      </c>
       <c r="AG61" s="25"/>
       <c r="AH61" s="26"/>
-      <c r="AI61" s="26"/>
-      <c r="AJ61" s="27"/>
+      <c r="AI61" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ61" s="27" t="s">
+        <v>710</v>
+      </c>
       <c r="AK61" s="28"/>
       <c r="AL61" s="26"/>
-      <c r="AM61" s="26"/>
-      <c r="AN61" s="27"/>
+      <c r="AM61" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="AN61" s="27" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="B62" s="15"/>
@@ -6107,7 +9882,7 @@
         <v>0.5</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E62" s="25" t="n">
         <v>4.21207</v>
@@ -6162,30 +9937,46 @@
         <v>0.5</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="27"/>
+      <c r="AA62" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB62" s="27" t="s">
+        <v>714</v>
+      </c>
       <c r="AC62" s="28"/>
       <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="29"/>
+      <c r="AE62" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF62" s="29" t="s">
+        <v>716</v>
+      </c>
       <c r="AG62" s="25"/>
       <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-      <c r="AJ62" s="27"/>
+      <c r="AI62" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="AJ62" s="27" t="s">
+        <v>718</v>
+      </c>
       <c r="AK62" s="28"/>
       <c r="AL62" s="26"/>
-      <c r="AM62" s="26"/>
-      <c r="AN62" s="27"/>
+      <c r="AM62" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="AN62" s="27" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="B63" s="36"/>
       <c r="C63" s="23"/>
       <c r="D63" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>3.97282</v>
@@ -6238,30 +10029,46 @@
       <c r="V63" s="36"/>
       <c r="W63" s="23"/>
       <c r="X63" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y63" s="39"/>
       <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="41"/>
+      <c r="AA63" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB63" s="41" t="s">
+        <v>722</v>
+      </c>
       <c r="AC63" s="42"/>
       <c r="AD63" s="40"/>
-      <c r="AE63" s="40"/>
-      <c r="AF63" s="43"/>
+      <c r="AE63" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="AF63" s="43" t="s">
+        <v>724</v>
+      </c>
       <c r="AG63" s="39"/>
       <c r="AH63" s="40"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="41"/>
+      <c r="AI63" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="AJ63" s="41" t="s">
+        <v>726</v>
+      </c>
       <c r="AK63" s="42"/>
       <c r="AL63" s="40"/>
-      <c r="AM63" s="40"/>
-      <c r="AN63" s="41"/>
+      <c r="AM63" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN63" s="41" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E64" s="18" t="n">
         <v>4.42989</v>
@@ -6314,30 +10121,46 @@
       <c r="V64" s="15"/>
       <c r="W64" s="16"/>
       <c r="X64" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y64" s="18"/>
       <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="20"/>
+      <c r="AA64" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB64" s="20" t="s">
+        <v>730</v>
+      </c>
       <c r="AC64" s="21"/>
       <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="22"/>
+      <c r="AE64" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="AF64" s="22" t="s">
+        <v>732</v>
+      </c>
       <c r="AG64" s="18"/>
       <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="20"/>
+      <c r="AI64" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="AJ64" s="20" t="s">
+        <v>734</v>
+      </c>
       <c r="AK64" s="21"/>
       <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="20"/>
+      <c r="AM64" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="AN64" s="20" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
       <c r="B65" s="15"/>
       <c r="C65" s="23"/>
       <c r="D65" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E65" s="25" t="n">
         <v>4.43441</v>
@@ -6390,24 +10213,40 @@
       <c r="V65" s="15"/>
       <c r="W65" s="23"/>
       <c r="X65" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y65" s="25"/>
       <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="27"/>
+      <c r="AA65" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB65" s="27" t="s">
+        <v>738</v>
+      </c>
       <c r="AC65" s="28"/>
       <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
-      <c r="AF65" s="29"/>
+      <c r="AE65" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="AF65" s="29" t="s">
+        <v>740</v>
+      </c>
       <c r="AG65" s="25"/>
       <c r="AH65" s="26"/>
-      <c r="AI65" s="26"/>
-      <c r="AJ65" s="27"/>
+      <c r="AI65" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="AJ65" s="27" t="s">
+        <v>742</v>
+      </c>
       <c r="AK65" s="28"/>
       <c r="AL65" s="26"/>
-      <c r="AM65" s="26"/>
-      <c r="AN65" s="27"/>
+      <c r="AM65" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN65" s="27" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
       <c r="B66" s="15"/>
@@ -6415,7 +10254,7 @@
         <v>0.1</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E66" s="25" t="n">
         <v>3.82632</v>
@@ -6470,30 +10309,46 @@
         <v>0.1</v>
       </c>
       <c r="X66" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="27"/>
+      <c r="AA66" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB66" s="27" t="s">
+        <v>746</v>
+      </c>
       <c r="AC66" s="28"/>
       <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="29"/>
+      <c r="AE66" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF66" s="29" t="s">
+        <v>748</v>
+      </c>
       <c r="AG66" s="25"/>
       <c r="AH66" s="26"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="27"/>
+      <c r="AI66" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ66" s="27" t="s">
+        <v>750</v>
+      </c>
       <c r="AK66" s="28"/>
       <c r="AL66" s="26"/>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="27"/>
+      <c r="AM66" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="AN66" s="27" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
       <c r="B67" s="15"/>
       <c r="C67" s="23"/>
       <c r="D67" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E67" s="31" t="n">
         <v>4.44025</v>
@@ -6546,30 +10401,46 @@
       <c r="V67" s="15"/>
       <c r="W67" s="23"/>
       <c r="X67" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y67" s="31"/>
       <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="33"/>
+      <c r="AA67" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB67" s="33" t="s">
+        <v>754</v>
+      </c>
       <c r="AC67" s="34"/>
       <c r="AD67" s="32"/>
-      <c r="AE67" s="32"/>
-      <c r="AF67" s="35"/>
+      <c r="AE67" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="AF67" s="35" t="s">
+        <v>756</v>
+      </c>
       <c r="AG67" s="31"/>
       <c r="AH67" s="32"/>
-      <c r="AI67" s="32"/>
-      <c r="AJ67" s="33"/>
+      <c r="AI67" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="AJ67" s="33" t="s">
+        <v>758</v>
+      </c>
       <c r="AK67" s="34"/>
       <c r="AL67" s="32"/>
-      <c r="AM67" s="32"/>
-      <c r="AN67" s="33"/>
+      <c r="AM67" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="AN67" s="33" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
       <c r="B68" s="15"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E68" s="18" t="n">
         <v>4.29713</v>
@@ -6622,30 +10493,46 @@
       <c r="V68" s="15"/>
       <c r="W68" s="16"/>
       <c r="X68" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y68" s="18"/>
       <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="20"/>
+      <c r="AA68" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB68" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="AC68" s="21"/>
       <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="22"/>
+      <c r="AE68" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="AF68" s="22" t="s">
+        <v>764</v>
+      </c>
       <c r="AG68" s="18"/>
       <c r="AH68" s="19"/>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="20"/>
+      <c r="AI68" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ68" s="20" t="s">
+        <v>766</v>
+      </c>
       <c r="AK68" s="21"/>
       <c r="AL68" s="19"/>
-      <c r="AM68" s="19"/>
-      <c r="AN68" s="20"/>
+      <c r="AM68" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="AN68" s="20" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
       <c r="B69" s="15"/>
       <c r="C69" s="23"/>
       <c r="D69" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E69" s="25" t="n">
         <v>4.00871</v>
@@ -6698,24 +10585,40 @@
       <c r="V69" s="15"/>
       <c r="W69" s="23"/>
       <c r="X69" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y69" s="25"/>
       <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="27"/>
+      <c r="AA69" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB69" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="AC69" s="28"/>
       <c r="AD69" s="26"/>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="29"/>
+      <c r="AE69" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF69" s="29" t="s">
+        <v>772</v>
+      </c>
       <c r="AG69" s="25"/>
       <c r="AH69" s="26"/>
-      <c r="AI69" s="26"/>
-      <c r="AJ69" s="27"/>
+      <c r="AI69" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ69" s="27" t="s">
+        <v>774</v>
+      </c>
       <c r="AK69" s="28"/>
       <c r="AL69" s="26"/>
-      <c r="AM69" s="26"/>
-      <c r="AN69" s="27"/>
+      <c r="AM69" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="AN69" s="27" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
       <c r="B70" s="45" t="n">
@@ -6725,7 +10628,7 @@
         <v>0.25</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E70" s="25" t="n">
         <v>3.95119</v>
@@ -6782,30 +10685,46 @@
         <v>0.25</v>
       </c>
       <c r="X70" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="27"/>
+      <c r="AA70" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB70" s="27" t="s">
+        <v>778</v>
+      </c>
       <c r="AC70" s="28"/>
       <c r="AD70" s="26"/>
-      <c r="AE70" s="26"/>
-      <c r="AF70" s="29"/>
+      <c r="AE70" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="AF70" s="29" t="s">
+        <v>780</v>
+      </c>
       <c r="AG70" s="25"/>
       <c r="AH70" s="26"/>
-      <c r="AI70" s="26"/>
-      <c r="AJ70" s="27"/>
+      <c r="AI70" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ70" s="27" t="s">
+        <v>782</v>
+      </c>
       <c r="AK70" s="28"/>
       <c r="AL70" s="26"/>
-      <c r="AM70" s="26"/>
-      <c r="AN70" s="27"/>
+      <c r="AM70" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="AN70" s="27" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
       <c r="B71" s="15"/>
       <c r="C71" s="23"/>
       <c r="D71" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E71" s="31" t="n">
         <v>3.8969</v>
@@ -6858,30 +10777,46 @@
       <c r="V71" s="15"/>
       <c r="W71" s="23"/>
       <c r="X71" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y71" s="31"/>
       <c r="Z71" s="32"/>
-      <c r="AA71" s="32"/>
-      <c r="AB71" s="33"/>
+      <c r="AA71" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB71" s="33" t="s">
+        <v>786</v>
+      </c>
       <c r="AC71" s="34"/>
       <c r="AD71" s="32"/>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="35"/>
+      <c r="AE71" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="AF71" s="35" t="s">
+        <v>788</v>
+      </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="32"/>
-      <c r="AI71" s="32"/>
-      <c r="AJ71" s="33"/>
+      <c r="AI71" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="AJ71" s="33" t="s">
+        <v>790</v>
+      </c>
       <c r="AK71" s="34"/>
       <c r="AL71" s="32"/>
-      <c r="AM71" s="32"/>
-      <c r="AN71" s="33"/>
+      <c r="AM71" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN71" s="33" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E72" s="18" t="n">
         <v>4.04978</v>
@@ -6934,30 +10869,46 @@
       <c r="V72" s="15"/>
       <c r="W72" s="16"/>
       <c r="X72" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="20"/>
+      <c r="AA72" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB72" s="20" t="s">
+        <v>794</v>
+      </c>
       <c r="AC72" s="21"/>
       <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="22"/>
+      <c r="AE72" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="AF72" s="22" t="s">
+        <v>796</v>
+      </c>
       <c r="AG72" s="18"/>
       <c r="AH72" s="19"/>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="20"/>
+      <c r="AI72" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="AJ72" s="20" t="s">
+        <v>798</v>
+      </c>
       <c r="AK72" s="21"/>
       <c r="AL72" s="19"/>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="20"/>
+      <c r="AM72" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="AN72" s="20" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
       <c r="B73" s="15"/>
       <c r="C73" s="23"/>
       <c r="D73" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E73" s="25" t="n">
         <v>4.00933</v>
@@ -7010,24 +10961,40 @@
       <c r="V73" s="15"/>
       <c r="W73" s="23"/>
       <c r="X73" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y73" s="25"/>
       <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="27"/>
+      <c r="AA73" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB73" s="27" t="s">
+        <v>802</v>
+      </c>
       <c r="AC73" s="28"/>
       <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
-      <c r="AF73" s="29"/>
+      <c r="AE73" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="AF73" s="29" t="s">
+        <v>804</v>
+      </c>
       <c r="AG73" s="25"/>
       <c r="AH73" s="26"/>
-      <c r="AI73" s="26"/>
-      <c r="AJ73" s="27"/>
+      <c r="AI73" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="AJ73" s="27" t="s">
+        <v>806</v>
+      </c>
       <c r="AK73" s="28"/>
       <c r="AL73" s="26"/>
-      <c r="AM73" s="26"/>
-      <c r="AN73" s="27"/>
+      <c r="AM73" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="AN73" s="27" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
       <c r="B74" s="15"/>
@@ -7035,7 +11002,7 @@
         <v>0.5</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E74" s="25" t="n">
         <v>3.75262</v>
@@ -7090,30 +11057,46 @@
         <v>0.5</v>
       </c>
       <c r="X74" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="27"/>
+      <c r="AA74" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="AB74" s="27" t="s">
+        <v>810</v>
+      </c>
       <c r="AC74" s="28"/>
       <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
-      <c r="AF74" s="29"/>
+      <c r="AE74" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="AF74" s="29" t="s">
+        <v>812</v>
+      </c>
       <c r="AG74" s="25"/>
       <c r="AH74" s="26"/>
-      <c r="AI74" s="26"/>
-      <c r="AJ74" s="27"/>
+      <c r="AI74" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="AJ74" s="27" t="s">
+        <v>814</v>
+      </c>
       <c r="AK74" s="28"/>
       <c r="AL74" s="26"/>
-      <c r="AM74" s="26"/>
-      <c r="AN74" s="27"/>
+      <c r="AM74" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="AN74" s="27" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
       <c r="D75" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>4.03049</v>
@@ -7166,24 +11149,40 @@
       <c r="V75" s="36"/>
       <c r="W75" s="37"/>
       <c r="X75" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y75" s="39"/>
       <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
-      <c r="AB75" s="41"/>
+      <c r="AA75" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB75" s="41" t="s">
+        <v>818</v>
+      </c>
       <c r="AC75" s="42"/>
       <c r="AD75" s="40"/>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="43"/>
+      <c r="AE75" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="AF75" s="43" t="s">
+        <v>820</v>
+      </c>
       <c r="AG75" s="39"/>
       <c r="AH75" s="40"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="41"/>
+      <c r="AI75" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AJ75" s="41" t="s">
+        <v>822</v>
+      </c>
       <c r="AK75" s="42"/>
       <c r="AL75" s="40"/>
-      <c r="AM75" s="40"/>
-      <c r="AN75" s="41"/>
+      <c r="AM75" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="AN75" s="41" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="78">
       <c r="B78" s="1" t="s">
@@ -7270,10 +11269,10 @@
         <v>11</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>14</v>
@@ -7327,10 +11326,10 @@
         <v>11</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="Y79" s="10" t="s">
         <v>14</v>
@@ -7388,52 +11387,52 @@
         <v>1</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>26</v>
+        <v>826</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>27</v>
+        <v>827</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>28</v>
+        <v>828</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>29</v>
+        <v>829</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>30</v>
+        <v>830</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>31</v>
+        <v>831</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>32</v>
+        <v>832</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>33</v>
+        <v>833</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>34</v>
+        <v>834</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>35</v>
+        <v>835</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>36</v>
+        <v>836</v>
       </c>
       <c r="P80" s="20" t="s">
-        <v>37</v>
+        <v>837</v>
       </c>
       <c r="Q80" s="21" t="s">
-        <v>38</v>
+        <v>838</v>
       </c>
       <c r="R80" s="19" t="s">
-        <v>39</v>
+        <v>839</v>
       </c>
       <c r="S80" s="19" t="s">
-        <v>40</v>
+        <v>840</v>
       </c>
       <c r="T80" s="20" t="s">
-        <v>41</v>
+        <v>841</v>
       </c>
       <c r="V80" s="15"/>
       <c r="W80" s="16"/>
@@ -7466,52 +11465,52 @@
         <v>3</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>42</v>
+        <v>842</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>43</v>
+        <v>843</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>44</v>
+        <v>844</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>45</v>
+        <v>845</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>46</v>
+        <v>846</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>47</v>
+        <v>847</v>
       </c>
       <c r="K81" s="26" t="s">
-        <v>48</v>
+        <v>848</v>
       </c>
       <c r="L81" s="29" t="s">
-        <v>49</v>
+        <v>849</v>
       </c>
       <c r="M81" s="25" t="s">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>51</v>
+        <v>851</v>
       </c>
       <c r="O81" s="26" t="s">
-        <v>52</v>
+        <v>852</v>
       </c>
       <c r="P81" s="27" t="s">
-        <v>53</v>
+        <v>853</v>
       </c>
       <c r="Q81" s="28" t="s">
-        <v>54</v>
+        <v>854</v>
       </c>
       <c r="R81" s="26" t="s">
-        <v>55</v>
+        <v>855</v>
       </c>
       <c r="S81" s="26" t="s">
-        <v>56</v>
+        <v>856</v>
       </c>
       <c r="T81" s="27" t="s">
-        <v>57</v>
+        <v>857</v>
       </c>
       <c r="V81" s="15"/>
       <c r="W81" s="44" t="n">
@@ -7544,52 +11543,52 @@
         <v>5</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>58</v>
+        <v>858</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>59</v>
+        <v>859</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>60</v>
+        <v>860</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>61</v>
+        <v>861</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>62</v>
+        <v>862</v>
       </c>
       <c r="J82" s="32" t="s">
-        <v>63</v>
+        <v>863</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>64</v>
+        <v>864</v>
       </c>
       <c r="L82" s="35" t="s">
-        <v>65</v>
+        <v>865</v>
       </c>
       <c r="M82" s="31" t="s">
-        <v>66</v>
+        <v>866</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>67</v>
+        <v>867</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>68</v>
+        <v>868</v>
       </c>
       <c r="P82" s="33" t="s">
-        <v>69</v>
+        <v>869</v>
       </c>
       <c r="Q82" s="34" t="s">
-        <v>70</v>
+        <v>870</v>
       </c>
       <c r="R82" s="32" t="s">
-        <v>71</v>
+        <v>871</v>
       </c>
       <c r="S82" s="32" t="s">
-        <v>72</v>
+        <v>872</v>
       </c>
       <c r="T82" s="33" t="s">
-        <v>73</v>
+        <v>873</v>
       </c>
       <c r="V82" s="15"/>
       <c r="W82" s="23"/>
@@ -7620,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>74</v>
+        <v>874</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>75</v>
+        <v>875</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>77</v>
+        <v>877</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>78</v>
+        <v>878</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>79</v>
+        <v>879</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>80</v>
+        <v>880</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>81</v>
+        <v>881</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>82</v>
+        <v>882</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>83</v>
+        <v>883</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>84</v>
+        <v>884</v>
       </c>
       <c r="P83" s="20" t="s">
-        <v>69</v>
+        <v>869</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>85</v>
+        <v>885</v>
       </c>
       <c r="R83" s="19" t="s">
-        <v>86</v>
+        <v>886</v>
       </c>
       <c r="S83" s="19" t="s">
-        <v>87</v>
+        <v>887</v>
       </c>
       <c r="T83" s="20" t="s">
-        <v>88</v>
+        <v>888</v>
       </c>
       <c r="V83" s="15"/>
       <c r="W83" s="16"/>
@@ -7690,7 +11689,7 @@
       <c r="AN83" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
-      <c r="B84" s="46" t="n">
+      <c r="B84" s="15" t="n">
         <v>15</v>
       </c>
       <c r="C84" s="44" t="n">
@@ -7700,54 +11699,54 @@
         <v>3</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>89</v>
+        <v>889</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>90</v>
+        <v>890</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>91</v>
+        <v>891</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>92</v>
+        <v>892</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>93</v>
+        <v>893</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>94</v>
+        <v>894</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>95</v>
+        <v>895</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>96</v>
+        <v>896</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>97</v>
+        <v>897</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>98</v>
+        <v>898</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>99</v>
+        <v>899</v>
       </c>
       <c r="P84" s="27" t="s">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>101</v>
+        <v>901</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>102</v>
+        <v>902</v>
       </c>
       <c r="S84" s="26" t="s">
-        <v>103</v>
+        <v>903</v>
       </c>
       <c r="T84" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="V84" s="46" t="n">
+        <v>904</v>
+      </c>
+      <c r="V84" s="15" t="n">
         <v>15</v>
       </c>
       <c r="W84" s="44" t="n">
@@ -7780,52 +11779,52 @@
         <v>5</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>105</v>
+        <v>905</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>106</v>
+        <v>906</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>107</v>
+        <v>907</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>108</v>
+        <v>908</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>109</v>
+        <v>909</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>110</v>
+        <v>910</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>111</v>
+        <v>911</v>
       </c>
       <c r="L85" s="35" t="s">
-        <v>112</v>
+        <v>912</v>
       </c>
       <c r="M85" s="31" t="s">
-        <v>113</v>
+        <v>913</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>114</v>
+        <v>914</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>115</v>
+        <v>915</v>
       </c>
       <c r="P85" s="33" t="s">
-        <v>116</v>
+        <v>916</v>
       </c>
       <c r="Q85" s="34" t="s">
-        <v>117</v>
+        <v>917</v>
       </c>
       <c r="R85" s="32" t="s">
-        <v>118</v>
+        <v>918</v>
       </c>
       <c r="S85" s="32" t="s">
-        <v>119</v>
+        <v>919</v>
       </c>
       <c r="T85" s="33" t="s">
-        <v>120</v>
+        <v>920</v>
       </c>
       <c r="V85" s="15"/>
       <c r="W85" s="23"/>
@@ -7856,52 +11855,52 @@
         <v>1</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>121</v>
+        <v>921</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>122</v>
+        <v>922</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>123</v>
+        <v>923</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>124</v>
+        <v>924</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>125</v>
+        <v>925</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>126</v>
+        <v>926</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>127</v>
+        <v>927</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>128</v>
+        <v>928</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>129</v>
+        <v>929</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>130</v>
+        <v>930</v>
       </c>
       <c r="O86" s="19" t="s">
-        <v>131</v>
+        <v>931</v>
       </c>
       <c r="P86" s="20" t="s">
-        <v>132</v>
+        <v>932</v>
       </c>
       <c r="Q86" s="21" t="s">
-        <v>133</v>
+        <v>933</v>
       </c>
       <c r="R86" s="19" t="s">
-        <v>134</v>
+        <v>934</v>
       </c>
       <c r="S86" s="19" t="s">
-        <v>135</v>
+        <v>935</v>
       </c>
       <c r="T86" s="20" t="s">
-        <v>136</v>
+        <v>936</v>
       </c>
       <c r="V86" s="15"/>
       <c r="W86" s="16"/>
@@ -7934,52 +11933,52 @@
         <v>3</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>137</v>
+        <v>937</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>138</v>
+        <v>938</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>139</v>
+        <v>939</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>124</v>
+        <v>924</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>140</v>
+        <v>940</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>141</v>
+        <v>941</v>
       </c>
       <c r="K87" s="26" t="s">
-        <v>142</v>
+        <v>942</v>
       </c>
       <c r="L87" s="29" t="s">
-        <v>143</v>
+        <v>943</v>
       </c>
       <c r="M87" s="25" t="s">
-        <v>144</v>
+        <v>944</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>145</v>
+        <v>945</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>146</v>
+        <v>946</v>
       </c>
       <c r="P87" s="27" t="s">
-        <v>147</v>
+        <v>947</v>
       </c>
       <c r="Q87" s="28" t="s">
-        <v>148</v>
+        <v>948</v>
       </c>
       <c r="R87" s="26" t="s">
-        <v>149</v>
+        <v>949</v>
       </c>
       <c r="S87" s="26" t="s">
-        <v>150</v>
+        <v>950</v>
       </c>
       <c r="T87" s="27" t="s">
-        <v>151</v>
+        <v>951</v>
       </c>
       <c r="V87" s="15"/>
       <c r="W87" s="44" t="n">
@@ -8012,52 +12011,52 @@
         <v>5</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>152</v>
+        <v>952</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>153</v>
+        <v>953</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>154</v>
+        <v>954</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>155</v>
+        <v>955</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>156</v>
+        <v>956</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>157</v>
+        <v>957</v>
       </c>
       <c r="K88" s="32" t="s">
-        <v>158</v>
+        <v>958</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>159</v>
+        <v>959</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>161</v>
+        <v>961</v>
       </c>
       <c r="O88" s="32" t="s">
-        <v>162</v>
+        <v>962</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>163</v>
+        <v>963</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>164</v>
+        <v>964</v>
       </c>
       <c r="R88" s="32" t="s">
-        <v>165</v>
+        <v>965</v>
       </c>
       <c r="S88" s="32" t="s">
-        <v>166</v>
+        <v>966</v>
       </c>
       <c r="T88" s="33" t="s">
-        <v>167</v>
+        <v>967</v>
       </c>
       <c r="V88" s="36"/>
       <c r="W88" s="23"/>
@@ -8088,52 +12087,52 @@
         <v>1</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>168</v>
+        <v>968</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>169</v>
+        <v>969</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>171</v>
+        <v>971</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>172</v>
+        <v>972</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>173</v>
+        <v>973</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>174</v>
+        <v>974</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>175</v>
+        <v>975</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>176</v>
+        <v>976</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>177</v>
+        <v>977</v>
       </c>
       <c r="O89" s="19" t="s">
-        <v>178</v>
+        <v>978</v>
       </c>
       <c r="P89" s="20" t="s">
-        <v>179</v>
+        <v>979</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="R89" s="19" t="s">
-        <v>181</v>
+        <v>981</v>
       </c>
       <c r="S89" s="19" t="s">
-        <v>182</v>
+        <v>982</v>
       </c>
       <c r="T89" s="20" t="s">
-        <v>183</v>
+        <v>983</v>
       </c>
       <c r="V89" s="15"/>
       <c r="W89" s="16"/>
@@ -8166,52 +12165,52 @@
         <v>3</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>184</v>
+        <v>984</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>185</v>
+        <v>985</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>186</v>
+        <v>986</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>187</v>
+        <v>987</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>188</v>
+        <v>988</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>189</v>
+        <v>989</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>190</v>
+        <v>990</v>
       </c>
       <c r="L90" s="29" t="s">
-        <v>191</v>
+        <v>991</v>
       </c>
       <c r="M90" s="25" t="s">
-        <v>192</v>
+        <v>992</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>193</v>
+        <v>993</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>194</v>
+        <v>994</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>195</v>
+        <v>995</v>
       </c>
       <c r="Q90" s="28" t="s">
-        <v>196</v>
+        <v>996</v>
       </c>
       <c r="R90" s="26" t="s">
-        <v>197</v>
+        <v>997</v>
       </c>
       <c r="S90" s="26" t="s">
-        <v>198</v>
+        <v>998</v>
       </c>
       <c r="T90" s="27" t="s">
-        <v>199</v>
+        <v>999</v>
       </c>
       <c r="V90" s="15"/>
       <c r="W90" s="44" t="n">
@@ -8244,52 +12243,52 @@
         <v>5</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>201</v>
+        <v>1001</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>202</v>
+        <v>1002</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>203</v>
+        <v>1003</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>204</v>
+        <v>1004</v>
       </c>
       <c r="J91" s="32" t="s">
-        <v>205</v>
+        <v>1005</v>
       </c>
       <c r="K91" s="32" t="s">
-        <v>206</v>
+        <v>1006</v>
       </c>
       <c r="L91" s="35" t="s">
-        <v>207</v>
+        <v>1007</v>
       </c>
       <c r="M91" s="31" t="s">
-        <v>208</v>
+        <v>1008</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>209</v>
+        <v>1009</v>
       </c>
       <c r="O91" s="32" t="s">
-        <v>210</v>
+        <v>1010</v>
       </c>
       <c r="P91" s="33" t="s">
-        <v>211</v>
+        <v>1011</v>
       </c>
       <c r="Q91" s="34" t="s">
-        <v>212</v>
+        <v>1012</v>
       </c>
       <c r="R91" s="32" t="s">
-        <v>213</v>
+        <v>1013</v>
       </c>
       <c r="S91" s="32" t="s">
-        <v>214</v>
+        <v>1014</v>
       </c>
       <c r="T91" s="33" t="s">
-        <v>215</v>
+        <v>1015</v>
       </c>
       <c r="V91" s="15"/>
       <c r="W91" s="23"/>
@@ -8320,52 +12319,52 @@
         <v>1</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>216</v>
+        <v>1016</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>217</v>
+        <v>1017</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>218</v>
+        <v>1018</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>220</v>
+        <v>1020</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>221</v>
+        <v>1021</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>222</v>
+        <v>1022</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>223</v>
+        <v>1023</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>224</v>
+        <v>1024</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>225</v>
+        <v>1025</v>
       </c>
       <c r="O92" s="19" t="s">
-        <v>226</v>
+        <v>1026</v>
       </c>
       <c r="P92" s="20" t="s">
-        <v>227</v>
+        <v>1027</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>228</v>
+        <v>1028</v>
       </c>
       <c r="R92" s="19" t="s">
-        <v>229</v>
+        <v>1029</v>
       </c>
       <c r="S92" s="19" t="s">
-        <v>230</v>
+        <v>1030</v>
       </c>
       <c r="T92" s="20" t="s">
-        <v>231</v>
+        <v>1031</v>
       </c>
       <c r="V92" s="15"/>
       <c r="W92" s="16"/>
@@ -8390,7 +12389,7 @@
       <c r="AN92" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
-      <c r="B93" s="46" t="n">
+      <c r="B93" s="15" t="n">
         <v>30</v>
       </c>
       <c r="C93" s="44" t="n">
@@ -8400,54 +12399,54 @@
         <v>3</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>232</v>
+        <v>1032</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>233</v>
+        <v>1033</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>234</v>
+        <v>1034</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>235</v>
+        <v>1035</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>236</v>
+        <v>1036</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>237</v>
+        <v>1037</v>
       </c>
       <c r="K93" s="26" t="s">
-        <v>238</v>
+        <v>1038</v>
       </c>
       <c r="L93" s="29" t="s">
-        <v>239</v>
+        <v>1039</v>
       </c>
       <c r="M93" s="25" t="s">
-        <v>240</v>
+        <v>1040</v>
       </c>
       <c r="N93" s="26" t="s">
-        <v>241</v>
+        <v>1041</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>242</v>
+        <v>1042</v>
       </c>
       <c r="P93" s="27" t="s">
-        <v>243</v>
+        <v>1043</v>
       </c>
       <c r="Q93" s="28" t="s">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="R93" s="26" t="s">
-        <v>245</v>
+        <v>1045</v>
       </c>
       <c r="S93" s="26" t="s">
-        <v>246</v>
+        <v>1046</v>
       </c>
       <c r="T93" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="V93" s="46" t="n">
+        <v>1047</v>
+      </c>
+      <c r="V93" s="15" t="n">
         <v>30</v>
       </c>
       <c r="W93" s="44" t="n">
@@ -8480,52 +12479,52 @@
         <v>5</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>248</v>
+        <v>1048</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>249</v>
+        <v>1049</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>251</v>
+        <v>1051</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>252</v>
+        <v>1052</v>
       </c>
       <c r="J94" s="32" t="s">
-        <v>253</v>
+        <v>1053</v>
       </c>
       <c r="K94" s="32" t="s">
-        <v>254</v>
+        <v>1054</v>
       </c>
       <c r="L94" s="35" t="s">
-        <v>255</v>
+        <v>1055</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>256</v>
+        <v>1056</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>257</v>
+        <v>1057</v>
       </c>
       <c r="O94" s="32" t="s">
-        <v>258</v>
+        <v>1058</v>
       </c>
       <c r="P94" s="33" t="s">
-        <v>259</v>
+        <v>1059</v>
       </c>
       <c r="Q94" s="34" t="s">
-        <v>260</v>
+        <v>1060</v>
       </c>
       <c r="R94" s="32" t="s">
-        <v>261</v>
+        <v>1061</v>
       </c>
       <c r="S94" s="32" t="s">
-        <v>262</v>
+        <v>1062</v>
       </c>
       <c r="T94" s="33" t="s">
-        <v>263</v>
+        <v>1063</v>
       </c>
       <c r="V94" s="15"/>
       <c r="W94" s="23"/>
@@ -8556,52 +12555,52 @@
         <v>1</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>264</v>
+        <v>1064</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>265</v>
+        <v>1065</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>266</v>
+        <v>1066</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>267</v>
+        <v>1067</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>268</v>
+        <v>1068</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>269</v>
+        <v>1069</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>270</v>
+        <v>1070</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>271</v>
+        <v>1071</v>
       </c>
       <c r="M95" s="18" t="s">
-        <v>272</v>
+        <v>1072</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>273</v>
+        <v>1073</v>
       </c>
       <c r="O95" s="19" t="s">
-        <v>274</v>
+        <v>1074</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>275</v>
+        <v>1075</v>
       </c>
       <c r="Q95" s="21" t="s">
-        <v>276</v>
+        <v>1076</v>
       </c>
       <c r="R95" s="19" t="s">
-        <v>277</v>
+        <v>1077</v>
       </c>
       <c r="S95" s="19" t="s">
-        <v>278</v>
+        <v>1078</v>
       </c>
       <c r="T95" s="20" t="s">
-        <v>279</v>
+        <v>1079</v>
       </c>
       <c r="V95" s="15"/>
       <c r="W95" s="16"/>
@@ -8634,52 +12633,52 @@
         <v>3</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>280</v>
+        <v>1080</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>281</v>
+        <v>1081</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>282</v>
+        <v>1082</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>283</v>
+        <v>1083</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>284</v>
+        <v>1084</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>285</v>
+        <v>1085</v>
       </c>
       <c r="K96" s="26" t="s">
-        <v>286</v>
+        <v>1086</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>287</v>
+        <v>1087</v>
       </c>
       <c r="M96" s="25" t="s">
-        <v>288</v>
+        <v>1088</v>
       </c>
       <c r="N96" s="26" t="s">
-        <v>289</v>
+        <v>1089</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>290</v>
+        <v>1090</v>
       </c>
       <c r="P96" s="27" t="s">
-        <v>291</v>
+        <v>1091</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>292</v>
+        <v>1092</v>
       </c>
       <c r="R96" s="26" t="s">
-        <v>293</v>
+        <v>1093</v>
       </c>
       <c r="S96" s="26" t="s">
-        <v>294</v>
+        <v>1094</v>
       </c>
       <c r="T96" s="27" t="s">
-        <v>295</v>
+        <v>1095</v>
       </c>
       <c r="V96" s="15"/>
       <c r="W96" s="44" t="n">
@@ -8712,52 +12711,52 @@
         <v>5</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>296</v>
+        <v>1096</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>297</v>
+        <v>1097</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>298</v>
+        <v>1098</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>299</v>
+        <v>1099</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="J97" s="40" t="s">
-        <v>301</v>
+        <v>1101</v>
       </c>
       <c r="K97" s="40" t="s">
-        <v>302</v>
+        <v>1102</v>
       </c>
       <c r="L97" s="43" t="s">
-        <v>69</v>
+        <v>869</v>
       </c>
       <c r="M97" s="39" t="s">
-        <v>303</v>
+        <v>1103</v>
       </c>
       <c r="N97" s="40" t="s">
-        <v>304</v>
+        <v>1104</v>
       </c>
       <c r="O97" s="40" t="s">
-        <v>305</v>
+        <v>1105</v>
       </c>
       <c r="P97" s="41" t="s">
-        <v>306</v>
+        <v>1106</v>
       </c>
       <c r="Q97" s="42" t="s">
-        <v>307</v>
+        <v>1107</v>
       </c>
       <c r="R97" s="40" t="s">
-        <v>308</v>
+        <v>1108</v>
       </c>
       <c r="S97" s="40" t="s">
-        <v>309</v>
+        <v>1109</v>
       </c>
       <c r="T97" s="41" t="s">
-        <v>310</v>
+        <v>1110</v>
       </c>
       <c r="V97" s="36"/>
       <c r="W97" s="37"/>
@@ -8804,14 +12803,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.86666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.356862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.2117647058824"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.7921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.6392156862745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="20" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.45490196078431"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.2823529411765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.7137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
@@ -11564,13 +15565,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>530</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>14</v>
@@ -11621,13 +15622,13 @@
         <v>17</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>18</v>
+        <v>530</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="Y39" s="10" t="s">
         <v>14</v>
@@ -11682,7 +15683,7 @@
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E40" s="18" t="n">
         <v>5.09789</v>
@@ -11735,7 +15736,7 @@
       <c r="V40" s="15"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y40" s="18"/>
       <c r="Z40" s="19"/>
@@ -11758,7 +15759,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="23"/>
       <c r="D41" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E41" s="25" t="n">
         <v>4.42913</v>
@@ -11811,7 +15812,7 @@
       <c r="V41" s="15"/>
       <c r="W41" s="23"/>
       <c r="X41" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y41" s="25"/>
       <c r="Z41" s="26"/>
@@ -11836,7 +15837,7 @@
         <v>0.1</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E42" s="25" t="n">
         <v>3.98776</v>
@@ -11891,7 +15892,7 @@
         <v>0.1</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
@@ -11914,7 +15915,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="23"/>
       <c r="D43" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E43" s="31" t="n">
         <v>5.55697</v>
@@ -11967,7 +15968,7 @@
       <c r="V43" s="15"/>
       <c r="W43" s="23"/>
       <c r="X43" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y43" s="31"/>
       <c r="Z43" s="32"/>
@@ -11990,7 +15991,7 @@
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E44" s="18" t="n">
         <v>4.22685</v>
@@ -12043,7 +16044,7 @@
       <c r="V44" s="15"/>
       <c r="W44" s="16"/>
       <c r="X44" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y44" s="18"/>
       <c r="Z44" s="19"/>
@@ -12066,7 +16067,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="23"/>
       <c r="D45" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E45" s="25" t="n">
         <v>4.47891</v>
@@ -12119,7 +16120,7 @@
       <c r="V45" s="15"/>
       <c r="W45" s="23"/>
       <c r="X45" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y45" s="25"/>
       <c r="Z45" s="26"/>
@@ -12146,7 +16147,7 @@
         <v>0.25</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E46" s="25" t="n">
         <v>4.17263</v>
@@ -12203,7 +16204,7 @@
         <v>0.25</v>
       </c>
       <c r="X46" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26"/>
@@ -12226,7 +16227,7 @@
       <c r="B47" s="15"/>
       <c r="C47" s="23"/>
       <c r="D47" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E47" s="31" t="n">
         <v>4.222</v>
@@ -12279,7 +16280,7 @@
       <c r="V47" s="15"/>
       <c r="W47" s="23"/>
       <c r="X47" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y47" s="31"/>
       <c r="Z47" s="32"/>
@@ -12302,7 +16303,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E48" s="18" t="n">
         <v>4.44537</v>
@@ -12355,7 +16356,7 @@
       <c r="V48" s="15"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y48" s="18"/>
       <c r="Z48" s="19"/>
@@ -12378,7 +16379,7 @@
       <c r="B49" s="15"/>
       <c r="C49" s="23"/>
       <c r="D49" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E49" s="25" t="n">
         <v>4.18507</v>
@@ -12431,7 +16432,7 @@
       <c r="V49" s="15"/>
       <c r="W49" s="23"/>
       <c r="X49" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y49" s="25"/>
       <c r="Z49" s="26"/>
@@ -12456,7 +16457,7 @@
         <v>0.5</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E50" s="25" t="n">
         <v>4.39303</v>
@@ -12511,7 +16512,7 @@
         <v>0.5</v>
       </c>
       <c r="X50" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26"/>
@@ -12534,7 +16535,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="23"/>
       <c r="D51" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E51" s="31" t="n">
         <v>5.12234</v>
@@ -12587,7 +16588,7 @@
       <c r="V51" s="36"/>
       <c r="W51" s="23"/>
       <c r="X51" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y51" s="31"/>
       <c r="Z51" s="32"/>
@@ -12610,7 +16611,7 @@
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>4.0535</v>
@@ -12663,7 +16664,7 @@
       <c r="V52" s="15"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y52" s="18"/>
       <c r="Z52" s="19"/>
@@ -12686,7 +16687,7 @@
       <c r="B53" s="15"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E53" s="25" t="n">
         <v>5.08934</v>
@@ -12739,7 +16740,7 @@
       <c r="V53" s="15"/>
       <c r="W53" s="23"/>
       <c r="X53" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y53" s="25"/>
       <c r="Z53" s="26"/>
@@ -12764,7 +16765,7 @@
         <v>0.1</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E54" s="25" t="n">
         <v>4.56437</v>
@@ -12819,7 +16820,7 @@
         <v>0.1</v>
       </c>
       <c r="X54" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26"/>
@@ -12842,7 +16843,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="23"/>
       <c r="D55" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E55" s="31" t="n">
         <v>4.6132</v>
@@ -12895,7 +16896,7 @@
       <c r="V55" s="15"/>
       <c r="W55" s="23"/>
       <c r="X55" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y55" s="31"/>
       <c r="Z55" s="32"/>
@@ -12918,7 +16919,7 @@
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E56" s="18" t="n">
         <v>3.76507</v>
@@ -12971,7 +16972,7 @@
       <c r="V56" s="15"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y56" s="18"/>
       <c r="Z56" s="19"/>
@@ -12994,7 +16995,7 @@
       <c r="B57" s="15"/>
       <c r="C57" s="23"/>
       <c r="D57" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E57" s="25" t="n">
         <v>4.47564</v>
@@ -13047,7 +17048,7 @@
       <c r="V57" s="15"/>
       <c r="W57" s="23"/>
       <c r="X57" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y57" s="25"/>
       <c r="Z57" s="26"/>
@@ -13074,7 +17075,7 @@
         <v>0.25</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E58" s="25" t="n">
         <v>3.88064</v>
@@ -13131,7 +17132,7 @@
         <v>0.25</v>
       </c>
       <c r="X58" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26"/>
@@ -13154,7 +17155,7 @@
       <c r="B59" s="15"/>
       <c r="C59" s="23"/>
       <c r="D59" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E59" s="31" t="n">
         <v>4.22737</v>
@@ -13207,7 +17208,7 @@
       <c r="V59" s="15"/>
       <c r="W59" s="23"/>
       <c r="X59" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y59" s="31"/>
       <c r="Z59" s="32"/>
@@ -13230,7 +17231,7 @@
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E60" s="18" t="n">
         <v>4.70822</v>
@@ -13283,7 +17284,7 @@
       <c r="V60" s="15"/>
       <c r="W60" s="16"/>
       <c r="X60" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y60" s="18"/>
       <c r="Z60" s="19"/>
@@ -13306,7 +17307,7 @@
       <c r="B61" s="15"/>
       <c r="C61" s="23"/>
       <c r="D61" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E61" s="25" t="n">
         <v>3.85657</v>
@@ -13359,7 +17360,7 @@
       <c r="V61" s="15"/>
       <c r="W61" s="23"/>
       <c r="X61" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y61" s="25"/>
       <c r="Z61" s="26"/>
@@ -13384,7 +17385,7 @@
         <v>0.5</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E62" s="25" t="n">
         <v>4.56681</v>
@@ -13439,7 +17440,7 @@
         <v>0.5</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
@@ -13462,7 +17463,7 @@
       <c r="B63" s="36"/>
       <c r="C63" s="23"/>
       <c r="D63" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>4.45513</v>
@@ -13515,7 +17516,7 @@
       <c r="V63" s="36"/>
       <c r="W63" s="23"/>
       <c r="X63" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y63" s="39"/>
       <c r="Z63" s="40"/>
@@ -13538,7 +17539,7 @@
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E64" s="18" t="n">
         <v>5.04497</v>
@@ -13591,7 +17592,7 @@
       <c r="V64" s="15"/>
       <c r="W64" s="16"/>
       <c r="X64" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y64" s="18"/>
       <c r="Z64" s="19"/>
@@ -13614,7 +17615,7 @@
       <c r="B65" s="15"/>
       <c r="C65" s="23"/>
       <c r="D65" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E65" s="25" t="n">
         <v>4.63169</v>
@@ -13667,7 +17668,7 @@
       <c r="V65" s="15"/>
       <c r="W65" s="23"/>
       <c r="X65" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y65" s="25"/>
       <c r="Z65" s="26"/>
@@ -13692,7 +17693,7 @@
         <v>0.1</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E66" s="25" t="n">
         <v>4.4727</v>
@@ -13747,7 +17748,7 @@
         <v>0.1</v>
       </c>
       <c r="X66" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26"/>
@@ -13770,7 +17771,7 @@
       <c r="B67" s="15"/>
       <c r="C67" s="23"/>
       <c r="D67" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E67" s="31" t="n">
         <v>5.47528</v>
@@ -13823,7 +17824,7 @@
       <c r="V67" s="15"/>
       <c r="W67" s="23"/>
       <c r="X67" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y67" s="31"/>
       <c r="Z67" s="32"/>
@@ -13846,7 +17847,7 @@
       <c r="B68" s="15"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E68" s="18" t="n">
         <v>4.64518</v>
@@ -13899,7 +17900,7 @@
       <c r="V68" s="15"/>
       <c r="W68" s="16"/>
       <c r="X68" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y68" s="18"/>
       <c r="Z68" s="19"/>
@@ -13922,7 +17923,7 @@
       <c r="B69" s="15"/>
       <c r="C69" s="23"/>
       <c r="D69" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E69" s="25" t="n">
         <v>3.99312</v>
@@ -13975,7 +17976,7 @@
       <c r="V69" s="15"/>
       <c r="W69" s="23"/>
       <c r="X69" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y69" s="25"/>
       <c r="Z69" s="26"/>
@@ -14002,7 +18003,7 @@
         <v>0.25</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E70" s="25" t="n">
         <v>4.05304</v>
@@ -14059,7 +18060,7 @@
         <v>0.25</v>
       </c>
       <c r="X70" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26"/>
@@ -14082,7 +18083,7 @@
       <c r="B71" s="15"/>
       <c r="C71" s="23"/>
       <c r="D71" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E71" s="31" t="n">
         <v>4.76424</v>
@@ -14135,7 +18136,7 @@
       <c r="V71" s="15"/>
       <c r="W71" s="23"/>
       <c r="X71" s="30" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y71" s="31"/>
       <c r="Z71" s="32"/>
@@ -14158,7 +18159,7 @@
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="E72" s="18" t="n">
         <v>4.7431</v>
@@ -14211,7 +18212,7 @@
       <c r="V72" s="15"/>
       <c r="W72" s="16"/>
       <c r="X72" s="17" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="19"/>
@@ -14234,7 +18235,7 @@
       <c r="B73" s="15"/>
       <c r="C73" s="23"/>
       <c r="D73" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E73" s="25" t="n">
         <v>4.05958</v>
@@ -14287,7 +18288,7 @@
       <c r="V73" s="15"/>
       <c r="W73" s="23"/>
       <c r="X73" s="24" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Y73" s="25"/>
       <c r="Z73" s="26"/>
@@ -14312,7 +18313,7 @@
         <v>0.5</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="E74" s="25" t="n">
         <v>4.21181</v>
@@ -14367,7 +18368,7 @@
         <v>0.5</v>
       </c>
       <c r="X74" s="24" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26"/>
@@ -14390,7 +18391,7 @@
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
       <c r="D75" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>3.92853</v>
@@ -14443,7 +18444,7 @@
       <c r="V75" s="36"/>
       <c r="W75" s="37"/>
       <c r="X75" s="38" t="s">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="Y75" s="39"/>
       <c r="Z75" s="40"/>
@@ -14547,10 +18548,10 @@
         <v>11</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>14</v>
@@ -14604,10 +18605,10 @@
         <v>11</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="Y79" s="10" t="s">
         <v>14</v>
@@ -14839,7 +18840,7 @@
       <c r="AN83" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
-      <c r="B84" s="46" t="n">
+      <c r="B84" s="15" t="n">
         <v>15</v>
       </c>
       <c r="C84" s="44" t="n">
@@ -14864,7 +18865,7 @@
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
       <c r="T84" s="27"/>
-      <c r="V84" s="46" t="n">
+      <c r="V84" s="15" t="n">
         <v>15</v>
       </c>
       <c r="W84" s="44" t="n">
@@ -15251,7 +19252,7 @@
       <c r="AN92" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
-      <c r="B93" s="46" t="n">
+      <c r="B93" s="15" t="n">
         <v>30</v>
       </c>
       <c r="C93" s="44" t="n">
@@ -15276,7 +19277,7 @@
       <c r="R93" s="26"/>
       <c r="S93" s="26"/>
       <c r="T93" s="27"/>
-      <c r="V93" s="46" t="n">
+      <c r="V93" s="15" t="n">
         <v>30</v>
       </c>
       <c r="W93" s="44" t="n">

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Abcissas fixas" sheetId="1" r:id="rId1"/>
     <sheet name="Abcissas variáveis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
@@ -950,40 +947,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>100</v>
-          </cell>
-          <cell r="C5">
-            <v>50</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1271,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AN98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1822,7 +1785,7 @@
         <v>0.20816999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:40">
+    <row r="8" spans="2:40" ht="15.75" thickBot="1">
       <c r="B8" s="15"/>
       <c r="C8" s="23"/>
       <c r="D8" s="30">
@@ -2258,7 +2221,7 @@
         <v>0.18740000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:40">
+    <row r="12" spans="2:40" ht="15.75" thickBot="1">
       <c r="B12" s="15">
         <v>15</v>
       </c>
@@ -2698,7 +2661,7 @@
         <v>0.33124999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:40">
+    <row r="16" spans="2:40" ht="15.75" thickBot="1">
       <c r="B16" s="15"/>
       <c r="C16" s="23"/>
       <c r="D16" s="30">
@@ -3134,7 +3097,7 @@
         <v>0.30740000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" ht="15.75" thickBot="1">
       <c r="B20" s="36"/>
       <c r="C20" s="37"/>
       <c r="D20" s="38">
@@ -3570,7 +3533,7 @@
         <v>0.30113000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" ht="15.75" thickBot="1">
       <c r="B24" s="15"/>
       <c r="C24" s="23"/>
       <c r="D24" s="30">
@@ -4006,7 +3969,7 @@
         <v>0.28150999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:40">
+    <row r="28" spans="2:40" ht="15.75" thickBot="1">
       <c r="B28" s="15">
         <v>30</v>
       </c>
@@ -4446,7 +4409,7 @@
         <v>0.10453</v>
       </c>
     </row>
-    <row r="32" spans="2:40">
+    <row r="32" spans="2:40" ht="15.75" thickBot="1">
       <c r="B32" s="15"/>
       <c r="C32" s="23"/>
       <c r="D32" s="30">
@@ -4882,7 +4845,7 @@
         <v>0.33889999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" ht="15.75" thickBot="1">
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
       <c r="D36" s="38">
@@ -11428,8 +11391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AN98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH69" sqref="AH69"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="1170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Abcissas fixas" sheetId="1" r:id="rId1"/>
@@ -1234,22 +1234,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AN98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875"/>
     <col min="2" max="2" width="15"/>
-    <col min="3" max="3" width="20.140625"/>
-    <col min="4" max="4" width="17.140625"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="20" width="8.5703125"/>
     <col min="21" max="21" width="3.7109375"/>
-    <col min="22" max="22" width="15.85546875"/>
-    <col min="23" max="23" width="20.7109375"/>
-    <col min="24" max="24" width="16.5703125"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
     <col min="25" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -11391,20 +11391,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AN98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875"/>
     <col min="2" max="2" width="15"/>
-    <col min="3" max="3" width="18.5703125"/>
-    <col min="4" max="4" width="17.140625"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="20" width="8.5703125"/>
     <col min="21" max="21" width="3.42578125"/>
     <col min="22" max="22" width="17.28515625"/>
-    <col min="23" max="23" width="20"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
     <col min="24" max="24" width="17.7109375"/>
     <col min="25" max="1025" width="8.5703125"/>
   </cols>
